--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -1013,7 +1013,9 @@
       <c r="J12" t="n">
         <v>0.8599999999999985</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.523809523809554</v>
+      </c>
       <c r="L12" t="n">
         <v>5.3</v>
       </c>
@@ -1070,7 +1072,9 @@
       <c r="J13" t="n">
         <v>0.8899999999999988</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>10.14492753623182</v>
+      </c>
       <c r="L13" t="n">
         <v>5.289</v>
       </c>
@@ -1127,7 +1131,9 @@
       <c r="J14" t="n">
         <v>0.8999999999999995</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-19.23076923076918</v>
+      </c>
       <c r="L14" t="n">
         <v>5.296999999999999</v>
       </c>
@@ -1184,7 +1190,9 @@
       <c r="J15" t="n">
         <v>0.919999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.81481481481485</v>
+      </c>
       <c r="L15" t="n">
         <v>5.288999999999999</v>
       </c>
@@ -1237,7 +1245,9 @@
       <c r="J16" t="n">
         <v>1.06</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>39.62264150943394</v>
+      </c>
       <c r="L16" t="n">
         <v>5.294999999999998</v>
       </c>
@@ -1292,7 +1302,9 @@
       <c r="J17" t="n">
         <v>1.06</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>28.88888888888899</v>
+      </c>
       <c r="L17" t="n">
         <v>5.315999999999998</v>
       </c>
@@ -1347,7 +1359,9 @@
       <c r="J18" t="n">
         <v>1.089999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>5.331999999999998</v>
       </c>
@@ -1400,7 +1414,9 @@
       <c r="J19" t="n">
         <v>1.089999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>31.91489361702118</v>
+      </c>
       <c r="L19" t="n">
         <v>5.347999999999997</v>
       </c>
@@ -1457,7 +1473,9 @@
       <c r="J20" t="n">
         <v>1.129999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>84.21052631578934</v>
+      </c>
       <c r="L20" t="n">
         <v>5.366999999999997</v>
       </c>
@@ -1514,7 +1532,9 @@
       <c r="J21" t="n">
         <v>1.129999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>77.77777777777763</v>
+      </c>
       <c r="L21" t="n">
         <v>5.398999999999997</v>
       </c>
@@ -1573,7 +1593,9 @@
       <c r="J22" t="n">
         <v>1.179999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>65.51724137931048</v>
+      </c>
       <c r="L22" t="n">
         <v>5.414999999999997</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>1.229999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>10.74380165289257</v>
+        <v>69.69696969696973</v>
       </c>
       <c r="L23" t="n">
         <v>5.438999999999997</v>
@@ -1682,7 +1704,7 @@
         <v>1.229999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>30.09708737864079</v>
+        <v>67.74193548387105</v>
       </c>
       <c r="L24" t="n">
         <v>5.461999999999997</v>
@@ -1737,7 +1759,7 @@
         <v>1.239999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>13.95348837209306</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>5.481999999999998</v>
@@ -1792,7 +1814,7 @@
         <v>1.249999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>12.6436781609196</v>
+        <v>26.31578947368431</v>
       </c>
       <c r="L26" t="n">
         <v>5.486999999999997</v>
@@ -1847,7 +1869,7 @@
         <v>1.249999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>36.11111111111114</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L27" t="n">
         <v>5.491999999999998</v>
@@ -1902,7 +1924,7 @@
         <v>1.289999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>20.58823529411774</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L28" t="n">
         <v>5.489999999999998</v>
@@ -1957,7 +1979,7 @@
         <v>1.339999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>12.32876712328778</v>
+        <v>-52.38095238095234</v>
       </c>
       <c r="L29" t="n">
         <v>5.482999999999999</v>
@@ -2012,7 +2034,7 @@
         <v>1.389999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>16.8831168831169</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L30" t="n">
         <v>5.476999999999999</v>
@@ -2067,7 +2089,7 @@
         <v>1.429999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>44.11764705882358</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L31" t="n">
         <v>5.475</v>
@@ -2124,7 +2146,7 @@
         <v>1.439999999999998</v>
       </c>
       <c r="K32" t="n">
-        <v>34.48275862068974</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L32" t="n">
         <v>5.478999999999999</v>
@@ -2181,7 +2203,7 @@
         <v>1.439999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>41.81818181818198</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L33" t="n">
         <v>5.478</v>
@@ -2238,7 +2260,7 @@
         <v>1.439999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>40.74074074074083</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>5.476999999999999</v>
@@ -2295,7 +2317,7 @@
         <v>1.439999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>38.46153846153859</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L35" t="n">
         <v>5.476999999999999</v>
@@ -2352,7 +2374,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>12.82051282051284</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>5.476999999999999</v>
@@ -2409,7 +2431,7 @@
         <v>1.449999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>12.82051282051284</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L37" t="n">
         <v>5.476999999999999</v>
@@ -2466,7 +2488,7 @@
         <v>1.469999999999998</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L38" t="n">
         <v>5.478999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>1.479999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>2.564102564102739</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>5.487</v>
@@ -2580,7 +2602,7 @@
         <v>1.499999999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.702702702702651</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L40" t="n">
         <v>5.491999999999999</v>
@@ -2637,7 +2659,7 @@
         <v>1.499999999999998</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.702702702702651</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>5.492999999999999</v>
@@ -2694,7 +2716,7 @@
         <v>1.569999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.692307692307762</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L42" t="n">
         <v>5.485999999999999</v>
@@ -2745,7 +2767,7 @@
         <v>1.629999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>-34.99999999999996</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L43" t="n">
         <v>5.472999999999999</v>
@@ -2796,7 +2818,7 @@
         <v>1.739999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.882352941176348</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L44" t="n">
         <v>5.470999999999999</v>
@@ -2847,7 +2869,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.27272727272723</v>
+        <v>-37.77777777777767</v>
       </c>
       <c r="L45" t="n">
         <v>5.452999999999999</v>
@@ -2949,7 +2971,7 @@
         <v>2.109999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.651162790697677</v>
+        <v>-3.124999999999931</v>
       </c>
       <c r="L47" t="n">
         <v>5.449</v>
@@ -3000,7 +3022,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>4.651162790697677</v>
+        <v>1.492537313432804</v>
       </c>
       <c r="L48" t="n">
         <v>5.451</v>
@@ -3051,7 +3073,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>5.882352941176446</v>
+        <v>-7.246376811594173</v>
       </c>
       <c r="L49" t="n">
         <v>5.448</v>
@@ -3102,7 +3124,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-7.246376811594173</v>
       </c>
       <c r="L50" t="n">
         <v>5.443000000000001</v>
@@ -3153,7 +3175,7 @@
         <v>2.209999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.564102564102622</v>
+        <v>6.250000000000008</v>
       </c>
       <c r="L51" t="n">
         <v>5.44</v>
@@ -3204,7 +3226,7 @@
         <v>2.219999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.564102564102506</v>
+        <v>18.6440677966102</v>
       </c>
       <c r="L52" t="n">
         <v>5.445000000000001</v>
@@ -3255,7 +3277,7 @@
         <v>2.239999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L53" t="n">
         <v>5.458000000000001</v>
@@ -3306,7 +3328,7 @@
         <v>2.239999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L54" t="n">
         <v>5.460000000000001</v>
@@ -3357,7 +3379,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.090909090909092</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L55" t="n">
         <v>5.470000000000001</v>
@@ -3408,7 +3430,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>5.470000000000001</v>
@@ -3459,7 +3481,7 @@
         <v>2.469999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.843137254901958</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>5.466000000000001</v>
@@ -3510,7 +3532,7 @@
         <v>2.539999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9345794392523985</v>
+        <v>8.57142857142863</v>
       </c>
       <c r="L58" t="n">
         <v>5.465000000000002</v>
@@ -3561,7 +3583,7 @@
         <v>2.67</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.92436974789921</v>
+        <v>-20.83333333333339</v>
       </c>
       <c r="L59" t="n">
         <v>5.455000000000001</v>
@@ -3612,7 +3634,7 @@
         <v>2.67</v>
       </c>
       <c r="K60" t="n">
-        <v>-12.82051282051283</v>
+        <v>-26.08695652173906</v>
       </c>
       <c r="L60" t="n">
         <v>5.445000000000001</v>
@@ -3663,7 +3685,7 @@
         <v>2.67</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.82051282051283</v>
+        <v>-28.88888888888899</v>
       </c>
       <c r="L61" t="n">
         <v>5.433000000000002</v>
@@ -3714,7 +3736,7 @@
         <v>2.74</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.8547008547008352</v>
+        <v>-15.99999999999996</v>
       </c>
       <c r="L62" t="n">
         <v>5.427000000000001</v>
@@ -3765,7 +3787,7 @@
         <v>2.81</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.694915254237324</v>
+        <v>-26.31578947368418</v>
       </c>
       <c r="L63" t="n">
         <v>5.412000000000001</v>
@@ -3816,7 +3838,7 @@
         <v>2.850000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>-15.31531531531536</v>
+        <v>-20.75471698113206</v>
       </c>
       <c r="L64" t="n">
         <v>5.393000000000002</v>
@@ -3867,7 +3889,7 @@
         <v>2.960000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>9.433962264150891</v>
+        <v>-12.28070175438597</v>
       </c>
       <c r="L65" t="n">
         <v>5.393000000000002</v>
@@ -3918,7 +3940,7 @@
         <v>2.960000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.865168539325854</v>
+        <v>2.04081632653056</v>
       </c>
       <c r="L66" t="n">
         <v>5.386000000000001</v>
@@ -3969,7 +3991,7 @@
         <v>3.030000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-10.86956521739133</v>
+        <v>-26.53061224489801</v>
       </c>
       <c r="L67" t="n">
         <v>5.380000000000001</v>
@@ -4020,7 +4042,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.368421052631587</v>
+        <v>16.27906976744187</v>
       </c>
       <c r="L68" t="n">
         <v>5.374000000000001</v>
@@ -4071,7 +4093,7 @@
         <v>3.160000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-9.278350515463881</v>
+        <v>2.040816326530746</v>
       </c>
       <c r="L69" t="n">
         <v>5.375000000000001</v>
@@ -4122,7 +4144,7 @@
         <v>3.180000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.070707070707086</v>
+        <v>5.882352941176512</v>
       </c>
       <c r="L70" t="n">
         <v>5.378000000000001</v>
@@ -4173,7 +4195,7 @@
         <v>3.2</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111103</v>
+        <v>-13.04347826086948</v>
       </c>
       <c r="L71" t="n">
         <v>5.379</v>
@@ -4224,7 +4246,7 @@
         <v>3.22</v>
       </c>
       <c r="K72" t="n">
-        <v>-10.00000000000004</v>
+        <v>7.317073170731782</v>
       </c>
       <c r="L72" t="n">
         <v>5.375000000000001</v>
@@ -4275,7 +4297,7 @@
         <v>3.22</v>
       </c>
       <c r="K73" t="n">
-        <v>-12.24489795918367</v>
+        <v>18.91891891891904</v>
       </c>
       <c r="L73" t="n">
         <v>5.378000000000001</v>
@@ -4326,7 +4348,7 @@
         <v>3.22</v>
       </c>
       <c r="K74" t="n">
-        <v>-12.24489795918367</v>
+        <v>-15.38461538461546</v>
       </c>
       <c r="L74" t="n">
         <v>5.385000000000001</v>
@@ -4377,7 +4399,7 @@
         <v>3.239999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.521739130434733</v>
+        <v>-21.42857142857141</v>
       </c>
       <c r="L75" t="n">
         <v>5.379</v>
@@ -4428,7 +4450,7 @@
         <v>3.259999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.64367816091957</v>
+        <v>13.0434782608698</v>
       </c>
       <c r="L76" t="n">
         <v>5.375000000000001</v>
@@ -4479,7 +4501,7 @@
         <v>3.259999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.797468354430411</v>
+        <v>-25.00000000000042</v>
       </c>
       <c r="L77" t="n">
         <v>5.378000000000001</v>
@@ -4530,7 +4552,7 @@
         <v>3.259999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-13.88888888888897</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>5.374000000000001</v>
@@ -4581,7 +4603,7 @@
         <v>3.259999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>5.084745762711916</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>5.376000000000001</v>
@@ -4632,7 +4654,7 @@
         <v>3.259999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>5.084745762711916</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>5.376000000000001</v>
@@ -4683,7 +4705,7 @@
         <v>3.289999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>9.677419354838802</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L81" t="n">
         <v>5.381000000000002</v>
@@ -4734,7 +4756,7 @@
         <v>3.289999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-1.818181818181783</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L82" t="n">
         <v>5.384000000000001</v>
@@ -4785,7 +4807,7 @@
         <v>3.319999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>17.6470588235296</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L83" t="n">
         <v>5.390000000000001</v>
@@ -4836,7 +4858,7 @@
         <v>3.35</v>
       </c>
       <c r="K84" t="n">
-        <v>20.00000000000014</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L84" t="n">
         <v>5.393</v>
@@ -4887,7 +4909,7 @@
         <v>3.359999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>-4.999999999999911</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L85" t="n">
         <v>5.397</v>
@@ -4938,7 +4960,7 @@
         <v>3.389999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>2.325581395348799</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L86" t="n">
         <v>5.401999999999999</v>
@@ -4989,7 +5011,7 @@
         <v>3.409999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>15.78947368421077</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L87" t="n">
         <v>5.404999999999999</v>
@@ -5040,7 +5062,7 @@
         <v>3.419999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.249999999999931</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L88" t="n">
         <v>5.406999999999998</v>
@@ -5091,7 +5113,7 @@
         <v>3.429999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>18.51851851851866</v>
+        <v>17.64705882352966</v>
       </c>
       <c r="L89" t="n">
         <v>5.409999999999998</v>
@@ -5142,7 +5164,7 @@
         <v>3.489999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.677419354838857</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L90" t="n">
         <v>5.406999999999998</v>
@@ -5193,7 +5215,7 @@
         <v>3.539999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>11.76470588235299</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L91" t="n">
         <v>5.405999999999999</v>
@@ -5244,7 +5266,7 @@
         <v>3.549999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>9.090909090909188</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L92" t="n">
         <v>5.405999999999999</v>
@@ -5295,7 +5317,7 @@
         <v>3.559999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>5.882352941176625</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L93" t="n">
         <v>5.401999999999999</v>
@@ -5346,7 +5368,7 @@
         <v>3.569999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>8.571428571428672</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L94" t="n">
         <v>5.401999999999999</v>
@@ -5397,7 +5419,7 @@
         <v>3.619999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>26.31578947368419</v>
+        <v>13.0434782608697</v>
       </c>
       <c r="L95" t="n">
         <v>5.407999999999999</v>
@@ -5448,7 +5470,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>28.20512820512831</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>5.414</v>
@@ -5499,7 +5521,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>21.95121951219508</v>
+        <v>27.99999999999966</v>
       </c>
       <c r="L97" t="n">
         <v>5.42</v>
@@ -5550,7 +5572,7 @@
         <v>3.68</v>
       </c>
       <c r="K98" t="n">
-        <v>23.80952380952389</v>
+        <v>27.99999999999991</v>
       </c>
       <c r="L98" t="n">
         <v>5.428000000000001</v>
@@ -5601,7 +5623,7 @@
         <v>3.71</v>
       </c>
       <c r="K99" t="n">
-        <v>15.55555555555558</v>
+        <v>45.45454545454538</v>
       </c>
       <c r="L99" t="n">
         <v>5.432</v>
@@ -5652,7 +5674,7 @@
         <v>3.82</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.142857142857132</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L100" t="n">
         <v>5.431000000000001</v>
@@ -5703,7 +5725,7 @@
         <v>3.91</v>
       </c>
       <c r="K101" t="n">
-        <v>3.22580645161283</v>
+        <v>5.555555555555419</v>
       </c>
       <c r="L101" t="n">
         <v>5.434000000000001</v>
@@ -5754,7 +5776,7 @@
         <v>3.91</v>
       </c>
       <c r="K102" t="n">
-        <v>3.22580645161283</v>
+        <v>8.571428571428354</v>
       </c>
       <c r="L102" t="n">
         <v>5.436000000000002</v>
@@ -5805,7 +5827,7 @@
         <v>3.99</v>
       </c>
       <c r="K103" t="n">
-        <v>-13.43283582089562</v>
+        <v>-14.28571428571435</v>
       </c>
       <c r="L103" t="n">
         <v>5.431000000000002</v>
@@ -5856,7 +5878,7 @@
         <v>4.07</v>
       </c>
       <c r="K104" t="n">
-        <v>2.777777777777716</v>
+        <v>-6.666666666666693</v>
       </c>
       <c r="L104" t="n">
         <v>5.433000000000002</v>
@@ -5907,7 +5929,7 @@
         <v>4.07</v>
       </c>
       <c r="K105" t="n">
-        <v>4.225352112675961</v>
+        <v>-14.28571428571435</v>
       </c>
       <c r="L105" t="n">
         <v>5.430000000000001</v>
@@ -5958,7 +5980,7 @@
         <v>4.080000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>1.449275362318934</v>
+        <v>-7.317073170731517</v>
       </c>
       <c r="L106" t="n">
         <v>5.425000000000001</v>
@@ -6009,7 +6031,7 @@
         <v>4.11</v>
       </c>
       <c r="K107" t="n">
-        <v>8.571428571428491</v>
+        <v>-2.325581395348991</v>
       </c>
       <c r="L107" t="n">
         <v>5.425000000000001</v>
@@ -6060,7 +6082,7 @@
         <v>4.11</v>
       </c>
       <c r="K108" t="n">
-        <v>10.14492753623177</v>
+        <v>4.999999999999889</v>
       </c>
       <c r="L108" t="n">
         <v>5.424000000000001</v>
@@ -6111,7 +6133,7 @@
         <v>4.15</v>
       </c>
       <c r="K109" t="n">
-        <v>13.88888888888879</v>
+        <v>51.51515151515148</v>
       </c>
       <c r="L109" t="n">
         <v>5.430000000000001</v>
@@ -6162,7 +6184,7 @@
         <v>4.15</v>
       </c>
       <c r="K110" t="n">
-        <v>24.24242424242419</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>5.447</v>
@@ -6213,7 +6235,7 @@
         <v>4.15</v>
       </c>
       <c r="K111" t="n">
-        <v>18.03278688524577</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>5.455</v>
@@ -6264,7 +6286,7 @@
         <v>4.170000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>19.35483870967738</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
         <v>5.465</v>
@@ -6315,7 +6337,7 @@
         <v>4.170000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>21.31147540983597</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>5.483</v>
@@ -6366,7 +6388,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>18.03278688524572</v>
+        <v>81.81818181818079</v>
       </c>
       <c r="L114" t="n">
         <v>5.491999999999999</v>
@@ -6417,7 +6439,7 @@
         <v>4.210000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>5.084745762711885</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L115" t="n">
         <v>5.497999999999999</v>
@@ -6468,7 +6490,7 @@
         <v>4.250000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>6.666666666666647</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L116" t="n">
         <v>5.507</v>
@@ -6519,7 +6541,7 @@
         <v>4.250000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>10.34482758620695</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L117" t="n">
         <v>5.513</v>
@@ -6570,7 +6592,7 @@
         <v>4.250000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>8.771929824561354</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L118" t="n">
         <v>5.519</v>
@@ -6621,7 +6643,7 @@
         <v>4.260000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>12.72727272727258</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L119" t="n">
         <v>5.520000000000001</v>
@@ -6672,7 +6694,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>29.16666666666676</v>
+        <v>-19.99999999999953</v>
       </c>
       <c r="L120" t="n">
         <v>5.517000000000001</v>
@@ -6723,7 +6745,7 @@
         <v>4.410000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.9999999999999</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>5.503000000000001</v>
@@ -6774,7 +6796,7 @@
         <v>4.410000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.9999999999999</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L122" t="n">
         <v>5.487</v>
@@ -6825,7 +6847,7 @@
         <v>4.450000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.347826086956421</v>
+        <v>-70.3703703703703</v>
       </c>
       <c r="L123" t="n">
         <v>5.467000000000001</v>
@@ -6876,7 +6898,7 @@
         <v>4.490000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-14.28571428571417</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L124" t="n">
         <v>5.452</v>
@@ -6927,7 +6949,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>9.433962264151058</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L125" t="n">
         <v>5.451</v>
@@ -6978,7 +7000,7 @@
         <v>4.700000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-9.677419354838774</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>5.436</v>
@@ -7029,7 +7051,7 @@
         <v>4.800000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>1.449275362318934</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L127" t="n">
         <v>5.431</v>
@@ -7080,7 +7102,7 @@
         <v>4.900000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.39240506329108</v>
+        <v>-21.8749999999999</v>
       </c>
       <c r="L128" t="n">
         <v>5.416</v>
@@ -7131,7 +7153,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.529411764705794</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>5.412000000000001</v>
@@ -7182,7 +7204,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.529411764705794</v>
+        <v>18.64406779661014</v>
       </c>
       <c r="L130" t="n">
         <v>5.412000000000001</v>
@@ -7233,7 +7255,7 @@
         <v>5.020000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.747126436781564</v>
+        <v>14.75409836065564</v>
       </c>
       <c r="L131" t="n">
         <v>5.421000000000001</v>
@@ -7284,7 +7306,7 @@
         <v>5.020000000000004</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.235294117647062</v>
+        <v>22.80701754385951</v>
       </c>
       <c r="L132" t="n">
         <v>5.430000000000001</v>
@@ -7335,7 +7357,7 @@
         <v>5.060000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>-12.35955056179774</v>
+        <v>8.771929824561326</v>
       </c>
       <c r="L133" t="n">
         <v>5.439000000000002</v>
@@ -7386,7 +7408,7 @@
         <v>5.090000000000004</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571423</v>
+        <v>-18.36734693877555</v>
       </c>
       <c r="L134" t="n">
         <v>5.441000000000002</v>
@@ -7437,7 +7459,7 @@
         <v>5.150000000000004</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.02127659574464</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L135" t="n">
         <v>5.426000000000002</v>
@@ -7488,7 +7510,7 @@
         <v>5.290000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.769230769230802</v>
+        <v>-2.040816326530746</v>
       </c>
       <c r="L136" t="n">
         <v>5.435000000000001</v>
@@ -7539,7 +7561,7 @@
         <v>5.340000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>-10.09174311926606</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L137" t="n">
         <v>5.429000000000002</v>
@@ -7590,7 +7612,7 @@
         <v>5.360000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.71171171171168</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L138" t="n">
         <v>5.431000000000002</v>
@@ -7641,7 +7663,7 @@
         <v>5.360000000000003</v>
       </c>
       <c r="K139" t="n">
-        <v>-10.90909090909082</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L139" t="n">
         <v>5.423000000000002</v>
@@ -7692,7 +7714,7 @@
         <v>5.530000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>-20.32520325203248</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L140" t="n">
         <v>5.398000000000001</v>
@@ -7743,7 +7765,7 @@
         <v>5.680000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7874015748031319</v>
+        <v>-12.12121212121216</v>
       </c>
       <c r="L141" t="n">
         <v>5.390000000000002</v>
@@ -7794,7 +7816,7 @@
         <v>5.690000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>1.562499999999965</v>
+        <v>-4.761904761904816</v>
       </c>
       <c r="L142" t="n">
         <v>5.383000000000002</v>
@@ -7845,7 +7867,7 @@
         <v>5.690000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>4.838709677419319</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>5.380000000000002</v>
@@ -7896,7 +7918,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>2.479338842975224</v>
+        <v>12.7272727272728</v>
       </c>
       <c r="L144" t="n">
         <v>5.381000000000002</v>
@@ -7947,7 +7969,7 @@
         <v>5.710000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>-8.10810810810816</v>
+        <v>-19.04761904761907</v>
       </c>
       <c r="L145" t="n">
         <v>5.387000000000002</v>
@@ -7998,7 +8020,7 @@
         <v>5.720000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>1.960784313725531</v>
+        <v>-5.263157894736719</v>
       </c>
       <c r="L146" t="n">
         <v>5.380000000000002</v>
@@ -8049,7 +8071,7 @@
         <v>5.720000000000004</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.695652173913034</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>5.378000000000002</v>
@@ -8100,7 +8122,7 @@
         <v>5.720000000000004</v>
       </c>
       <c r="K148" t="n">
-        <v>2.439024390243955</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>5.378000000000002</v>
@@ -8151,7 +8173,7 @@
         <v>5.840000000000004</v>
       </c>
       <c r="K149" t="n">
-        <v>-23.80952380952381</v>
+        <v>16.12903225806439</v>
       </c>
       <c r="L149" t="n">
         <v>5.366000000000001</v>
@@ -8202,7 +8224,7 @@
         <v>5.950000000000004</v>
       </c>
       <c r="K150" t="n">
-        <v>-9.473684210526393</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L150" t="n">
         <v>5.382000000000002</v>
@@ -8253,7 +8275,7 @@
         <v>6.030000000000004</v>
       </c>
       <c r="K151" t="n">
-        <v>-14.85148514851489</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L151" t="n">
         <v>5.375000000000002</v>
@@ -8304,7 +8326,7 @@
         <v>6.040000000000004</v>
       </c>
       <c r="K152" t="n">
-        <v>-13.72549019607839</v>
+        <v>-19.99999999999969</v>
       </c>
       <c r="L152" t="n">
         <v>5.368000000000002</v>
@@ -8355,7 +8377,7 @@
         <v>6.110000000000004</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.857142857142881</v>
+        <v>-2.439024390244061</v>
       </c>
       <c r="L153" t="n">
         <v>5.368000000000002</v>
@@ -8457,7 +8479,7 @@
         <v>6.190000000000004</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.923076923076968</v>
+        <v>-19.14893617021293</v>
       </c>
       <c r="L155" t="n">
         <v>5.359000000000003</v>
@@ -8508,7 +8530,7 @@
         <v>6.260000000000004</v>
       </c>
       <c r="K156" t="n">
-        <v>-9.278350515463897</v>
+        <v>-3.703703703703789</v>
       </c>
       <c r="L156" t="n">
         <v>5.357000000000003</v>
@@ -8559,7 +8581,7 @@
         <v>6.260000000000004</v>
       </c>
       <c r="K157" t="n">
-        <v>-4.347826086956522</v>
+        <v>-3.703703703703789</v>
       </c>
       <c r="L157" t="n">
         <v>5.355000000000003</v>
@@ -8610,7 +8632,7 @@
         <v>6.260000000000004</v>
       </c>
       <c r="K158" t="n">
-        <v>-2.222222222222271</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L158" t="n">
         <v>5.353000000000003</v>
@@ -8661,7 +8683,7 @@
         <v>6.260000000000004</v>
       </c>
       <c r="K159" t="n">
-        <v>-2.222222222222271</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L159" t="n">
         <v>5.363000000000004</v>
@@ -8712,7 +8734,7 @@
         <v>6.260000000000004</v>
       </c>
       <c r="K160" t="n">
-        <v>20.54794520547934</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L160" t="n">
         <v>5.362000000000004</v>
@@ -8763,7 +8785,7 @@
         <v>6.370000000000005</v>
       </c>
       <c r="K161" t="n">
-        <v>-15.94202898550724</v>
+        <v>-15.15151515151536</v>
       </c>
       <c r="L161" t="n">
         <v>5.358000000000004</v>
@@ -8814,7 +8836,7 @@
         <v>6.420000000000005</v>
       </c>
       <c r="K162" t="n">
-        <v>-9.589041095890288</v>
+        <v>-22.58064516129003</v>
       </c>
       <c r="L162" t="n">
         <v>5.358000000000004</v>
@@ -8865,7 +8887,7 @@
         <v>6.480000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.45569620253156</v>
+        <v>-35.13513513513492</v>
       </c>
       <c r="L163" t="n">
         <v>5.345000000000004</v>
@@ -8916,7 +8938,7 @@
         <v>6.520000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>-12.19512195121953</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L164" t="n">
         <v>5.336000000000004</v>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>5.4</v>
       </c>
       <c r="F2" t="n">
-        <v>84.57810000000001</v>
+        <v>305.283</v>
       </c>
       <c r="G2" t="n">
-        <v>5.447499999999997</v>
+        <v>5.447666666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>5.32</v>
       </c>
       <c r="C3" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D3" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E3" t="n">
-        <v>5.4</v>
+        <v>5.32</v>
       </c>
       <c r="F3" t="n">
-        <v>305.283</v>
+        <v>415799.674</v>
       </c>
       <c r="G3" t="n">
-        <v>5.447666666666664</v>
+        <v>5.448333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="C4" t="n">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.39</v>
+        <v>5.33</v>
       </c>
       <c r="E4" t="n">
-        <v>5.32</v>
+        <v>5.2</v>
       </c>
       <c r="F4" t="n">
-        <v>415799.674</v>
+        <v>1146525.9672</v>
       </c>
       <c r="G4" t="n">
-        <v>5.448333333333331</v>
+        <v>5.445166666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="C5" t="n">
-        <v>5.2</v>
+        <v>5.38</v>
       </c>
       <c r="D5" t="n">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="E5" t="n">
-        <v>5.2</v>
+        <v>5.38</v>
       </c>
       <c r="F5" t="n">
-        <v>1146525.9672</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>5.445166666666664</v>
+        <v>5.444833333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>5.38</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3425.4832</v>
       </c>
       <c r="G6" t="n">
-        <v>5.444833333333332</v>
+        <v>5.443333333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="C7" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="D7" t="n">
         <v>5.38</v>
       </c>
       <c r="E7" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="F7" t="n">
-        <v>3425.4832</v>
+        <v>315668.8661</v>
       </c>
       <c r="G7" t="n">
-        <v>5.443333333333331</v>
+        <v>5.439333333333331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.31</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.23</v>
-      </c>
       <c r="D8" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="E8" t="n">
-        <v>5.23</v>
+        <v>5.31</v>
       </c>
       <c r="F8" t="n">
-        <v>315668.8661</v>
+        <v>193021.951</v>
       </c>
       <c r="G8" t="n">
-        <v>5.439333333333331</v>
+        <v>5.43733333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>5.31</v>
       </c>
       <c r="F9" t="n">
-        <v>193021.951</v>
+        <v>428351.5333</v>
       </c>
       <c r="G9" t="n">
-        <v>5.43733333333333</v>
+        <v>5.434666666666663</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C10" t="n">
         <v>5.32</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.31</v>
-      </c>
       <c r="D10" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E10" t="n">
         <v>5.32</v>
       </c>
-      <c r="E10" t="n">
-        <v>5.31</v>
-      </c>
       <c r="F10" t="n">
-        <v>428351.5333</v>
+        <v>58673.7304</v>
       </c>
       <c r="G10" t="n">
-        <v>5.434666666666663</v>
+        <v>5.431499999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="C11" t="n">
-        <v>5.32</v>
+        <v>5.19</v>
       </c>
       <c r="D11" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="E11" t="n">
-        <v>5.32</v>
+        <v>5.19</v>
       </c>
       <c r="F11" t="n">
-        <v>58673.7304</v>
+        <v>13279.4667</v>
       </c>
       <c r="G11" t="n">
-        <v>5.431499999999997</v>
+        <v>5.425999999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,35 +783,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.19</v>
+        <v>5.37</v>
       </c>
       <c r="C12" t="n">
-        <v>5.19</v>
+        <v>5.3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.19</v>
+        <v>5.37</v>
       </c>
       <c r="E12" t="n">
-        <v>5.19</v>
+        <v>5.3</v>
       </c>
       <c r="F12" t="n">
-        <v>13279.4667</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>5.425999999999997</v>
+        <v>5.422333333333331</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -822,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.37</v>
+        <v>5.27</v>
       </c>
       <c r="C13" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="D13" t="n">
-        <v>5.37</v>
+        <v>5.27</v>
       </c>
       <c r="E13" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>5.422333333333331</v>
+        <v>5.418166666666664</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -846,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -863,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="D14" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="E14" t="n">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>235744.2922</v>
       </c>
       <c r="G14" t="n">
-        <v>5.418166666666664</v>
+        <v>5.414166666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -887,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -907,19 +891,19 @@
         <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="D15" t="n">
         <v>5.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="F15" t="n">
-        <v>235744.2922</v>
+        <v>19370.5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.414166666666664</v>
+        <v>5.410666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -928,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -945,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3</v>
+        <v>5.44</v>
       </c>
       <c r="D16" t="n">
-        <v>5.3</v>
+        <v>5.44</v>
       </c>
       <c r="E16" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
       <c r="F16" t="n">
-        <v>19370.5</v>
+        <v>2010</v>
       </c>
       <c r="G16" t="n">
-        <v>5.410666666666665</v>
+        <v>5.409666666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -969,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -986,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.26</v>
+        <v>5.34</v>
       </c>
       <c r="C17" t="n">
         <v>5.44</v>
@@ -995,13 +967,13 @@
         <v>5.44</v>
       </c>
       <c r="E17" t="n">
-        <v>5.26</v>
+        <v>5.33</v>
       </c>
       <c r="F17" t="n">
-        <v>2010</v>
+        <v>66269.5971</v>
       </c>
       <c r="G17" t="n">
-        <v>5.409666666666665</v>
+        <v>5.407833333333331</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1010,14 +982,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.32</v>
-      </c>
+        <v>5.44</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1029,33 +999,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="C18" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E18" t="n">
         <v>5.44</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.406833333333332</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>5.44</v>
       </c>
-      <c r="E18" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="F18" t="n">
-        <v>66269.5971</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.407833333333331</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1070,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="C19" t="n">
         <v>5.47</v>
@@ -1079,24 +1049,24 @@
         <v>5.47</v>
       </c>
       <c r="E19" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="F19" t="n">
-        <v>3050</v>
+        <v>810</v>
       </c>
       <c r="G19" t="n">
-        <v>5.406833333333332</v>
+        <v>5.406666666666665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="J19" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1114,19 +1084,19 @@
         <v>5.47</v>
       </c>
       <c r="C20" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="D20" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="E20" t="n">
         <v>5.47</v>
       </c>
       <c r="F20" t="n">
-        <v>810</v>
+        <v>25636.363</v>
       </c>
       <c r="G20" t="n">
-        <v>5.406666666666665</v>
+        <v>5.406499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1135,9 +1105,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="C21" t="n">
         <v>5.51</v>
@@ -1161,13 +1129,13 @@
         <v>5.51</v>
       </c>
       <c r="E21" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="F21" t="n">
-        <v>25636.363</v>
+        <v>12000</v>
       </c>
       <c r="G21" t="n">
-        <v>5.406499999999999</v>
+        <v>5.406333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,9 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1193,22 +1159,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C22" t="n">
-        <v>5.51</v>
+        <v>5.46</v>
       </c>
       <c r="D22" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="E22" t="n">
-        <v>5.51</v>
+        <v>5.46</v>
       </c>
       <c r="F22" t="n">
-        <v>12000</v>
+        <v>5037.274</v>
       </c>
       <c r="G22" t="n">
-        <v>5.406333333333333</v>
+        <v>5.405333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1217,9 +1183,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1234,22 +1198,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
       <c r="C23" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="D23" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="E23" t="n">
-        <v>5.46</v>
+        <v>5.41</v>
       </c>
       <c r="F23" t="n">
-        <v>5037.274</v>
+        <v>2010</v>
       </c>
       <c r="G23" t="n">
-        <v>5.405333333333332</v>
+        <v>5.405166666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1258,9 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1275,7 +1237,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C24" t="n">
         <v>5.51</v>
@@ -1284,13 +1246,13 @@
         <v>5.51</v>
       </c>
       <c r="E24" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="F24" t="n">
-        <v>2010</v>
+        <v>310</v>
       </c>
       <c r="G24" t="n">
-        <v>5.405166666666665</v>
+        <v>5.405666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1299,9 +1261,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1316,22 +1276,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C25" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="D25" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="E25" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F25" t="n">
-        <v>310</v>
+        <v>1047.2363</v>
       </c>
       <c r="G25" t="n">
-        <v>5.405666666666665</v>
+        <v>5.405999999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1340,9 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1357,22 +1315,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C26" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D26" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F26" t="n">
-        <v>1047.2363</v>
+        <v>804.8907</v>
       </c>
       <c r="G26" t="n">
-        <v>5.405999999999998</v>
+        <v>5.406166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1381,9 +1339,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,7 +1366,7 @@
         <v>5.49</v>
       </c>
       <c r="F27" t="n">
-        <v>804.8907</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="n">
         <v>5.406166666666665</v>
@@ -1422,9 +1378,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1439,22 +1393,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C28" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D28" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E28" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>221824.794</v>
       </c>
       <c r="G28" t="n">
-        <v>5.406166666666665</v>
+        <v>5.405666666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1463,9 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1480,22 +1432,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="D29" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="E29" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="F29" t="n">
-        <v>221824.794</v>
+        <v>214152.0728</v>
       </c>
       <c r="G29" t="n">
-        <v>5.405666666666664</v>
+        <v>5.40433333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1504,9 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1521,22 +1471,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="C30" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D30" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="E30" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="F30" t="n">
-        <v>214152.0728</v>
+        <v>5973.9168</v>
       </c>
       <c r="G30" t="n">
-        <v>5.40433333333333</v>
+        <v>5.404666666666663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1545,9 +1495,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,22 +1510,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C31" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D31" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E31" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F31" t="n">
-        <v>5973.9168</v>
+        <v>215.7103</v>
       </c>
       <c r="G31" t="n">
-        <v>5.404666666666663</v>
+        <v>5.404999999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1586,9 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,19 +1552,19 @@
         <v>5.49</v>
       </c>
       <c r="C32" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D32" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E32" t="n">
         <v>5.49</v>
       </c>
       <c r="F32" t="n">
-        <v>215.7103</v>
+        <v>7000</v>
       </c>
       <c r="G32" t="n">
-        <v>5.404999999999997</v>
+        <v>5.40533333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1627,9 +1573,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1644,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C33" t="n">
         <v>5.5</v>
@@ -1653,13 +1597,13 @@
         <v>5.5</v>
       </c>
       <c r="E33" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F33" t="n">
-        <v>7000</v>
+        <v>133.3332</v>
       </c>
       <c r="G33" t="n">
-        <v>5.40533333333333</v>
+        <v>5.406666666666663</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1668,9 +1612,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1697,10 +1639,10 @@
         <v>5.5</v>
       </c>
       <c r="F34" t="n">
-        <v>133.3332</v>
+        <v>44.4444</v>
       </c>
       <c r="G34" t="n">
-        <v>5.406666666666663</v>
+        <v>5.407999999999996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,9 +1651,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1738,10 +1678,10 @@
         <v>5.5</v>
       </c>
       <c r="F35" t="n">
-        <v>44.4444</v>
+        <v>794.332</v>
       </c>
       <c r="G35" t="n">
-        <v>5.407999999999996</v>
+        <v>5.409333333333328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1750,9 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1767,22 +1705,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C36" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F36" t="n">
-        <v>794.332</v>
+        <v>247.1684</v>
       </c>
       <c r="G36" t="n">
-        <v>5.409333333333328</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1791,9 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,10 +1756,10 @@
         <v>5.49</v>
       </c>
       <c r="F37" t="n">
-        <v>247.1684</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>5.409499999999995</v>
+        <v>5.409666666666662</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1832,9 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,22 +1783,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C38" t="n">
-        <v>5.49</v>
+        <v>5.47</v>
       </c>
       <c r="D38" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="E38" t="n">
-        <v>5.49</v>
+        <v>5.47</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="G38" t="n">
-        <v>5.409666666666662</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1873,9 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,10 +1822,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C39" t="n">
         <v>5.48</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.47</v>
       </c>
       <c r="D39" t="n">
         <v>5.48</v>
@@ -1902,7 +1834,7 @@
         <v>5.47</v>
       </c>
       <c r="F39" t="n">
-        <v>222</v>
+        <v>64129.1907</v>
       </c>
       <c r="G39" t="n">
         <v>5.409499999999995</v>
@@ -1914,9 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,22 +1861,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.47</v>
+        <v>5.5</v>
       </c>
       <c r="C40" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D40" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E40" t="n">
-        <v>5.47</v>
+        <v>5.5</v>
       </c>
       <c r="F40" t="n">
-        <v>64129.1907</v>
+        <v>33107.909</v>
       </c>
       <c r="G40" t="n">
-        <v>5.409499999999995</v>
+        <v>5.411333333333329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1955,9 +1885,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1984,10 +1912,10 @@
         <v>5.5</v>
       </c>
       <c r="F41" t="n">
-        <v>33107.909</v>
+        <v>40135.0909</v>
       </c>
       <c r="G41" t="n">
-        <v>5.411333333333329</v>
+        <v>5.411999999999995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1996,9 +1924,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,19 +1942,19 @@
         <v>5.5</v>
       </c>
       <c r="C42" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="D42" t="n">
         <v>5.5</v>
       </c>
       <c r="E42" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="F42" t="n">
-        <v>40135.0909</v>
+        <v>75071.06269999999</v>
       </c>
       <c r="G42" t="n">
-        <v>5.411999999999995</v>
+        <v>5.412666666666663</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2037,9 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,22 +1978,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.5</v>
+        <v>5.38</v>
       </c>
       <c r="C43" t="n">
-        <v>5.43</v>
+        <v>5.37</v>
       </c>
       <c r="D43" t="n">
-        <v>5.5</v>
+        <v>5.38</v>
       </c>
       <c r="E43" t="n">
-        <v>5.43</v>
+        <v>5.37</v>
       </c>
       <c r="F43" t="n">
-        <v>75071.06269999999</v>
+        <v>30866.7814</v>
       </c>
       <c r="G43" t="n">
-        <v>5.412666666666663</v>
+        <v>5.41233333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2078,9 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,22 +2017,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C44" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="D44" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E44" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="F44" t="n">
-        <v>30866.7814</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>5.41233333333333</v>
+        <v>5.41383333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2119,9 +2041,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2136,22 +2056,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="C45" t="n">
-        <v>5.48</v>
+        <v>5.32</v>
       </c>
       <c r="D45" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="E45" t="n">
-        <v>5.48</v>
+        <v>5.32</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>65738.33319999999</v>
       </c>
       <c r="G45" t="n">
-        <v>5.41383333333333</v>
+        <v>5.412666666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2160,9 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2177,22 +2095,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="C46" t="n">
-        <v>5.32</v>
+        <v>5.49</v>
       </c>
       <c r="D46" t="n">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="E46" t="n">
-        <v>5.32</v>
+        <v>5.49</v>
       </c>
       <c r="F46" t="n">
-        <v>65738.33319999999</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>5.412666666666664</v>
+        <v>5.414999999999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2201,9 +2119,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C47" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D47" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E47" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>54400</v>
       </c>
       <c r="G47" t="n">
-        <v>5.414999999999996</v>
+        <v>5.415999999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2242,9 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2259,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C48" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D48" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E48" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F48" t="n">
-        <v>54400</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>5.415999999999997</v>
+        <v>5.417833333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2283,9 +2197,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,22 +2212,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C49" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D49" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E49" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>15294.4954</v>
       </c>
       <c r="G49" t="n">
-        <v>5.417833333333331</v>
+        <v>5.417999999999997</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2324,9 +2236,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,7 +2251,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.45</v>
+        <v>5.44</v>
       </c>
       <c r="C50" t="n">
         <v>5.45</v>
@@ -2350,13 +2260,13 @@
         <v>5.45</v>
       </c>
       <c r="E50" t="n">
-        <v>5.45</v>
+        <v>5.44</v>
       </c>
       <c r="F50" t="n">
-        <v>15294.4954</v>
+        <v>40853.5578</v>
       </c>
       <c r="G50" t="n">
-        <v>5.417999999999997</v>
+        <v>5.418166666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2365,9 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2382,22 +2290,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="C51" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="D51" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="E51" t="n">
-        <v>5.44</v>
+        <v>5.46</v>
       </c>
       <c r="F51" t="n">
-        <v>40853.5578</v>
+        <v>204666.5677</v>
       </c>
       <c r="G51" t="n">
-        <v>5.418166666666663</v>
+        <v>5.41983333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2406,9 +2314,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2423,22 +2329,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E52" t="n">
         <v>5.47</v>
       </c>
-      <c r="C52" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5.46</v>
-      </c>
       <c r="F52" t="n">
-        <v>204666.5677</v>
+        <v>152625.1391</v>
       </c>
       <c r="G52" t="n">
-        <v>5.41983333333333</v>
+        <v>5.420499999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2447,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,22 +2368,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C53" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D53" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E53" t="n">
-        <v>5.47</v>
+        <v>5.5</v>
       </c>
       <c r="F53" t="n">
-        <v>152625.1391</v>
+        <v>8793.172699999999</v>
       </c>
       <c r="G53" t="n">
-        <v>5.420499999999998</v>
+        <v>5.421499999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2488,9 +2392,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,7 +2407,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.5</v>
+        <v>5.44</v>
       </c>
       <c r="C54" t="n">
         <v>5.5</v>
@@ -2514,13 +2416,13 @@
         <v>5.5</v>
       </c>
       <c r="E54" t="n">
-        <v>5.5</v>
+        <v>5.44</v>
       </c>
       <c r="F54" t="n">
-        <v>8793.172699999999</v>
+        <v>45833.1455</v>
       </c>
       <c r="G54" t="n">
-        <v>5.421499999999997</v>
+        <v>5.423833333333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2529,9 +2431,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,22 +2446,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="C55" t="n">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="D55" t="n">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="E55" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="F55" t="n">
-        <v>45833.1455</v>
+        <v>8488.725</v>
       </c>
       <c r="G55" t="n">
-        <v>5.423833333333331</v>
+        <v>5.425333333333331</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2570,9 +2470,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,22 +2485,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="C56" t="n">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="D56" t="n">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="E56" t="n">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="F56" t="n">
-        <v>8488.725</v>
+        <v>256.0291</v>
       </c>
       <c r="G56" t="n">
-        <v>5.425333333333331</v>
+        <v>5.426166666666664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2611,9 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,22 +2524,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="C57" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="D57" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="E57" t="n">
-        <v>5.49</v>
+        <v>5.37</v>
       </c>
       <c r="F57" t="n">
-        <v>256.0291</v>
+        <v>109967.1608</v>
       </c>
       <c r="G57" t="n">
-        <v>5.426166666666664</v>
+        <v>5.425333333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2652,9 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2669,22 +2563,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.41</v>
+        <v>5.48</v>
       </c>
       <c r="C58" t="n">
-        <v>5.41</v>
+        <v>5.48</v>
       </c>
       <c r="D58" t="n">
-        <v>5.41</v>
+        <v>5.48</v>
       </c>
       <c r="E58" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="F58" t="n">
-        <v>109967.1608</v>
+        <v>243.677</v>
       </c>
       <c r="G58" t="n">
-        <v>5.425333333333332</v>
+        <v>5.426833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2693,9 +2587,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,22 +2602,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="C59" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="D59" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="E59" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="F59" t="n">
-        <v>243.677</v>
+        <v>14380.0145</v>
       </c>
       <c r="G59" t="n">
-        <v>5.426833333333333</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2734,9 +2626,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,22 +2641,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="C60" t="n">
         <v>5.35</v>
       </c>
       <c r="D60" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="E60" t="n">
         <v>5.35</v>
       </c>
       <c r="F60" t="n">
-        <v>14380.0145</v>
+        <v>171877.2363</v>
       </c>
       <c r="G60" t="n">
-        <v>5.426166666666666</v>
+        <v>5.425833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2775,9 +2665,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,22 +2680,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.36</v>
+        <v>5.34</v>
       </c>
       <c r="C61" t="n">
         <v>5.35</v>
       </c>
       <c r="D61" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E61" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="F61" t="n">
-        <v>171877.2363</v>
+        <v>88200.29399999999</v>
       </c>
       <c r="G61" t="n">
-        <v>5.425833333333333</v>
+        <v>5.425000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2816,9 +2704,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,22 +2719,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="C62" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D62" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E62" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="F62" t="n">
-        <v>88200.29399999999</v>
+        <v>234.0498</v>
       </c>
       <c r="G62" t="n">
-        <v>5.425000000000001</v>
+        <v>5.425333333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2857,9 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,22 +2758,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="C63" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D63" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E63" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="F63" t="n">
-        <v>234.0498</v>
+        <v>85.50579999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>5.425333333333335</v>
+        <v>5.424833333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2898,9 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,22 +2797,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="C64" t="n">
-        <v>5.35</v>
+        <v>5.31</v>
       </c>
       <c r="D64" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="E64" t="n">
-        <v>5.35</v>
+        <v>5.31</v>
       </c>
       <c r="F64" t="n">
-        <v>85.50579999999999</v>
+        <v>808522.2621000001</v>
       </c>
       <c r="G64" t="n">
-        <v>5.424833333333336</v>
+        <v>5.426666666666669</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2939,9 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,35 +2836,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="C65" t="n">
-        <v>5.31</v>
+        <v>5.42</v>
       </c>
       <c r="D65" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="E65" t="n">
-        <v>5.31</v>
+        <v>5.42</v>
       </c>
       <c r="F65" t="n">
-        <v>808522.2621000001</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>5.426666666666669</v>
+        <v>5.427333333333336</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,10 +2887,10 @@
         <v>5.42</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>92.2509</v>
       </c>
       <c r="G66" t="n">
-        <v>5.427333333333336</v>
+        <v>5.428000000000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3023,9 +2899,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,22 +2914,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="C67" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D67" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E67" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="F67" t="n">
-        <v>92.2509</v>
+        <v>92.0202</v>
       </c>
       <c r="G67" t="n">
-        <v>5.428000000000003</v>
+        <v>5.430000000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3064,9 +2938,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,22 +2953,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C68" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D68" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E68" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F68" t="n">
-        <v>92.0202</v>
+        <v>482.4723</v>
       </c>
       <c r="G68" t="n">
-        <v>5.430000000000003</v>
+        <v>5.431833333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3105,9 +2977,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,22 +2992,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="C69" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="D69" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="E69" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="F69" t="n">
-        <v>482.4723</v>
+        <v>108221.9709</v>
       </c>
       <c r="G69" t="n">
-        <v>5.431833333333336</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3146,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,22 +3031,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="C70" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D70" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E70" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="F70" t="n">
-        <v>108221.9709</v>
+        <v>2352.4832</v>
       </c>
       <c r="G70" t="n">
-        <v>5.432666666666671</v>
+        <v>5.43366666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3187,9 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,22 +3070,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C71" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D71" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E71" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F71" t="n">
-        <v>2352.4832</v>
+        <v>40772.7217</v>
       </c>
       <c r="G71" t="n">
-        <v>5.43366666666667</v>
+        <v>5.436500000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3228,9 +3094,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,22 +3109,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C72" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D72" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E72" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F72" t="n">
-        <v>40772.7217</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>5.436500000000004</v>
+        <v>5.437833333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3269,9 +3133,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>5.437833333333336</v>
+        <v>5.43966666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3310,9 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,10 +3199,10 @@
         <v>5.38</v>
       </c>
       <c r="F74" t="n">
-        <v>11</v>
+        <v>7806.6914</v>
       </c>
       <c r="G74" t="n">
-        <v>5.43966666666667</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3351,9 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,22 +3226,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C75" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D75" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E75" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F75" t="n">
-        <v>7806.6914</v>
+        <v>34689.2373</v>
       </c>
       <c r="G75" t="n">
-        <v>5.441333333333337</v>
+        <v>5.442333333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3392,9 +3250,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,22 +3265,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C76" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D76" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E76" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F76" t="n">
-        <v>34689.2373</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>5.442333333333337</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3433,9 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,13 +3313,13 @@
         <v>5.38</v>
       </c>
       <c r="E77" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F77" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="G77" t="n">
-        <v>5.441333333333337</v>
+        <v>5.440333333333338</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3474,9 +3328,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,13 +3352,13 @@
         <v>5.38</v>
       </c>
       <c r="E78" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F78" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>5.440333333333338</v>
+        <v>5.438833333333337</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3515,9 +3367,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,10 +3394,10 @@
         <v>5.38</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>5.438833333333337</v>
+        <v>5.437333333333337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3556,9 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3573,7 +3421,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C80" t="n">
         <v>5.38</v>
@@ -3582,13 +3430,13 @@
         <v>5.38</v>
       </c>
       <c r="E80" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>34700.2373</v>
       </c>
       <c r="G80" t="n">
-        <v>5.437333333333337</v>
+        <v>5.43516666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3597,9 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,22 +3460,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C81" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="D81" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="E81" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F81" t="n">
-        <v>34700.2373</v>
+        <v>465497.5636</v>
       </c>
       <c r="G81" t="n">
-        <v>5.43516666666667</v>
+        <v>5.433500000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3638,9 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,7 +3499,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="C82" t="n">
         <v>5.41</v>
@@ -3664,13 +3508,13 @@
         <v>5.41</v>
       </c>
       <c r="E82" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="F82" t="n">
-        <v>465497.5636</v>
+        <v>31819.211</v>
       </c>
       <c r="G82" t="n">
-        <v>5.433500000000004</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3679,9 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,22 +3538,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="C83" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="D83" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="E83" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="F83" t="n">
-        <v>31819.211</v>
+        <v>27605.4571</v>
       </c>
       <c r="G83" t="n">
-        <v>5.432666666666671</v>
+        <v>5.431500000000004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3720,9 +3562,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,22 +3577,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="C84" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="D84" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="E84" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="F84" t="n">
-        <v>27605.4571</v>
+        <v>35</v>
       </c>
       <c r="G84" t="n">
-        <v>5.431500000000004</v>
+        <v>5.429833333333338</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3761,9 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,22 +3616,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C85" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D85" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E85" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F85" t="n">
-        <v>35</v>
+        <v>1502.9574</v>
       </c>
       <c r="G85" t="n">
-        <v>5.429833333333338</v>
+        <v>5.428166666666671</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3802,9 +3640,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,22 +3655,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C86" t="n">
-        <v>5.4</v>
+        <v>5.43</v>
       </c>
       <c r="D86" t="n">
-        <v>5.4</v>
+        <v>5.43</v>
       </c>
       <c r="E86" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="F86" t="n">
-        <v>1502.9574</v>
+        <v>73542.039</v>
       </c>
       <c r="G86" t="n">
-        <v>5.428166666666671</v>
+        <v>5.427166666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3843,9 +3679,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,19 +3697,19 @@
         <v>5.41</v>
       </c>
       <c r="C87" t="n">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="D87" t="n">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="E87" t="n">
-        <v>5.36</v>
+        <v>5.41</v>
       </c>
       <c r="F87" t="n">
-        <v>73542.039</v>
+        <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>5.427166666666671</v>
+        <v>5.425833333333339</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3884,9 +3718,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,22 +3733,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C88" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D88" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E88" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>18810.75</v>
       </c>
       <c r="G88" t="n">
-        <v>5.425833333333339</v>
+        <v>5.425000000000005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3925,9 +3757,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,22 +3772,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C89" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D89" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E89" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="F89" t="n">
-        <v>18810.75</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>5.425000000000005</v>
+        <v>5.425166666666672</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3966,9 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,22 +3811,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="C90" t="n">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="D90" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="E90" t="n">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>13662.8497</v>
       </c>
       <c r="G90" t="n">
-        <v>5.425166666666672</v>
+        <v>5.423500000000006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4007,9 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,22 +3850,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="C91" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="D91" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="E91" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="F91" t="n">
-        <v>13662.8497</v>
+        <v>11838.6111</v>
       </c>
       <c r="G91" t="n">
-        <v>5.423500000000006</v>
+        <v>5.422000000000006</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4048,9 +3874,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,22 +3889,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="C92" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D92" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E92" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F92" t="n">
-        <v>11838.6111</v>
+        <v>4017.4822</v>
       </c>
       <c r="G92" t="n">
-        <v>5.422000000000006</v>
+        <v>5.420500000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4089,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,22 +3928,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="C93" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D93" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E93" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="F93" t="n">
-        <v>4017.4822</v>
+        <v>1566.7685</v>
       </c>
       <c r="G93" t="n">
-        <v>5.420500000000006</v>
+        <v>5.418833333333339</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4130,9 +3952,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,19 +3970,19 @@
         <v>5.4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D94" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E94" t="n">
         <v>5.4</v>
       </c>
       <c r="F94" t="n">
-        <v>1566.7685</v>
+        <v>683.9186</v>
       </c>
       <c r="G94" t="n">
-        <v>5.418833333333339</v>
+        <v>5.41733333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4171,9 +3991,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,22 +4006,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C95" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E95" t="n">
         <v>5.41</v>
       </c>
-      <c r="D95" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5.4</v>
-      </c>
       <c r="F95" t="n">
-        <v>683.9186</v>
+        <v>78039.29580000001</v>
       </c>
       <c r="G95" t="n">
-        <v>5.41733333333334</v>
+        <v>5.416666666666672</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4212,9 +4030,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,19 +4045,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="C96" t="n">
-        <v>5.46</v>
+        <v>5.49</v>
       </c>
       <c r="D96" t="n">
-        <v>5.46</v>
+        <v>5.49</v>
       </c>
       <c r="E96" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="F96" t="n">
-        <v>78039.29580000001</v>
+        <v>22</v>
       </c>
       <c r="G96" t="n">
         <v>5.416666666666672</v>
@@ -4253,9 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,22 +4084,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="C97" t="n">
-        <v>5.49</v>
+        <v>5.47</v>
       </c>
       <c r="D97" t="n">
-        <v>5.49</v>
+        <v>5.47</v>
       </c>
       <c r="E97" t="n">
-        <v>5.49</v>
+        <v>5.4</v>
       </c>
       <c r="F97" t="n">
-        <v>22</v>
+        <v>19525.8935</v>
       </c>
       <c r="G97" t="n">
-        <v>5.416666666666672</v>
+        <v>5.416333333333339</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4294,9 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,22 +4123,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="C98" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E98" t="n">
         <v>5.47</v>
       </c>
-      <c r="D98" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.4</v>
-      </c>
       <c r="F98" t="n">
-        <v>19525.8935</v>
+        <v>17484.5978</v>
       </c>
       <c r="G98" t="n">
-        <v>5.416333333333339</v>
+        <v>5.416500000000005</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4335,9 +4147,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,22 +4162,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="C99" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="D99" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="E99" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="F99" t="n">
-        <v>17484.5978</v>
+        <v>4191.376146788991</v>
       </c>
       <c r="G99" t="n">
-        <v>5.416500000000005</v>
+        <v>5.416000000000006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4376,9 +4186,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,22 +4201,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.45</v>
+        <v>5.34</v>
       </c>
       <c r="C100" t="n">
-        <v>5.45</v>
+        <v>5.34</v>
       </c>
       <c r="D100" t="n">
-        <v>5.45</v>
+        <v>5.34</v>
       </c>
       <c r="E100" t="n">
-        <v>5.45</v>
+        <v>5.34</v>
       </c>
       <c r="F100" t="n">
-        <v>4191.376146788991</v>
+        <v>5440.6603</v>
       </c>
       <c r="G100" t="n">
-        <v>5.416000000000006</v>
+        <v>5.413333333333338</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4417,9 +4225,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4434,22 +4240,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.34</v>
+        <v>5.43</v>
       </c>
       <c r="C101" t="n">
-        <v>5.34</v>
+        <v>5.43</v>
       </c>
       <c r="D101" t="n">
-        <v>5.34</v>
+        <v>5.43</v>
       </c>
       <c r="E101" t="n">
-        <v>5.34</v>
+        <v>5.43</v>
       </c>
       <c r="F101" t="n">
-        <v>5440.6603</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>5.413333333333338</v>
+        <v>5.412166666666672</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4458,9 +4264,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,7 +4279,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.43</v>
+        <v>5.38</v>
       </c>
       <c r="C102" t="n">
         <v>5.43</v>
@@ -4484,10 +4288,10 @@
         <v>5.43</v>
       </c>
       <c r="E102" t="n">
-        <v>5.43</v>
+        <v>5.37</v>
       </c>
       <c r="F102" t="n">
-        <v>11</v>
+        <v>64911</v>
       </c>
       <c r="G102" t="n">
         <v>5.412166666666672</v>
@@ -4499,9 +4303,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,22 +4318,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="C103" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="D103" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="E103" t="n">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="F103" t="n">
-        <v>64911</v>
+        <v>631.7499</v>
       </c>
       <c r="G103" t="n">
-        <v>5.412166666666672</v>
+        <v>5.411833333333338</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4540,9 +4342,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,22 +4357,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="C104" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="D104" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="E104" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="F104" t="n">
-        <v>631.7499</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>5.411833333333338</v>
+        <v>5.411000000000005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4581,9 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,10 +4408,10 @@
         <v>5.43</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>702</v>
       </c>
       <c r="G105" t="n">
-        <v>5.411000000000005</v>
+        <v>5.412833333333339</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4622,9 +4420,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,22 +4435,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.43</v>
+        <v>5.38</v>
       </c>
       <c r="C106" t="n">
-        <v>5.43</v>
+        <v>5.44</v>
       </c>
       <c r="D106" t="n">
-        <v>5.43</v>
+        <v>5.44</v>
       </c>
       <c r="E106" t="n">
-        <v>5.43</v>
+        <v>5.38</v>
       </c>
       <c r="F106" t="n">
-        <v>702</v>
+        <v>73823.2887</v>
       </c>
       <c r="G106" t="n">
-        <v>5.412833333333339</v>
+        <v>5.412000000000005</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4663,9 +4459,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,22 +4474,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.38</v>
+        <v>5.45</v>
       </c>
       <c r="C107" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E107" t="n">
         <v>5.44</v>
       </c>
-      <c r="D107" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5.38</v>
-      </c>
       <c r="F107" t="n">
-        <v>73823.2887</v>
+        <v>497442.535353211</v>
       </c>
       <c r="G107" t="n">
-        <v>5.412000000000005</v>
+        <v>5.412333333333339</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4704,9 +4498,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,7 +4513,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="C108" t="n">
         <v>5.47</v>
@@ -4730,13 +4522,13 @@
         <v>5.47</v>
       </c>
       <c r="E108" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="F108" t="n">
-        <v>497442.535353211</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>5.412333333333339</v>
+        <v>5.412000000000006</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4745,9 +4537,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,37 +4555,35 @@
         <v>5.47</v>
       </c>
       <c r="C109" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="D109" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="E109" t="n">
         <v>5.47</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>404825.5061</v>
       </c>
       <c r="G109" t="n">
-        <v>5.412000000000006</v>
+        <v>5.413000000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1.023195488721804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4803,7 +4591,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="C110" t="n">
         <v>5.51</v>
@@ -4812,13 +4600,13 @@
         <v>5.51</v>
       </c>
       <c r="E110" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="F110" t="n">
-        <v>404825.5061</v>
+        <v>33</v>
       </c>
       <c r="G110" t="n">
-        <v>5.413000000000006</v>
+        <v>5.414000000000006</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4828,7 +4616,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4850,10 +4642,10 @@
         <v>5.51</v>
       </c>
       <c r="F111" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G111" t="n">
-        <v>5.414000000000006</v>
+        <v>5.414666666666673</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4863,7 +4655,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4873,22 +4669,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C112" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="D112" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="E112" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F112" t="n">
-        <v>55</v>
+        <v>631189.1128999999</v>
       </c>
       <c r="G112" t="n">
-        <v>5.414666666666673</v>
+        <v>5.415500000000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4898,7 +4694,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +4708,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C113" t="n">
         <v>5.53</v>
@@ -4917,13 +4717,13 @@
         <v>5.53</v>
       </c>
       <c r="E113" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="F113" t="n">
-        <v>631189.1128999999</v>
+        <v>22</v>
       </c>
       <c r="G113" t="n">
-        <v>5.415500000000005</v>
+        <v>5.416000000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4933,7 +4733,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4943,32 +4747,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="C114" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="D114" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E114" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="F114" t="n">
-        <v>22</v>
+        <v>143776.825</v>
       </c>
       <c r="G114" t="n">
-        <v>5.416000000000005</v>
+        <v>5.416333333333338</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4981,54 +4789,56 @@
         <v>5.52</v>
       </c>
       <c r="C115" t="n">
-        <v>5.52</v>
+        <v>5.49</v>
       </c>
       <c r="D115" t="n">
         <v>5.52</v>
       </c>
       <c r="E115" t="n">
-        <v>5.52</v>
+        <v>5.49</v>
       </c>
       <c r="F115" t="n">
-        <v>143776.825</v>
+        <v>685521.6363</v>
       </c>
       <c r="G115" t="n">
-        <v>5.416333333333338</v>
+        <v>5.417500000000004</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C116" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="D116" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="E116" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="F116" t="n">
-        <v>685521.6363</v>
+        <v>22</v>
       </c>
       <c r="G116" t="n">
-        <v>5.417500000000004</v>
+        <v>5.41816666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5060,10 +4870,10 @@
         <v>5.53</v>
       </c>
       <c r="F117" t="n">
-        <v>22</v>
+        <v>117969.2585</v>
       </c>
       <c r="G117" t="n">
-        <v>5.41816666666667</v>
+        <v>5.420166666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5095,10 +4905,10 @@
         <v>5.53</v>
       </c>
       <c r="F118" t="n">
-        <v>117969.2585</v>
+        <v>18000</v>
       </c>
       <c r="G118" t="n">
-        <v>5.420166666666669</v>
+        <v>5.421000000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5118,22 +4928,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.53</v>
+        <v>5.48</v>
       </c>
       <c r="C119" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="D119" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E119" t="n">
-        <v>5.53</v>
+        <v>5.43</v>
       </c>
       <c r="F119" t="n">
-        <v>18000</v>
+        <v>56094.129</v>
       </c>
       <c r="G119" t="n">
-        <v>5.421000000000002</v>
+        <v>5.423833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5153,22 +4963,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C120" t="n">
         <v>5.48</v>
       </c>
-      <c r="C120" t="n">
-        <v>5.52</v>
-      </c>
       <c r="D120" t="n">
-        <v>5.52</v>
+        <v>5.48</v>
       </c>
       <c r="E120" t="n">
-        <v>5.43</v>
+        <v>5.3</v>
       </c>
       <c r="F120" t="n">
-        <v>56094.129</v>
+        <v>63447.2247</v>
       </c>
       <c r="G120" t="n">
-        <v>5.423833333333334</v>
+        <v>5.426000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5188,22 +4998,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.3</v>
+        <v>5.37</v>
       </c>
       <c r="C121" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="D121" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="E121" t="n">
-        <v>5.3</v>
+        <v>5.37</v>
       </c>
       <c r="F121" t="n">
-        <v>63447.2247</v>
+        <v>200</v>
       </c>
       <c r="G121" t="n">
-        <v>5.426000000000001</v>
+        <v>5.426333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5235,10 +5045,10 @@
         <v>5.37</v>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>588.2681</v>
       </c>
       <c r="G122" t="n">
-        <v>5.426333333333334</v>
+        <v>5.4255</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5258,22 +5068,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="C123" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="D123" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="E123" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="F123" t="n">
-        <v>588.2681</v>
+        <v>585</v>
       </c>
       <c r="G123" t="n">
-        <v>5.4255</v>
+        <v>5.425166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5293,22 +5103,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="C124" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="D124" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="E124" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="F124" t="n">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="G124" t="n">
-        <v>5.425166666666667</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5331,19 +5141,19 @@
         <v>5.37</v>
       </c>
       <c r="C125" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="D125" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="E125" t="n">
         <v>5.37</v>
       </c>
       <c r="F125" t="n">
-        <v>12</v>
+        <v>63243.21</v>
       </c>
       <c r="G125" t="n">
-        <v>5.426166666666666</v>
+        <v>5.427166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5363,22 +5173,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="C126" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D126" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E126" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="F126" t="n">
-        <v>63243.21</v>
+        <v>180</v>
       </c>
       <c r="G126" t="n">
-        <v>5.427166666666666</v>
+        <v>5.4265</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5398,22 +5208,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C127" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D127" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E127" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="F127" t="n">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G127" t="n">
-        <v>5.4265</v>
+        <v>5.428666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5433,22 +5243,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C128" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D128" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E128" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="F128" t="n">
-        <v>122</v>
+        <v>3500</v>
       </c>
       <c r="G128" t="n">
-        <v>5.428666666666667</v>
+        <v>5.427999999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5468,22 +5278,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C129" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D129" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E129" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="F129" t="n">
-        <v>3500</v>
+        <v>333</v>
       </c>
       <c r="G129" t="n">
-        <v>5.427999999999999</v>
+        <v>5.429999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5515,10 +5325,10 @@
         <v>5.48</v>
       </c>
       <c r="F130" t="n">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>5.429999999999999</v>
+        <v>5.431666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5538,22 +5348,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C131" t="n">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="D131" t="n">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="E131" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="F131" t="n">
-        <v>11</v>
+        <v>218175.843</v>
       </c>
       <c r="G131" t="n">
-        <v>5.431666666666667</v>
+        <v>5.433333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5573,7 +5383,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C132" t="n">
         <v>5.46</v>
@@ -5582,13 +5392,13 @@
         <v>5.46</v>
       </c>
       <c r="E132" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="F132" t="n">
-        <v>218175.843</v>
+        <v>238175.8431</v>
       </c>
       <c r="G132" t="n">
-        <v>5.433333333333333</v>
+        <v>5.434666666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5608,22 +5418,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="C133" t="n">
-        <v>5.46</v>
+        <v>5.42</v>
       </c>
       <c r="D133" t="n">
-        <v>5.46</v>
+        <v>5.42</v>
       </c>
       <c r="E133" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="F133" t="n">
-        <v>238175.8431</v>
+        <v>3863.6531</v>
       </c>
       <c r="G133" t="n">
-        <v>5.434666666666666</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5643,22 +5453,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="C134" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="D134" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="E134" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="F134" t="n">
-        <v>3863.6531</v>
+        <v>60381.4724</v>
       </c>
       <c r="G134" t="n">
-        <v>5.435333333333332</v>
+        <v>5.435499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5681,19 +5491,19 @@
         <v>5.34</v>
       </c>
       <c r="C135" t="n">
-        <v>5.39</v>
+        <v>5.33</v>
       </c>
       <c r="D135" t="n">
-        <v>5.39</v>
+        <v>5.34</v>
       </c>
       <c r="E135" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="F135" t="n">
-        <v>60381.4724</v>
+        <v>260155.0889</v>
       </c>
       <c r="G135" t="n">
-        <v>5.435499999999999</v>
+        <v>5.434999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5713,22 +5523,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="C136" t="n">
-        <v>5.33</v>
+        <v>5.47</v>
       </c>
       <c r="D136" t="n">
-        <v>5.34</v>
+        <v>5.47</v>
       </c>
       <c r="E136" t="n">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="F136" t="n">
-        <v>260155.0889</v>
+        <v>22</v>
       </c>
       <c r="G136" t="n">
-        <v>5.434999999999999</v>
+        <v>5.436499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5748,22 +5558,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="C137" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="D137" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="E137" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="F137" t="n">
-        <v>22</v>
+        <v>12964.2066</v>
       </c>
       <c r="G137" t="n">
-        <v>5.436499999999999</v>
+        <v>5.437166666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5783,22 +5593,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="C138" t="n">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="D138" t="n">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="E138" t="n">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="F138" t="n">
-        <v>12964.2066</v>
+        <v>300</v>
       </c>
       <c r="G138" t="n">
-        <v>5.437166666666666</v>
+        <v>5.437499999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5818,7 +5628,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.4</v>
+        <v>5.28</v>
       </c>
       <c r="C139" t="n">
         <v>5.4</v>
@@ -5827,13 +5637,13 @@
         <v>5.4</v>
       </c>
       <c r="E139" t="n">
-        <v>5.4</v>
+        <v>5.27</v>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>190036.4117</v>
       </c>
       <c r="G139" t="n">
-        <v>5.437499999999999</v>
+        <v>5.437833333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5853,22 +5663,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.28</v>
+        <v>5.23</v>
       </c>
       <c r="C140" t="n">
-        <v>5.4</v>
+        <v>5.23</v>
       </c>
       <c r="D140" t="n">
-        <v>5.4</v>
+        <v>5.23</v>
       </c>
       <c r="E140" t="n">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="F140" t="n">
-        <v>190036.4117</v>
+        <v>56.5528</v>
       </c>
       <c r="G140" t="n">
-        <v>5.437833333333332</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5888,22 +5698,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="C141" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="D141" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="E141" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="F141" t="n">
-        <v>56.5528</v>
+        <v>11</v>
       </c>
       <c r="G141" t="n">
-        <v>5.435333333333332</v>
+        <v>5.434833333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5926,32 +5736,28 @@
         <v>5.38</v>
       </c>
       <c r="C142" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="D142" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="E142" t="n">
         <v>5.38</v>
       </c>
       <c r="F142" t="n">
-        <v>11</v>
+        <v>9462.269</v>
       </c>
       <c r="G142" t="n">
-        <v>5.434833333333332</v>
+        <v>5.434499999999998</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
@@ -5962,7 +5768,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="C143" t="n">
         <v>5.39</v>
@@ -5971,73 +5777,24 @@
         <v>5.39</v>
       </c>
       <c r="E143" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="F143" t="n">
-        <v>9462.269</v>
+        <v>18552.8756</v>
       </c>
       <c r="G143" t="n">
-        <v>5.434499999999998</v>
+        <v>5.433666666666665</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="C144" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D144" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E144" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="F144" t="n">
-        <v>18552.8756</v>
-      </c>
-      <c r="G144" t="n">
-        <v>5.433666666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>5.4</v>
       </c>
       <c r="F2" t="n">
-        <v>305.283</v>
+        <v>84.57810000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5.447666666666664</v>
+        <v>5.447499999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.32</v>
+        <v>5.4</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="E3" t="n">
-        <v>5.32</v>
+        <v>5.4</v>
       </c>
       <c r="F3" t="n">
-        <v>415799.674</v>
+        <v>305.283</v>
       </c>
       <c r="G3" t="n">
-        <v>5.448333333333331</v>
+        <v>5.447666666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C4" t="n">
-        <v>5.2</v>
+        <v>5.38</v>
       </c>
       <c r="D4" t="n">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="E4" t="n">
-        <v>5.2</v>
+        <v>5.32</v>
       </c>
       <c r="F4" t="n">
-        <v>1146525.9672</v>
+        <v>415799.674</v>
       </c>
       <c r="G4" t="n">
-        <v>5.445166666666664</v>
+        <v>5.448333333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="C5" t="n">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="E5" t="n">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>1146525.9672</v>
       </c>
       <c r="G5" t="n">
-        <v>5.444833333333332</v>
+        <v>5.445166666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>5.38</v>
       </c>
       <c r="F6" t="n">
-        <v>3425.4832</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>5.443333333333331</v>
+        <v>5.444833333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.31</v>
+        <v>5.38</v>
       </c>
       <c r="C7" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="D7" t="n">
         <v>5.38</v>
       </c>
       <c r="E7" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="F7" t="n">
-        <v>315668.8661</v>
+        <v>3425.4832</v>
       </c>
       <c r="G7" t="n">
-        <v>5.439333333333331</v>
+        <v>5.443333333333331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="C8" t="n">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="E8" t="n">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="F8" t="n">
-        <v>193021.951</v>
+        <v>315668.8661</v>
       </c>
       <c r="G8" t="n">
-        <v>5.43733333333333</v>
+        <v>5.439333333333331</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>5.31</v>
       </c>
       <c r="F9" t="n">
-        <v>428351.5333</v>
+        <v>193021.951</v>
       </c>
       <c r="G9" t="n">
-        <v>5.434666666666663</v>
+        <v>5.43733333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="C10" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.32</v>
       </c>
-      <c r="D10" t="n">
-        <v>5.38</v>
-      </c>
       <c r="E10" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="F10" t="n">
-        <v>58673.7304</v>
+        <v>428351.5333</v>
       </c>
       <c r="G10" t="n">
-        <v>5.431499999999997</v>
+        <v>5.434666666666663</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.19</v>
+        <v>5.38</v>
       </c>
       <c r="C11" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="D11" t="n">
-        <v>5.19</v>
+        <v>5.38</v>
       </c>
       <c r="E11" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="F11" t="n">
-        <v>13279.4667</v>
+        <v>58673.7304</v>
       </c>
       <c r="G11" t="n">
-        <v>5.425999999999997</v>
+        <v>5.431499999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.37</v>
+        <v>5.19</v>
       </c>
       <c r="C12" t="n">
-        <v>5.3</v>
+        <v>5.19</v>
       </c>
       <c r="D12" t="n">
-        <v>5.37</v>
+        <v>5.19</v>
       </c>
       <c r="E12" t="n">
-        <v>5.3</v>
+        <v>5.19</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>13279.4667</v>
       </c>
       <c r="G12" t="n">
-        <v>5.422333333333331</v>
+        <v>5.425999999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.27</v>
+        <v>5.37</v>
       </c>
       <c r="C13" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="D13" t="n">
-        <v>5.27</v>
+        <v>5.37</v>
       </c>
       <c r="E13" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>5.418166666666664</v>
+        <v>5.422333333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="C14" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="D14" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="E14" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="F14" t="n">
-        <v>235744.2922</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>5.414166666666664</v>
+        <v>5.418166666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="D15" t="n">
         <v>5.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="F15" t="n">
-        <v>19370.5</v>
+        <v>235744.2922</v>
       </c>
       <c r="G15" t="n">
-        <v>5.410666666666665</v>
+        <v>5.414166666666664</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>5.3</v>
       </c>
       <c r="D16" t="n">
-        <v>5.44</v>
+        <v>5.3</v>
       </c>
       <c r="E16" t="n">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2010</v>
+        <v>19370.5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.409666666666665</v>
+        <v>5.410666666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.34</v>
+        <v>5.26</v>
       </c>
       <c r="C17" t="n">
         <v>5.44</v>
@@ -967,29 +967,23 @@
         <v>5.44</v>
       </c>
       <c r="E17" t="n">
-        <v>5.33</v>
+        <v>5.26</v>
       </c>
       <c r="F17" t="n">
-        <v>66269.5971</v>
+        <v>2010</v>
       </c>
       <c r="G17" t="n">
-        <v>5.407833333333331</v>
+        <v>5.409666666666665</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -999,38 +993,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C18" t="n">
         <v>5.44</v>
       </c>
-      <c r="C18" t="n">
-        <v>5.47</v>
-      </c>
       <c r="D18" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="E18" t="n">
-        <v>5.44</v>
+        <v>5.33</v>
       </c>
       <c r="F18" t="n">
-        <v>3050</v>
+        <v>66269.5971</v>
       </c>
       <c r="G18" t="n">
-        <v>5.406833333333332</v>
+        <v>5.407833333333331</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="C19" t="n">
         <v>5.47</v>
@@ -1049,29 +1037,23 @@
         <v>5.47</v>
       </c>
       <c r="E19" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="F19" t="n">
-        <v>810</v>
+        <v>3050</v>
       </c>
       <c r="G19" t="n">
-        <v>5.406666666666665</v>
+        <v>5.406833333333332</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.47</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1084,19 +1066,19 @@
         <v>5.47</v>
       </c>
       <c r="C20" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="D20" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="E20" t="n">
         <v>5.47</v>
       </c>
       <c r="F20" t="n">
-        <v>25636.363</v>
+        <v>810</v>
       </c>
       <c r="G20" t="n">
-        <v>5.406499999999999</v>
+        <v>5.406666666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1106,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1120,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C21" t="n">
         <v>5.51</v>
@@ -1129,13 +1107,13 @@
         <v>5.51</v>
       </c>
       <c r="E21" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F21" t="n">
-        <v>12000</v>
+        <v>25636.363</v>
       </c>
       <c r="G21" t="n">
-        <v>5.406333333333333</v>
+        <v>5.406499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1159,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C22" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="D22" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="E22" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="F22" t="n">
-        <v>5037.274</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="n">
-        <v>5.405333333333332</v>
+        <v>5.406333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1198,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5.51</v>
+        <v>5.46</v>
       </c>
       <c r="D23" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="E23" t="n">
-        <v>5.41</v>
+        <v>5.46</v>
       </c>
       <c r="F23" t="n">
-        <v>2010</v>
+        <v>5037.274</v>
       </c>
       <c r="G23" t="n">
-        <v>5.405166666666665</v>
+        <v>5.405333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1223,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1237,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C24" t="n">
         <v>5.51</v>
@@ -1246,13 +1212,13 @@
         <v>5.51</v>
       </c>
       <c r="E24" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="F24" t="n">
-        <v>310</v>
+        <v>2010</v>
       </c>
       <c r="G24" t="n">
-        <v>5.405666666666665</v>
+        <v>5.405166666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1262,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C25" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="D25" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="E25" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F25" t="n">
-        <v>1047.2363</v>
+        <v>310</v>
       </c>
       <c r="G25" t="n">
-        <v>5.405999999999998</v>
+        <v>5.405666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1301,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1315,36 +1273,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F26" t="n">
-        <v>804.8907</v>
+        <v>1047.2363</v>
       </c>
       <c r="G26" t="n">
-        <v>5.406166666666665</v>
+        <v>5.405999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1366,7 +1320,7 @@
         <v>5.49</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>804.8907</v>
       </c>
       <c r="G27" t="n">
         <v>5.406166666666665</v>
@@ -1379,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F28" t="n">
-        <v>221824.794</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>5.405666666666664</v>
+        <v>5.406166666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1418,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="C29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="E29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="F29" t="n">
-        <v>214152.0728</v>
+        <v>221824.794</v>
       </c>
       <c r="G29" t="n">
-        <v>5.40433333333333</v>
+        <v>5.405666666666664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1457,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1471,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="C30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="D30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="E30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="F30" t="n">
-        <v>5973.9168</v>
+        <v>214152.0728</v>
       </c>
       <c r="G30" t="n">
-        <v>5.404666666666663</v>
+        <v>5.40433333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1496,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F31" t="n">
-        <v>215.7103</v>
+        <v>5973.9168</v>
       </c>
       <c r="G31" t="n">
-        <v>5.404999999999997</v>
+        <v>5.404666666666663</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1535,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1552,19 +1486,19 @@
         <v>5.49</v>
       </c>
       <c r="C32" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D32" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E32" t="n">
         <v>5.49</v>
       </c>
       <c r="F32" t="n">
-        <v>7000</v>
+        <v>215.7103</v>
       </c>
       <c r="G32" t="n">
-        <v>5.40533333333333</v>
+        <v>5.404999999999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1574,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1588,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C33" t="n">
         <v>5.5</v>
@@ -1597,13 +1527,13 @@
         <v>5.5</v>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3332</v>
+        <v>7000</v>
       </c>
       <c r="G33" t="n">
-        <v>5.406666666666663</v>
+        <v>5.40533333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1613,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1639,10 +1565,10 @@
         <v>5.5</v>
       </c>
       <c r="F34" t="n">
-        <v>44.4444</v>
+        <v>133.3332</v>
       </c>
       <c r="G34" t="n">
-        <v>5.407999999999996</v>
+        <v>5.406666666666663</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1652,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1678,10 +1600,10 @@
         <v>5.5</v>
       </c>
       <c r="F35" t="n">
-        <v>794.332</v>
+        <v>44.4444</v>
       </c>
       <c r="G35" t="n">
-        <v>5.409333333333328</v>
+        <v>5.407999999999996</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1691,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1705,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>247.1684</v>
+        <v>794.332</v>
       </c>
       <c r="G36" t="n">
-        <v>5.409499999999995</v>
+        <v>5.409333333333328</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1730,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1756,10 +1670,10 @@
         <v>5.49</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>247.1684</v>
       </c>
       <c r="G37" t="n">
-        <v>5.409666666666662</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1769,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1783,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="C38" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D38" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E38" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="F38" t="n">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>5.409499999999995</v>
+        <v>5.409666666666662</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1808,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1822,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C39" t="n">
         <v>5.47</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.48</v>
       </c>
       <c r="D39" t="n">
         <v>5.48</v>
@@ -1834,7 +1740,7 @@
         <v>5.47</v>
       </c>
       <c r="F39" t="n">
-        <v>64129.1907</v>
+        <v>222</v>
       </c>
       <c r="G39" t="n">
         <v>5.409499999999995</v>
@@ -1847,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1861,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="C40" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D40" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E40" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="F40" t="n">
-        <v>33107.909</v>
+        <v>64129.1907</v>
       </c>
       <c r="G40" t="n">
-        <v>5.411333333333329</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1886,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1912,10 +1810,10 @@
         <v>5.5</v>
       </c>
       <c r="F41" t="n">
-        <v>40135.0909</v>
+        <v>33107.909</v>
       </c>
       <c r="G41" t="n">
-        <v>5.411999999999995</v>
+        <v>5.411333333333329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1925,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1942,19 +1836,19 @@
         <v>5.5</v>
       </c>
       <c r="C42" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="D42" t="n">
         <v>5.5</v>
       </c>
       <c r="E42" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="F42" t="n">
-        <v>75071.06269999999</v>
+        <v>40135.0909</v>
       </c>
       <c r="G42" t="n">
-        <v>5.412666666666663</v>
+        <v>5.411999999999995</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1964,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1978,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="C43" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="D43" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="E43" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="F43" t="n">
-        <v>30866.7814</v>
+        <v>75071.06269999999</v>
       </c>
       <c r="G43" t="n">
-        <v>5.41233333333333</v>
+        <v>5.412666666666663</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2003,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2017,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C44" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="D44" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E44" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>30866.7814</v>
       </c>
       <c r="G44" t="n">
-        <v>5.41383333333333</v>
+        <v>5.41233333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2042,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2056,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="C45" t="n">
-        <v>5.32</v>
+        <v>5.48</v>
       </c>
       <c r="D45" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="E45" t="n">
-        <v>5.32</v>
+        <v>5.48</v>
       </c>
       <c r="F45" t="n">
-        <v>65738.33319999999</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>5.412666666666664</v>
+        <v>5.41383333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2081,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2095,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.49</v>
+        <v>5.35</v>
       </c>
       <c r="C46" t="n">
-        <v>5.49</v>
+        <v>5.32</v>
       </c>
       <c r="D46" t="n">
-        <v>5.49</v>
+        <v>5.35</v>
       </c>
       <c r="E46" t="n">
-        <v>5.49</v>
+        <v>5.32</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>65738.33319999999</v>
       </c>
       <c r="G46" t="n">
-        <v>5.414999999999996</v>
+        <v>5.412666666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2120,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2134,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F47" t="n">
-        <v>54400</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>5.415999999999997</v>
+        <v>5.414999999999996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2159,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2173,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>54400</v>
       </c>
       <c r="G48" t="n">
-        <v>5.417833333333331</v>
+        <v>5.415999999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2198,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F49" t="n">
-        <v>15294.4954</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>5.417999999999997</v>
+        <v>5.417833333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2237,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2251,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="C50" t="n">
         <v>5.45</v>
@@ -2260,13 +2122,13 @@
         <v>5.45</v>
       </c>
       <c r="E50" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="F50" t="n">
-        <v>40853.5578</v>
+        <v>15294.4954</v>
       </c>
       <c r="G50" t="n">
-        <v>5.418166666666663</v>
+        <v>5.417999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2276,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2290,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="C51" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="D51" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="E51" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="F51" t="n">
-        <v>204666.5677</v>
+        <v>40853.5578</v>
       </c>
       <c r="G51" t="n">
-        <v>5.41983333333333</v>
+        <v>5.418166666666663</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2315,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2329,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="C52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="D52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="E52" t="n">
-        <v>5.47</v>
+        <v>5.46</v>
       </c>
       <c r="F52" t="n">
-        <v>152625.1391</v>
+        <v>204666.5677</v>
       </c>
       <c r="G52" t="n">
-        <v>5.420499999999998</v>
+        <v>5.41983333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2354,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E53" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="F53" t="n">
-        <v>8793.172699999999</v>
+        <v>152625.1391</v>
       </c>
       <c r="G53" t="n">
-        <v>5.421499999999997</v>
+        <v>5.420499999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2393,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2407,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="C54" t="n">
         <v>5.5</v>
@@ -2416,13 +2262,13 @@
         <v>5.5</v>
       </c>
       <c r="E54" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="F54" t="n">
-        <v>45833.1455</v>
+        <v>8793.172699999999</v>
       </c>
       <c r="G54" t="n">
-        <v>5.423833333333331</v>
+        <v>5.421499999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2432,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2446,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="C55" t="n">
-        <v>5.42</v>
+        <v>5.5</v>
       </c>
       <c r="D55" t="n">
-        <v>5.42</v>
+        <v>5.5</v>
       </c>
       <c r="E55" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="F55" t="n">
-        <v>8488.725</v>
+        <v>45833.1455</v>
       </c>
       <c r="G55" t="n">
-        <v>5.425333333333331</v>
+        <v>5.423833333333331</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2471,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2485,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="C56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="D56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="E56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="F56" t="n">
-        <v>256.0291</v>
+        <v>8488.725</v>
       </c>
       <c r="G56" t="n">
-        <v>5.426166666666664</v>
+        <v>5.425333333333331</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2510,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2524,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="C57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="D57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="E57" t="n">
-        <v>5.37</v>
+        <v>5.49</v>
       </c>
       <c r="F57" t="n">
-        <v>109967.1608</v>
+        <v>256.0291</v>
       </c>
       <c r="G57" t="n">
-        <v>5.425333333333332</v>
+        <v>5.426166666666664</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2549,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2563,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="C58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="D58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="E58" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="F58" t="n">
-        <v>243.677</v>
+        <v>109967.1608</v>
       </c>
       <c r="G58" t="n">
-        <v>5.426833333333333</v>
+        <v>5.425333333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2588,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2602,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="C59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="D59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="E59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="F59" t="n">
-        <v>14380.0145</v>
+        <v>243.677</v>
       </c>
       <c r="G59" t="n">
-        <v>5.426166666666666</v>
+        <v>5.426833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2627,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2641,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C60" t="n">
         <v>5.35</v>
       </c>
       <c r="D60" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E60" t="n">
         <v>5.35</v>
       </c>
       <c r="F60" t="n">
-        <v>171877.2363</v>
+        <v>14380.0145</v>
       </c>
       <c r="G60" t="n">
-        <v>5.425833333333333</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2666,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2680,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="C61" t="n">
         <v>5.35</v>
       </c>
       <c r="D61" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E61" t="n">
         <v>5.35</v>
       </c>
-      <c r="E61" t="n">
-        <v>5.34</v>
-      </c>
       <c r="F61" t="n">
-        <v>88200.29399999999</v>
+        <v>171877.2363</v>
       </c>
       <c r="G61" t="n">
-        <v>5.425000000000001</v>
+        <v>5.425833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2705,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2719,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="C62" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D62" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E62" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="F62" t="n">
-        <v>234.0498</v>
+        <v>88200.29399999999</v>
       </c>
       <c r="G62" t="n">
-        <v>5.425333333333335</v>
+        <v>5.425000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2744,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F63" t="n">
-        <v>85.50579999999999</v>
+        <v>234.0498</v>
       </c>
       <c r="G63" t="n">
-        <v>5.424833333333336</v>
+        <v>5.425333333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2783,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2797,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C64" t="n">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="D64" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E64" t="n">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="F64" t="n">
-        <v>808522.2621000001</v>
+        <v>85.50579999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>5.426666666666669</v>
+        <v>5.424833333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2822,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2836,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="C65" t="n">
-        <v>5.42</v>
+        <v>5.31</v>
       </c>
       <c r="D65" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="E65" t="n">
-        <v>5.42</v>
+        <v>5.31</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>808522.2621000001</v>
       </c>
       <c r="G65" t="n">
-        <v>5.427333333333336</v>
+        <v>5.426666666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2861,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2887,10 +2685,10 @@
         <v>5.42</v>
       </c>
       <c r="F66" t="n">
-        <v>92.2509</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>5.428000000000003</v>
+        <v>5.427333333333336</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2900,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F67" t="n">
-        <v>92.0202</v>
+        <v>92.2509</v>
       </c>
       <c r="G67" t="n">
-        <v>5.430000000000003</v>
+        <v>5.428000000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2939,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="C68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="F68" t="n">
-        <v>482.4723</v>
+        <v>92.0202</v>
       </c>
       <c r="G68" t="n">
-        <v>5.431833333333336</v>
+        <v>5.430000000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2978,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2992,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C69" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="D69" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="E69" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F69" t="n">
-        <v>108221.9709</v>
+        <v>482.4723</v>
       </c>
       <c r="G69" t="n">
-        <v>5.432666666666671</v>
+        <v>5.431833333333336</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3017,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3031,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="C70" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D70" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E70" t="n">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="F70" t="n">
-        <v>2352.4832</v>
+        <v>108221.9709</v>
       </c>
       <c r="G70" t="n">
-        <v>5.43366666666667</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3056,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F71" t="n">
-        <v>40772.7217</v>
+        <v>2352.4832</v>
       </c>
       <c r="G71" t="n">
-        <v>5.436500000000004</v>
+        <v>5.43366666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3095,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3109,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>40772.7217</v>
       </c>
       <c r="G72" t="n">
-        <v>5.437833333333336</v>
+        <v>5.436500000000004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3134,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>5.43966666666667</v>
+        <v>5.437833333333336</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3173,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3199,10 +2965,10 @@
         <v>5.38</v>
       </c>
       <c r="F74" t="n">
-        <v>7806.6914</v>
+        <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>5.441333333333337</v>
+        <v>5.43966666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3212,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F75" t="n">
-        <v>34689.2373</v>
+        <v>7806.6914</v>
       </c>
       <c r="G75" t="n">
-        <v>5.442333333333337</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3251,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3265,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>34689.2373</v>
       </c>
       <c r="G76" t="n">
-        <v>5.441333333333337</v>
+        <v>5.442333333333337</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3290,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3313,13 +3067,13 @@
         <v>5.38</v>
       </c>
       <c r="E77" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F77" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>5.440333333333338</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3329,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3352,13 +3102,13 @@
         <v>5.38</v>
       </c>
       <c r="E78" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="G78" t="n">
-        <v>5.438833333333337</v>
+        <v>5.440333333333338</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3368,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3394,10 +3140,10 @@
         <v>5.38</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>5.437333333333337</v>
+        <v>5.438833333333337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3407,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3421,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C80" t="n">
         <v>5.38</v>
@@ -3430,13 +3172,13 @@
         <v>5.38</v>
       </c>
       <c r="E80" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F80" t="n">
-        <v>34700.2373</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>5.43516666666667</v>
+        <v>5.437333333333337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3446,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3460,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C81" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="D81" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="E81" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F81" t="n">
-        <v>465497.5636</v>
+        <v>34700.2373</v>
       </c>
       <c r="G81" t="n">
-        <v>5.433500000000004</v>
+        <v>5.43516666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3485,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3499,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="C82" t="n">
         <v>5.41</v>
@@ -3508,13 +3242,13 @@
         <v>5.41</v>
       </c>
       <c r="E82" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="F82" t="n">
-        <v>31819.211</v>
+        <v>465497.5636</v>
       </c>
       <c r="G82" t="n">
-        <v>5.432666666666671</v>
+        <v>5.433500000000004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3524,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="C83" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="D83" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="E83" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="F83" t="n">
-        <v>27605.4571</v>
+        <v>31819.211</v>
       </c>
       <c r="G83" t="n">
-        <v>5.431500000000004</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3563,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3577,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="C84" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="D84" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="E84" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="F84" t="n">
-        <v>35</v>
+        <v>27605.4571</v>
       </c>
       <c r="G84" t="n">
-        <v>5.429833333333338</v>
+        <v>5.431500000000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3602,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3616,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="F85" t="n">
-        <v>1502.9574</v>
+        <v>35</v>
       </c>
       <c r="G85" t="n">
-        <v>5.428166666666671</v>
+        <v>5.429833333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3641,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3655,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C86" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="D86" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="E86" t="n">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="F86" t="n">
-        <v>73542.039</v>
+        <v>1502.9574</v>
       </c>
       <c r="G86" t="n">
-        <v>5.427166666666671</v>
+        <v>5.428166666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3680,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3697,19 +3411,19 @@
         <v>5.41</v>
       </c>
       <c r="C87" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="D87" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="E87" t="n">
-        <v>5.41</v>
+        <v>5.36</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>73542.039</v>
       </c>
       <c r="G87" t="n">
-        <v>5.425833333333339</v>
+        <v>5.427166666666671</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3719,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3733,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="F88" t="n">
-        <v>18810.75</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>5.425000000000005</v>
+        <v>5.425833333333339</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3758,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>18810.75</v>
       </c>
       <c r="G89" t="n">
-        <v>5.425166666666672</v>
+        <v>5.425000000000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3797,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3811,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="C90" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="D90" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="E90" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="F90" t="n">
-        <v>13662.8497</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>5.423500000000006</v>
+        <v>5.425166666666672</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3836,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="C91" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="D91" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E91" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F91" t="n">
-        <v>11838.6111</v>
+        <v>13662.8497</v>
       </c>
       <c r="G91" t="n">
-        <v>5.422000000000006</v>
+        <v>5.423500000000006</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3875,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3889,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="C92" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D92" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E92" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="F92" t="n">
-        <v>4017.4822</v>
+        <v>11838.6111</v>
       </c>
       <c r="G92" t="n">
-        <v>5.420500000000006</v>
+        <v>5.422000000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3914,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="C93" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D93" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E93" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F93" t="n">
-        <v>1566.7685</v>
+        <v>4017.4822</v>
       </c>
       <c r="G93" t="n">
-        <v>5.418833333333339</v>
+        <v>5.420500000000006</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3953,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3970,19 +3656,19 @@
         <v>5.4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D94" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E94" t="n">
         <v>5.4</v>
       </c>
       <c r="F94" t="n">
-        <v>683.9186</v>
+        <v>1566.7685</v>
       </c>
       <c r="G94" t="n">
-        <v>5.41733333333334</v>
+        <v>5.418833333333339</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3992,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4006,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C95" t="n">
         <v>5.41</v>
       </c>
-      <c r="C95" t="n">
-        <v>5.46</v>
-      </c>
       <c r="D95" t="n">
-        <v>5.46</v>
+        <v>5.41</v>
       </c>
       <c r="E95" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F95" t="n">
-        <v>78039.29580000001</v>
+        <v>683.9186</v>
       </c>
       <c r="G95" t="n">
-        <v>5.416666666666672</v>
+        <v>5.41733333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4031,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4045,19 +3723,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="C96" t="n">
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="D96" t="n">
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="E96" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>78039.29580000001</v>
       </c>
       <c r="G96" t="n">
         <v>5.416666666666672</v>
@@ -4070,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4084,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.46</v>
+        <v>5.49</v>
       </c>
       <c r="C97" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D97" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="E97" t="n">
-        <v>5.4</v>
+        <v>5.49</v>
       </c>
       <c r="F97" t="n">
-        <v>19525.8935</v>
+        <v>22</v>
       </c>
       <c r="G97" t="n">
-        <v>5.416333333333339</v>
+        <v>5.416666666666672</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4109,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4123,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C98" t="n">
         <v>5.47</v>
       </c>
-      <c r="C98" t="n">
-        <v>5.48</v>
-      </c>
       <c r="D98" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="E98" t="n">
-        <v>5.47</v>
+        <v>5.4</v>
       </c>
       <c r="F98" t="n">
-        <v>17484.5978</v>
+        <v>19525.8935</v>
       </c>
       <c r="G98" t="n">
-        <v>5.416500000000005</v>
+        <v>5.416333333333339</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4148,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="C99" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D99" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="E99" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="F99" t="n">
-        <v>4191.376146788991</v>
+        <v>17484.5978</v>
       </c>
       <c r="G99" t="n">
-        <v>5.416000000000006</v>
+        <v>5.416500000000005</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4187,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4201,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="C100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="D100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="E100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="F100" t="n">
-        <v>5440.6603</v>
+        <v>4191.376146788991</v>
       </c>
       <c r="G100" t="n">
-        <v>5.413333333333338</v>
+        <v>5.416000000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4226,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="C101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="D101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="E101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>5440.6603</v>
       </c>
       <c r="G101" t="n">
-        <v>5.412166666666672</v>
+        <v>5.413333333333338</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4265,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4279,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="C102" t="n">
         <v>5.43</v>
@@ -4288,10 +3942,10 @@
         <v>5.43</v>
       </c>
       <c r="E102" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="F102" t="n">
-        <v>64911</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
         <v>5.412166666666672</v>
@@ -4304,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="C103" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="D103" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="E103" t="n">
-        <v>5.35</v>
+        <v>5.37</v>
       </c>
       <c r="F103" t="n">
-        <v>631.7499</v>
+        <v>64911</v>
       </c>
       <c r="G103" t="n">
-        <v>5.411833333333338</v>
+        <v>5.412166666666672</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4343,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4357,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="C104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="D104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="E104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>631.7499</v>
       </c>
       <c r="G104" t="n">
-        <v>5.411000000000005</v>
+        <v>5.411833333333338</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4382,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4408,10 +4050,10 @@
         <v>5.43</v>
       </c>
       <c r="F105" t="n">
-        <v>702</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>5.412833333333339</v>
+        <v>5.411000000000005</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4421,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4435,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="C106" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="D106" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="E106" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="F106" t="n">
-        <v>73823.2887</v>
+        <v>702</v>
       </c>
       <c r="G106" t="n">
-        <v>5.412000000000005</v>
+        <v>5.412833333333339</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4460,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.45</v>
+        <v>5.38</v>
       </c>
       <c r="C107" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="D107" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="E107" t="n">
-        <v>5.44</v>
+        <v>5.38</v>
       </c>
       <c r="F107" t="n">
-        <v>497442.535353211</v>
+        <v>73823.2887</v>
       </c>
       <c r="G107" t="n">
-        <v>5.412333333333339</v>
+        <v>5.412000000000005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4499,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4513,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="C108" t="n">
         <v>5.47</v>
@@ -4522,13 +4152,13 @@
         <v>5.47</v>
       </c>
       <c r="E108" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>497442.535353211</v>
       </c>
       <c r="G108" t="n">
-        <v>5.412000000000006</v>
+        <v>5.412333333333339</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4538,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4555,19 +4181,19 @@
         <v>5.47</v>
       </c>
       <c r="C109" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="D109" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="E109" t="n">
         <v>5.47</v>
       </c>
       <c r="F109" t="n">
-        <v>404825.5061</v>
+        <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>5.413000000000006</v>
+        <v>5.412000000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4577,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4213,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C110" t="n">
         <v>5.51</v>
@@ -4600,13 +4222,13 @@
         <v>5.51</v>
       </c>
       <c r="E110" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F110" t="n">
-        <v>33</v>
+        <v>404825.5061</v>
       </c>
       <c r="G110" t="n">
-        <v>5.414000000000006</v>
+        <v>5.413000000000006</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4616,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4642,24 +4260,20 @@
         <v>5.51</v>
       </c>
       <c r="F111" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G111" t="n">
-        <v>5.414666666666673</v>
+        <v>5.414000000000006</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4669,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C112" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="D112" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="E112" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F112" t="n">
-        <v>631189.1128999999</v>
+        <v>55</v>
       </c>
       <c r="G112" t="n">
-        <v>5.415500000000005</v>
+        <v>5.414666666666673</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4694,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4708,7 +4318,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C113" t="n">
         <v>5.53</v>
@@ -4717,13 +4327,13 @@
         <v>5.53</v>
       </c>
       <c r="E113" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>631189.1128999999</v>
       </c>
       <c r="G113" t="n">
-        <v>5.416000000000005</v>
+        <v>5.415500000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4733,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4747,36 +4353,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="D114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="E114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="F114" t="n">
-        <v>143776.825</v>
+        <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>5.416333333333338</v>
+        <v>5.416000000000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4789,62 +4391,60 @@
         <v>5.52</v>
       </c>
       <c r="C115" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="D115" t="n">
         <v>5.52</v>
       </c>
       <c r="E115" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="F115" t="n">
-        <v>685521.6363</v>
+        <v>143776.825</v>
       </c>
       <c r="G115" t="n">
-        <v>5.417500000000004</v>
+        <v>5.416333333333338</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="C116" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="D116" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E116" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="F116" t="n">
-        <v>22</v>
+        <v>685521.6363</v>
       </c>
       <c r="G116" t="n">
-        <v>5.41816666666667</v>
+        <v>5.417500000000004</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4870,10 +4470,10 @@
         <v>5.53</v>
       </c>
       <c r="F117" t="n">
-        <v>117969.2585</v>
+        <v>22</v>
       </c>
       <c r="G117" t="n">
-        <v>5.420166666666669</v>
+        <v>5.41816666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4905,10 +4505,10 @@
         <v>5.53</v>
       </c>
       <c r="F118" t="n">
-        <v>18000</v>
+        <v>117969.2585</v>
       </c>
       <c r="G118" t="n">
-        <v>5.421000000000002</v>
+        <v>5.420166666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4928,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="C119" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="D119" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="E119" t="n">
-        <v>5.43</v>
+        <v>5.53</v>
       </c>
       <c r="F119" t="n">
-        <v>56094.129</v>
+        <v>18000</v>
       </c>
       <c r="G119" t="n">
-        <v>5.423833333333334</v>
+        <v>5.421000000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4963,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.3</v>
+        <v>5.48</v>
       </c>
       <c r="C120" t="n">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
       <c r="D120" t="n">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
       <c r="E120" t="n">
-        <v>5.3</v>
+        <v>5.43</v>
       </c>
       <c r="F120" t="n">
-        <v>63447.2247</v>
+        <v>56094.129</v>
       </c>
       <c r="G120" t="n">
-        <v>5.426000000000001</v>
+        <v>5.423833333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4998,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="C121" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="D121" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="E121" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>63447.2247</v>
       </c>
       <c r="G121" t="n">
-        <v>5.426333333333334</v>
+        <v>5.426000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5045,10 +4645,10 @@
         <v>5.37</v>
       </c>
       <c r="F122" t="n">
-        <v>588.2681</v>
+        <v>200</v>
       </c>
       <c r="G122" t="n">
-        <v>5.4255</v>
+        <v>5.426333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5068,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="C123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="D123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="E123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="F123" t="n">
-        <v>585</v>
+        <v>588.2681</v>
       </c>
       <c r="G123" t="n">
-        <v>5.425166666666667</v>
+        <v>5.4255</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5103,31 +4703,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F124" t="n">
+        <v>585</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.425166666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>5.37</v>
       </c>
-      <c r="C124" t="n">
+      <c r="K124" t="n">
         <v>5.37</v>
       </c>
-      <c r="D124" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="F124" t="n">
-        <v>12</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5.426166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -5141,29 +4745,37 @@
         <v>5.37</v>
       </c>
       <c r="C125" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="D125" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="E125" t="n">
         <v>5.37</v>
       </c>
       <c r="F125" t="n">
-        <v>63243.21</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>5.427166666666666</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K125" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5173,32 +4785,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="C126" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D126" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E126" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="F126" t="n">
-        <v>180</v>
+        <v>63243.21</v>
       </c>
       <c r="G126" t="n">
-        <v>5.4265</v>
+        <v>5.427166666666666</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K126" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5208,22 +4828,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="F127" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="G127" t="n">
-        <v>5.428666666666667</v>
+        <v>5.4265</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5232,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5243,22 +4869,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="F128" t="n">
-        <v>3500</v>
+        <v>122</v>
       </c>
       <c r="G128" t="n">
-        <v>5.427999999999999</v>
+        <v>5.428666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5267,8 +4893,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5278,22 +4910,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="F129" t="n">
-        <v>333</v>
+        <v>3500</v>
       </c>
       <c r="G129" t="n">
-        <v>5.429999999999999</v>
+        <v>5.427999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5302,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5325,10 +4963,10 @@
         <v>5.48</v>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="G130" t="n">
-        <v>5.431666666666667</v>
+        <v>5.429999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5337,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5348,32 +4992,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C131" t="n">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="D131" t="n">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="E131" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.431666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
         <v>5.37</v>
       </c>
-      <c r="F131" t="n">
-        <v>218175.843</v>
-      </c>
-      <c r="G131" t="n">
-        <v>5.433333333333333</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5383,7 +5033,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C132" t="n">
         <v>5.46</v>
@@ -5392,13 +5042,13 @@
         <v>5.46</v>
       </c>
       <c r="E132" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="F132" t="n">
-        <v>238175.8431</v>
+        <v>218175.843</v>
       </c>
       <c r="G132" t="n">
-        <v>5.434666666666666</v>
+        <v>5.433333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5407,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5074,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="C133" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="D133" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="E133" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="F133" t="n">
-        <v>3863.6531</v>
+        <v>238175.8431</v>
       </c>
       <c r="G133" t="n">
-        <v>5.435333333333332</v>
+        <v>5.434666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5442,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5453,22 +5115,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="C134" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="D134" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="E134" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="F134" t="n">
-        <v>60381.4724</v>
+        <v>3863.6531</v>
       </c>
       <c r="G134" t="n">
-        <v>5.435499999999999</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5477,8 +5139,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5491,19 +5159,19 @@
         <v>5.34</v>
       </c>
       <c r="C135" t="n">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="D135" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E135" t="n">
         <v>5.34</v>
       </c>
-      <c r="E135" t="n">
-        <v>5.33</v>
-      </c>
       <c r="F135" t="n">
-        <v>260155.0889</v>
+        <v>60381.4724</v>
       </c>
       <c r="G135" t="n">
-        <v>5.434999999999999</v>
+        <v>5.435499999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5512,8 +5180,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5523,22 +5197,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.38</v>
+        <v>5.34</v>
       </c>
       <c r="C136" t="n">
-        <v>5.47</v>
+        <v>5.33</v>
       </c>
       <c r="D136" t="n">
-        <v>5.47</v>
+        <v>5.34</v>
       </c>
       <c r="E136" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>260155.0889</v>
       </c>
       <c r="G136" t="n">
-        <v>5.436499999999999</v>
+        <v>5.434999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5547,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5558,22 +5238,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="C137" t="n">
-        <v>5.42</v>
+        <v>5.47</v>
       </c>
       <c r="D137" t="n">
-        <v>5.42</v>
+        <v>5.47</v>
       </c>
       <c r="E137" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="F137" t="n">
-        <v>12964.2066</v>
+        <v>22</v>
       </c>
       <c r="G137" t="n">
-        <v>5.437166666666666</v>
+        <v>5.436499999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5582,8 +5262,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5593,22 +5279,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="C138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="D138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="E138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>12964.2066</v>
       </c>
       <c r="G138" t="n">
-        <v>5.437499999999999</v>
+        <v>5.437166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5617,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5628,7 +5320,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="C139" t="n">
         <v>5.4</v>
@@ -5637,13 +5329,13 @@
         <v>5.4</v>
       </c>
       <c r="E139" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="F139" t="n">
-        <v>190036.4117</v>
+        <v>300</v>
       </c>
       <c r="G139" t="n">
-        <v>5.437833333333332</v>
+        <v>5.437499999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5652,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5663,22 +5361,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.23</v>
+        <v>5.28</v>
       </c>
       <c r="C140" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="D140" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="E140" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="F140" t="n">
-        <v>56.5528</v>
+        <v>190036.4117</v>
       </c>
       <c r="G140" t="n">
-        <v>5.435333333333332</v>
+        <v>5.437833333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5687,8 +5385,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5698,22 +5402,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="C141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="D141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="E141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>56.5528</v>
       </c>
       <c r="G141" t="n">
-        <v>5.434833333333332</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5722,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5736,19 +5446,19 @@
         <v>5.38</v>
       </c>
       <c r="C142" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D142" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E142" t="n">
         <v>5.38</v>
       </c>
       <c r="F142" t="n">
-        <v>9462.269</v>
+        <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>5.434499999999998</v>
+        <v>5.434833333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5757,8 +5467,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5484,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="C143" t="n">
         <v>5.39</v>
@@ -5777,24 +5493,73 @@
         <v>5.39</v>
       </c>
       <c r="E143" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9462.269</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.434499999999998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K143" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>5.39</v>
       </c>
-      <c r="F143" t="n">
+      <c r="C144" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F144" t="n">
         <v>18552.8756</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G144" t="n">
         <v>5.433666666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>84.57810000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>5.402666666666664</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.447499999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>305.283</v>
       </c>
       <c r="G3" t="n">
+        <v>5.403333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.447666666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>415799.674</v>
       </c>
       <c r="G4" t="n">
+        <v>5.403333333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.448333333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1146525.9672</v>
       </c>
       <c r="G5" t="n">
+        <v>5.387333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.445166666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>5.383333333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.444833333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3425.4832</v>
       </c>
       <c r="G7" t="n">
+        <v>5.383999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.443333333333331</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>315668.8661</v>
       </c>
       <c r="G8" t="n">
+        <v>5.369999999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.439333333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>193021.951</v>
       </c>
       <c r="G9" t="n">
+        <v>5.361333333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.43733333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>428351.5333</v>
       </c>
       <c r="G10" t="n">
+        <v>5.357999999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.434666666666663</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>58673.7304</v>
       </c>
       <c r="G11" t="n">
+        <v>5.357333333333331</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.431499999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>13279.4667</v>
       </c>
       <c r="G12" t="n">
+        <v>5.340666666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.425999999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,25 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
+        <v>5.329999999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.422333333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +913,27 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
+        <v>5.321999999999998</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.418166666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +957,27 @@
         <v>235744.2922</v>
       </c>
       <c r="G15" t="n">
+        <v>5.314666666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.414166666666664</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,25 @@
         <v>19370.5</v>
       </c>
       <c r="G16" t="n">
+        <v>5.309999999999998</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.410666666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1043,27 @@
         <v>2010</v>
       </c>
       <c r="G17" t="n">
+        <v>5.312666666666663</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.409666666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1087,27 @@
         <v>66269.5971</v>
       </c>
       <c r="G18" t="n">
+        <v>5.31533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.407833333333331</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1131,27 @@
         <v>3050</v>
       </c>
       <c r="G19" t="n">
+        <v>5.32133333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.406833333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1175,27 @@
         <v>810</v>
       </c>
       <c r="G20" t="n">
+        <v>5.33933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.406666666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1219,27 @@
         <v>25636.363</v>
       </c>
       <c r="G21" t="n">
+        <v>5.347999999999997</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.406499999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1263,27 @@
         <v>12000</v>
       </c>
       <c r="G22" t="n">
+        <v>5.356666666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.406333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1307,27 @@
         <v>5037.274</v>
       </c>
       <c r="G23" t="n">
+        <v>5.371999999999997</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.405333333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1351,27 @@
         <v>2010</v>
       </c>
       <c r="G24" t="n">
+        <v>5.385333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.405166666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1395,27 @@
         <v>310</v>
       </c>
       <c r="G25" t="n">
+        <v>5.398666666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.405666666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1439,27 @@
         <v>1047.2363</v>
       </c>
       <c r="G26" t="n">
+        <v>5.410666666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.405999999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1483,27 @@
         <v>804.8907</v>
       </c>
       <c r="G27" t="n">
+        <v>5.430666666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.406166666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1527,27 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
+        <v>5.443333333333331</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.406166666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1571,27 @@
         <v>221824.794</v>
       </c>
       <c r="G29" t="n">
+        <v>5.455333333333331</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.405666666666664</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1615,27 @@
         <v>214152.0728</v>
       </c>
       <c r="G30" t="n">
+        <v>5.463333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.40433333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1659,27 @@
         <v>5973.9168</v>
       </c>
       <c r="G31" t="n">
+        <v>5.473333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.404666666666663</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1703,27 @@
         <v>215.7103</v>
       </c>
       <c r="G32" t="n">
+        <v>5.476666666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.404999999999997</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1747,27 @@
         <v>7000</v>
       </c>
       <c r="G33" t="n">
+        <v>5.480666666666665</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.40533333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1791,27 @@
         <v>133.3332</v>
       </c>
       <c r="G34" t="n">
+        <v>5.482666666666665</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.406666666666663</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1835,27 @@
         <v>44.4444</v>
       </c>
       <c r="G35" t="n">
+        <v>5.484666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.407999999999996</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1879,27 @@
         <v>794.332</v>
       </c>
       <c r="G36" t="n">
+        <v>5.483999999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.409333333333328</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1923,27 @@
         <v>247.1684</v>
       </c>
       <c r="G37" t="n">
+        <v>5.482666666666664</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.409499999999995</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1967,27 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
+        <v>5.484666666666665</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.409666666666662</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2011,27 @@
         <v>222</v>
       </c>
       <c r="G39" t="n">
+        <v>5.481999999999998</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.409499999999995</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2055,27 @@
         <v>64129.1907</v>
       </c>
       <c r="G40" t="n">
+        <v>5.479999999999998</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.409499999999995</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2099,27 @@
         <v>33107.909</v>
       </c>
       <c r="G41" t="n">
+        <v>5.479999999999998</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.411333333333329</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2143,27 @@
         <v>40135.0909</v>
       </c>
       <c r="G42" t="n">
+        <v>5.480666666666664</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.411999999999995</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2187,27 @@
         <v>75071.06269999999</v>
       </c>
       <c r="G43" t="n">
+        <v>5.476666666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.412666666666663</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2231,27 @@
         <v>30866.7814</v>
       </c>
       <c r="G44" t="n">
+        <v>5.471333333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.41233333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2275,27 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
+        <v>5.476666666666664</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.41383333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,19 +2319,28 @@
         <v>65738.33319999999</v>
       </c>
       <c r="G46" t="n">
+        <v>5.467999999999998</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.412666666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
+      <c r="L46" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1.002575757575758</v>
       </c>
     </row>
     <row r="47">
@@ -2023,18 +2363,21 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
+        <v>5.467999999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.414999999999996</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2401,21 @@
         <v>54400</v>
       </c>
       <c r="G48" t="n">
+        <v>5.464666666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.415999999999997</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2439,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
+        <v>5.463999999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.417833333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2477,21 @@
         <v>15294.4954</v>
       </c>
       <c r="G50" t="n">
+        <v>5.460666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.417999999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2515,21 @@
         <v>40853.5578</v>
       </c>
       <c r="G51" t="n">
+        <v>5.457333333333332</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.418166666666663</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2553,21 @@
         <v>204666.5677</v>
       </c>
       <c r="G52" t="n">
+        <v>5.455999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.41983333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2591,21 @@
         <v>152625.1391</v>
       </c>
       <c r="G53" t="n">
+        <v>5.455333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.420499999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2629,21 @@
         <v>8793.172699999999</v>
       </c>
       <c r="G54" t="n">
+        <v>5.457333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.421499999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2667,21 @@
         <v>45833.1455</v>
       </c>
       <c r="G55" t="n">
+        <v>5.458666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.423833333333331</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2705,21 @@
         <v>8488.725</v>
       </c>
       <c r="G56" t="n">
+        <v>5.453333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.425333333333331</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2743,21 @@
         <v>256.0291</v>
       </c>
       <c r="G57" t="n">
+        <v>5.452666666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.426166666666664</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2781,21 @@
         <v>109967.1608</v>
       </c>
       <c r="G58" t="n">
+        <v>5.451333333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.425333333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2819,21 @@
         <v>243.677</v>
       </c>
       <c r="G59" t="n">
+        <v>5.458666666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.426833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2857,21 @@
         <v>14380.0145</v>
       </c>
       <c r="G60" t="n">
+        <v>5.449999999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.426166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2895,21 @@
         <v>171877.2363</v>
       </c>
       <c r="G61" t="n">
+        <v>5.451999999999998</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.425833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2933,21 @@
         <v>88200.29399999999</v>
       </c>
       <c r="G62" t="n">
+        <v>5.442666666666665</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.425000000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2971,21 @@
         <v>234.0498</v>
       </c>
       <c r="G63" t="n">
+        <v>5.440666666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.425333333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3009,21 @@
         <v>85.50579999999999</v>
       </c>
       <c r="G64" t="n">
+        <v>5.431333333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.424833333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3047,21 @@
         <v>808522.2621000001</v>
       </c>
       <c r="G65" t="n">
+        <v>5.421999999999998</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.426666666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3085,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>5.419999999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.427333333333336</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3123,21 @@
         <v>92.2509</v>
       </c>
       <c r="G67" t="n">
+        <v>5.416666666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.428000000000003</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3161,21 @@
         <v>92.0202</v>
       </c>
       <c r="G68" t="n">
+        <v>5.407999999999998</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.430000000000003</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3199,21 @@
         <v>482.4723</v>
       </c>
       <c r="G69" t="n">
+        <v>5.402666666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.431833333333336</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3237,21 @@
         <v>108221.9709</v>
       </c>
       <c r="G70" t="n">
+        <v>5.393333333333331</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.432666666666671</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3275,21 @@
         <v>2352.4832</v>
       </c>
       <c r="G71" t="n">
+        <v>5.390666666666664</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.43366666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3313,21 @@
         <v>40772.7217</v>
       </c>
       <c r="G72" t="n">
+        <v>5.381999999999997</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.436500000000004</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3351,21 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
+        <v>5.379999999999997</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.437833333333336</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3389,21 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
+        <v>5.37333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.43966666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3427,21 @@
         <v>7806.6914</v>
       </c>
       <c r="G75" t="n">
+        <v>5.37533333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.441333333333337</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3465,21 @@
         <v>34689.2373</v>
       </c>
       <c r="G76" t="n">
+        <v>5.375999999999997</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.442333333333337</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3503,21 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
+        <v>5.377999999999997</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.441333333333337</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3541,21 @@
         <v>93</v>
       </c>
       <c r="G78" t="n">
+        <v>5.37533333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.440333333333338</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3579,21 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
+        <v>5.37733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.438833333333337</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3617,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
+        <v>5.381999999999996</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.437333333333337</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3655,21 @@
         <v>34700.2373</v>
       </c>
       <c r="G81" t="n">
+        <v>5.37933333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.43516666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3693,21 @@
         <v>465497.5636</v>
       </c>
       <c r="G82" t="n">
+        <v>5.378666666666662</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.433500000000004</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3731,21 @@
         <v>31819.211</v>
       </c>
       <c r="G83" t="n">
+        <v>5.382666666666663</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.432666666666671</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3769,21 @@
         <v>27605.4571</v>
       </c>
       <c r="G84" t="n">
+        <v>5.383999999999996</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.431500000000004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3807,21 @@
         <v>35</v>
       </c>
       <c r="G85" t="n">
+        <v>5.387333333333329</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.429833333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3845,21 @@
         <v>1502.9574</v>
       </c>
       <c r="G86" t="n">
+        <v>5.388666666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.428166666666671</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3883,21 @@
         <v>73542.039</v>
       </c>
       <c r="G87" t="n">
+        <v>5.393333333333329</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.427166666666671</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3921,21 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
+        <v>5.395333333333329</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.425833333333339</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3959,21 @@
         <v>18810.75</v>
       </c>
       <c r="G89" t="n">
+        <v>5.396666666666663</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.425000000000005</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3997,21 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
+        <v>5.398666666666663</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.425166666666672</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4035,21 @@
         <v>13662.8497</v>
       </c>
       <c r="G91" t="n">
+        <v>5.397999999999996</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.423500000000006</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4073,21 @@
         <v>11838.6111</v>
       </c>
       <c r="G92" t="n">
+        <v>5.39933333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.422000000000006</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4111,21 @@
         <v>4017.4822</v>
       </c>
       <c r="G93" t="n">
+        <v>5.40133333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.420500000000006</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4149,21 @@
         <v>1566.7685</v>
       </c>
       <c r="G94" t="n">
+        <v>5.402666666666664</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.418833333333339</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4187,21 @@
         <v>683.9186</v>
       </c>
       <c r="G95" t="n">
+        <v>5.404666666666665</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.41733333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4225,21 @@
         <v>78039.29580000001</v>
       </c>
       <c r="G96" t="n">
+        <v>5.409999999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.416666666666672</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4263,21 @@
         <v>22</v>
       </c>
       <c r="G97" t="n">
+        <v>5.415333333333331</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.416666666666672</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4301,21 @@
         <v>19525.8935</v>
       </c>
       <c r="G98" t="n">
+        <v>5.419333333333331</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.416333333333339</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4339,21 @@
         <v>17484.5978</v>
       </c>
       <c r="G99" t="n">
+        <v>5.421999999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.416500000000005</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4377,21 @@
         <v>4191.376146788991</v>
       </c>
       <c r="G100" t="n">
+        <v>5.424666666666665</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.416000000000006</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4415,21 @@
         <v>5440.6603</v>
       </c>
       <c r="G101" t="n">
+        <v>5.420666666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.413333333333338</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4453,21 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
+        <v>5.420666666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.412166666666672</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4491,27 @@
         <v>64911</v>
       </c>
       <c r="G103" t="n">
+        <v>5.421999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.412166666666672</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.43</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4535,27 @@
         <v>631.7499</v>
       </c>
       <c r="G104" t="n">
+        <v>5.418666666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.411833333333338</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5.43</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4579,27 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
+        <v>5.419999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.411000000000005</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>5.35</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4623,25 @@
         <v>702</v>
       </c>
       <c r="G106" t="n">
+        <v>5.425333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.412833333333339</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4665,25 @@
         <v>73823.2887</v>
       </c>
       <c r="G107" t="n">
+        <v>5.427999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.412000000000005</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4707,25 @@
         <v>497442.535353211</v>
       </c>
       <c r="G108" t="n">
+        <v>5.431999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.412333333333339</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4749,25 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
+        <v>5.436666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.412000000000006</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4791,25 @@
         <v>404825.5061</v>
       </c>
       <c r="G110" t="n">
+        <v>5.443333333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.413000000000006</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4833,25 @@
         <v>33</v>
       </c>
       <c r="G111" t="n">
+        <v>5.446666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.414000000000006</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4875,25 @@
         <v>55</v>
       </c>
       <c r="G112" t="n">
+        <v>5.448000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.414666666666673</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4917,25 @@
         <v>631189.1128999999</v>
       </c>
       <c r="G113" t="n">
+        <v>5.452000000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.415500000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4959,25 @@
         <v>22</v>
       </c>
       <c r="G114" t="n">
+        <v>5.455333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.416000000000005</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,20 +5001,25 @@
         <v>143776.825</v>
       </c>
       <c r="G115" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.416333333333338</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4438,18 +5041,21 @@
         <v>685521.6363</v>
       </c>
       <c r="G116" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.417500000000004</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5079,21 @@
         <v>22</v>
       </c>
       <c r="G117" t="n">
+        <v>5.476666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.41816666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5117,21 @@
         <v>117969.2585</v>
       </c>
       <c r="G118" t="n">
+        <v>5.483333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.420166666666669</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5155,21 @@
         <v>18000</v>
       </c>
       <c r="G119" t="n">
+        <v>5.495333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.421000000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5193,21 @@
         <v>56094.129</v>
       </c>
       <c r="G120" t="n">
+        <v>5.501333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.423833333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5231,21 @@
         <v>63447.2247</v>
       </c>
       <c r="G121" t="n">
+        <v>5.504666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.426000000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5269,21 @@
         <v>200</v>
       </c>
       <c r="G122" t="n">
+        <v>5.500000000000002</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.426333333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5307,21 @@
         <v>588.2681</v>
       </c>
       <c r="G123" t="n">
+        <v>5.493333333333336</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.4255</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,22 +5345,21 @@
         <v>585</v>
       </c>
       <c r="G124" t="n">
+        <v>5.484000000000003</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.425166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K124" t="n">
-        <v>5.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,26 +5383,21 @@
         <v>12</v>
       </c>
       <c r="G125" t="n">
+        <v>5.474666666666669</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.426166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K125" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,26 +5421,21 @@
         <v>63243.21</v>
       </c>
       <c r="G126" t="n">
+        <v>5.472666666666669</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.427166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,24 +5459,21 @@
         <v>180</v>
       </c>
       <c r="G127" t="n">
+        <v>5.464000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.4265</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,24 +5497,21 @@
         <v>122</v>
       </c>
       <c r="G128" t="n">
+        <v>5.460666666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.428666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,24 +5535,21 @@
         <v>3500</v>
       </c>
       <c r="G129" t="n">
+        <v>5.450666666666668</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.427999999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,24 +5573,21 @@
         <v>333</v>
       </c>
       <c r="G130" t="n">
+        <v>5.448000000000002</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.429999999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5007,24 +5611,21 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
+        <v>5.447333333333336</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.431666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,24 +5649,21 @@
         <v>218175.843</v>
       </c>
       <c r="G132" t="n">
+        <v>5.442666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.433333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,24 +5687,21 @@
         <v>238175.8431</v>
       </c>
       <c r="G133" t="n">
+        <v>5.438000000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.434666666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,24 +5725,21 @@
         <v>3863.6531</v>
       </c>
       <c r="G134" t="n">
+        <v>5.430666666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.435333333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,24 +5763,21 @@
         <v>60381.4724</v>
       </c>
       <c r="G135" t="n">
+        <v>5.422000000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.435499999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,24 +5801,21 @@
         <v>260155.0889</v>
       </c>
       <c r="G136" t="n">
+        <v>5.412000000000002</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.434999999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,24 +5839,21 @@
         <v>22</v>
       </c>
       <c r="G137" t="n">
+        <v>5.418666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.436499999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,24 +5877,21 @@
         <v>12964.2066</v>
       </c>
       <c r="G138" t="n">
+        <v>5.422000000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.437166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5335,24 +5915,21 @@
         <v>300</v>
       </c>
       <c r="G139" t="n">
+        <v>5.426666666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.437499999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,24 +5953,21 @@
         <v>190036.4117</v>
       </c>
       <c r="G140" t="n">
+        <v>5.428666666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.437833333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,24 +5991,21 @@
         <v>56.5528</v>
       </c>
       <c r="G141" t="n">
+        <v>5.412000000000002</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.435333333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,24 +6029,21 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
+        <v>5.412000000000002</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.434833333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,26 +6067,21 @@
         <v>9462.269</v>
       </c>
       <c r="G143" t="n">
+        <v>5.406000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.434499999999998</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,24 +6105,401 @@
         <v>18552.8756</v>
       </c>
       <c r="G144" t="n">
+        <v>5.406666666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.433666666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F145" t="n">
+        <v>285315.9292442593</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.401333333333335</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5.433499999999997</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>18620.5608</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.395333333333335</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5.433333333333331</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14373.5882</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.391333333333336</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5.43283333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25213.287</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.387333333333336</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5.432666666666663</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18909.9537</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.386000000000004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5.432666666666663</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15055.6489</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.37866666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5.430499999999995</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.38266666666667</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5.431166666666661</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14980.849</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.372000000000003</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5.429666666666662</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F153" t="n">
+        <v>95795.141</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.365333333333338</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5.428166666666661</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.36466666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5.427999999999995</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="C2" t="n">
-        <v>5.28</v>
+        <v>5.34</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="E2" t="n">
-        <v>5.28</v>
+        <v>5.34</v>
       </c>
       <c r="F2" t="n">
-        <v>235744.2922</v>
+        <v>485161.0849</v>
       </c>
       <c r="G2" t="n">
-        <v>-102853.8801382729</v>
+        <v>1913350.511053545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.3</v>
+        <v>5.39</v>
       </c>
       <c r="C3" t="n">
-        <v>5.3</v>
+        <v>5.39</v>
       </c>
       <c r="D3" t="n">
-        <v>5.3</v>
+        <v>5.39</v>
       </c>
       <c r="E3" t="n">
-        <v>5.3</v>
+        <v>5.39</v>
       </c>
       <c r="F3" t="n">
-        <v>19370.5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-83483.38013827291</v>
+        <v>1913360.511053545</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.26</v>
+        <v>5.39</v>
       </c>
       <c r="C4" t="n">
-        <v>5.44</v>
+        <v>5.4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.44</v>
+        <v>5.4</v>
       </c>
       <c r="E4" t="n">
-        <v>5.26</v>
+        <v>5.39</v>
       </c>
       <c r="F4" t="n">
-        <v>2010</v>
+        <v>104130.0444</v>
       </c>
       <c r="G4" t="n">
-        <v>-81473.38013827291</v>
+        <v>2017490.555453545</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.34</v>
+        <v>5.47</v>
       </c>
       <c r="C5" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="D5" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="E5" t="n">
-        <v>5.33</v>
+        <v>5.47</v>
       </c>
       <c r="F5" t="n">
-        <v>66269.5971</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-81473.38013827291</v>
+        <v>2017500.555453545</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="C6" t="n">
         <v>5.47</v>
@@ -591,13 +591,13 @@
         <v>5.47</v>
       </c>
       <c r="E6" t="n">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="F6" t="n">
-        <v>3050</v>
+        <v>4475.319926873857</v>
       </c>
       <c r="G6" t="n">
-        <v>-78423.38013827291</v>
+        <v>2017500.555453545</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
       <c r="C7" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
       <c r="D7" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
       <c r="E7" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
       <c r="F7" t="n">
-        <v>810</v>
+        <v>27537</v>
       </c>
       <c r="G7" t="n">
-        <v>-78423.38013827291</v>
+        <v>1989963.555453545</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.47</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.51</v>
-      </c>
       <c r="D8" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="E8" t="n">
-        <v>5.47</v>
+        <v>5.41</v>
       </c>
       <c r="F8" t="n">
-        <v>25636.363</v>
+        <v>608393.3763</v>
       </c>
       <c r="G8" t="n">
-        <v>-52787.01713827292</v>
+        <v>2598356.931753546</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C9" t="n">
         <v>5.51</v>
@@ -699,13 +699,13 @@
         <v>5.51</v>
       </c>
       <c r="E9" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>50755.6450036563</v>
       </c>
       <c r="G9" t="n">
-        <v>-52787.01713827292</v>
+        <v>2649112.576757202</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C10" t="n">
-        <v>5.46</v>
+        <v>5.52</v>
       </c>
       <c r="D10" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="E10" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="F10" t="n">
-        <v>5037.274</v>
+        <v>178393.9754</v>
       </c>
       <c r="G10" t="n">
-        <v>-57824.29113827291</v>
+        <v>2827506.552157202</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.45</v>
+        <v>5.52</v>
       </c>
       <c r="C11" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D11" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="E11" t="n">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="F11" t="n">
-        <v>2010</v>
+        <v>110893.1159</v>
       </c>
       <c r="G11" t="n">
-        <v>-55814.29113827291</v>
+        <v>2827506.552157202</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="C12" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D12" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="E12" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="F12" t="n">
-        <v>310</v>
+        <v>778.9854</v>
       </c>
       <c r="G12" t="n">
-        <v>-55814.29113827291</v>
+        <v>2827506.552157202</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="C13" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="D13" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="F13" t="n">
-        <v>1047.2363</v>
+        <v>1968.2971</v>
       </c>
       <c r="G13" t="n">
-        <v>-56861.52743827291</v>
+        <v>2827506.552157202</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="C14" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="D14" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="E14" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="F14" t="n">
-        <v>804.8907</v>
+        <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>-57666.41813827291</v>
+        <v>2827306.552157202</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.49</v>
+        <v>5.44</v>
       </c>
       <c r="C15" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D15" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E15" t="n">
-        <v>5.49</v>
+        <v>5.44</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>112459.6736</v>
       </c>
       <c r="G15" t="n">
-        <v>-57666.41813827291</v>
+        <v>2714846.878557202</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C16" t="n">
-        <v>5.45</v>
+        <v>5.55</v>
       </c>
       <c r="D16" t="n">
-        <v>5.45</v>
+        <v>5.55</v>
       </c>
       <c r="E16" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F16" t="n">
-        <v>221824.794</v>
+        <v>768605.39166</v>
       </c>
       <c r="G16" t="n">
-        <v>-279491.2121382729</v>
+        <v>3483452.270217202</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.4</v>
+        <v>5.53</v>
       </c>
       <c r="C17" t="n">
-        <v>5.4</v>
+        <v>5.53</v>
       </c>
       <c r="D17" t="n">
-        <v>5.4</v>
+        <v>5.53</v>
       </c>
       <c r="E17" t="n">
-        <v>5.4</v>
+        <v>5.53</v>
       </c>
       <c r="F17" t="n">
-        <v>214152.0728</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-493643.2849382729</v>
+        <v>3483442.270217202</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D18" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="F18" t="n">
-        <v>5973.9168</v>
+        <v>168808.0647</v>
       </c>
       <c r="G18" t="n">
-        <v>-487669.3681382729</v>
+        <v>3314634.205517202</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="C19" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="D19" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="E19" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="F19" t="n">
-        <v>215.7103</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>-487453.6578382729</v>
+        <v>3314645.205517202</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>5.49</v>
       </c>
       <c r="C20" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="D20" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="E20" t="n">
         <v>5.49</v>
       </c>
       <c r="F20" t="n">
-        <v>7000</v>
+        <v>1882.847</v>
       </c>
       <c r="G20" t="n">
-        <v>-480453.6578382729</v>
+        <v>3314645.205517202</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C21" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="D21" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="E21" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3332</v>
+        <v>221270.1538</v>
       </c>
       <c r="G21" t="n">
-        <v>-480453.6578382729</v>
+        <v>3314645.205517202</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="C22" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="D22" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="E22" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="F22" t="n">
-        <v>44.4444</v>
+        <v>369.2028985507246</v>
       </c>
       <c r="G22" t="n">
-        <v>-480453.6578382729</v>
+        <v>3314645.205517202</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C23" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D23" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E23" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F23" t="n">
-        <v>794.332</v>
+        <v>5184.3554</v>
       </c>
       <c r="G23" t="n">
-        <v>-480453.6578382729</v>
+        <v>3309460.850117202</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C24" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="D24" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="E24" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="F24" t="n">
-        <v>247.1684</v>
+        <v>369.2028</v>
       </c>
       <c r="G24" t="n">
-        <v>-480700.8262382729</v>
+        <v>3309460.850117202</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C25" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="D25" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="E25" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>183.3639</v>
       </c>
       <c r="G25" t="n">
-        <v>-480700.8262382729</v>
+        <v>3309460.850117202</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1305,25 +1305,25 @@
         <v>5.48</v>
       </c>
       <c r="C26" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D26" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E26" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="F26" t="n">
-        <v>222</v>
+        <v>164740.671</v>
       </c>
       <c r="G26" t="n">
-        <v>-480922.8262382729</v>
+        <v>3474201.521117202</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="C27" t="n">
         <v>5.48</v>
@@ -1347,19 +1347,19 @@
         <v>5.48</v>
       </c>
       <c r="E27" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="F27" t="n">
-        <v>64129.1907</v>
+        <v>547.4452554744526</v>
       </c>
       <c r="G27" t="n">
-        <v>-416793.635538273</v>
+        <v>3473654.075861727</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="C28" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D28" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E28" t="n">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="F28" t="n">
-        <v>33107.909</v>
+        <v>228393.8467</v>
       </c>
       <c r="G28" t="n">
-        <v>-383685.726538273</v>
+        <v>3473654.075861727</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="C29" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="D29" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="E29" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
       <c r="F29" t="n">
-        <v>40135.0909</v>
+        <v>40156.5634</v>
       </c>
       <c r="G29" t="n">
-        <v>-383685.726538273</v>
+        <v>3433497.512461727</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.5</v>
+        <v>5.46</v>
       </c>
       <c r="C30" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="D30" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="E30" t="n">
-        <v>5.43</v>
+        <v>5.46</v>
       </c>
       <c r="F30" t="n">
-        <v>75071.06269999999</v>
+        <v>2011</v>
       </c>
       <c r="G30" t="n">
-        <v>-458756.789238273</v>
+        <v>3435508.512461727</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C31" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="D31" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E31" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="F31" t="n">
-        <v>30866.7814</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>-489623.570638273</v>
+        <v>3435519.512461727</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="C32" t="n">
-        <v>5.48</v>
+        <v>5.42</v>
       </c>
       <c r="D32" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="E32" t="n">
-        <v>5.48</v>
+        <v>5.42</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>550808.8535</v>
       </c>
       <c r="G32" t="n">
-        <v>-489613.570638273</v>
+        <v>2884710.658961727</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C33" t="n">
-        <v>5.32</v>
+        <v>5.42</v>
       </c>
       <c r="D33" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E33" t="n">
-        <v>5.32</v>
+        <v>5.42</v>
       </c>
       <c r="F33" t="n">
-        <v>65738.33319999999</v>
+        <v>111</v>
       </c>
       <c r="G33" t="n">
-        <v>-555351.9038382729</v>
+        <v>2884710.658961727</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="C34" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="D34" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="E34" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="G34" t="n">
-        <v>-555341.9038382729</v>
+        <v>2884710.658961727</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="C35" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D35" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="E35" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="F35" t="n">
-        <v>54400</v>
+        <v>44067.1955</v>
       </c>
       <c r="G35" t="n">
-        <v>-609741.9038382729</v>
+        <v>2928777.854461727</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C36" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="D36" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="E36" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>-609731.9038382729</v>
+        <v>2928777.854461727</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="C37" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D37" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="E37" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="F37" t="n">
-        <v>15294.4954</v>
+        <v>8324.817499999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-625026.3992382729</v>
+        <v>2928777.854461727</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="C38" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D38" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="E38" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="F38" t="n">
-        <v>40853.5578</v>
+        <v>5769.8597</v>
       </c>
       <c r="G38" t="n">
-        <v>-625026.3992382729</v>
+        <v>2928777.854461727</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.47</v>
+        <v>5.39</v>
       </c>
       <c r="C39" t="n">
-        <v>5.47</v>
+        <v>5.39</v>
       </c>
       <c r="D39" t="n">
-        <v>5.47</v>
+        <v>5.39</v>
       </c>
       <c r="E39" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
       <c r="F39" t="n">
-        <v>204666.5677</v>
+        <v>1099.9088</v>
       </c>
       <c r="G39" t="n">
-        <v>-420359.8315382729</v>
+        <v>2927677.945661727</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="C40" t="n">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="D40" t="n">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="E40" t="n">
-        <v>5.47</v>
+        <v>5.46</v>
       </c>
       <c r="F40" t="n">
-        <v>152625.1391</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>-267734.6924382729</v>
+        <v>2927688.945661727</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="C41" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="D41" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="E41" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="F41" t="n">
-        <v>8793.172699999999</v>
+        <v>7047.2596</v>
       </c>
       <c r="G41" t="n">
-        <v>-258941.5197382729</v>
+        <v>2920641.686061727</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="C42" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="D42" t="n">
-        <v>5.5</v>
+        <v>5.39</v>
       </c>
       <c r="E42" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="F42" t="n">
-        <v>45833.1455</v>
+        <v>12089.8236</v>
       </c>
       <c r="G42" t="n">
-        <v>-258941.5197382729</v>
+        <v>2920641.686061727</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="C43" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="D43" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="E43" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="F43" t="n">
-        <v>8488.725</v>
+        <v>862.9168</v>
       </c>
       <c r="G43" t="n">
-        <v>-267430.2447382729</v>
+        <v>2920641.686061727</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
       <c r="C44" t="n">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
       <c r="D44" t="n">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
       <c r="E44" t="n">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
       <c r="F44" t="n">
-        <v>256.0291</v>
+        <v>5672.7047</v>
       </c>
       <c r="G44" t="n">
-        <v>-267174.2156382729</v>
+        <v>2920641.686061727</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="C45" t="n">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="D45" t="n">
-        <v>5.41</v>
+        <v>5.35</v>
       </c>
       <c r="E45" t="n">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="F45" t="n">
-        <v>109967.1608</v>
+        <v>185231.119</v>
       </c>
       <c r="G45" t="n">
-        <v>-377141.3764382729</v>
+        <v>2735410.567061727</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="C46" t="n">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="D46" t="n">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="E46" t="n">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="F46" t="n">
-        <v>243.677</v>
+        <v>373.1725</v>
       </c>
       <c r="G46" t="n">
-        <v>-376897.6994382729</v>
+        <v>2735783.739561727</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="C47" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="D47" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="E47" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="F47" t="n">
-        <v>14380.0145</v>
+        <v>85120.5016</v>
       </c>
       <c r="G47" t="n">
-        <v>-391277.7139382728</v>
+        <v>2650663.237961727</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="C48" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="D48" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E48" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="F48" t="n">
-        <v>171877.2363</v>
+        <v>351.2591</v>
       </c>
       <c r="G48" t="n">
-        <v>-391277.7139382728</v>
+        <v>2651014.497061727</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="C49" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="D49" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="E49" t="n">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="F49" t="n">
-        <v>88200.29399999999</v>
+        <v>551.4705</v>
       </c>
       <c r="G49" t="n">
-        <v>-391277.7139382728</v>
+        <v>2651014.497061727</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="C50" t="n">
-        <v>5.42</v>
+        <v>5.37</v>
       </c>
       <c r="D50" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="E50" t="n">
-        <v>5.42</v>
+        <v>5.37</v>
       </c>
       <c r="F50" t="n">
-        <v>234.0498</v>
+        <v>590260.0490999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-391043.6641382729</v>
+        <v>2060754.447961727</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="C51" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="D51" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="E51" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="F51" t="n">
-        <v>85.50579999999999</v>
+        <v>333.6948</v>
       </c>
       <c r="G51" t="n">
-        <v>-391129.1699382729</v>
+        <v>2061088.142761727</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="C52" t="n">
-        <v>5.31</v>
+        <v>5.44</v>
       </c>
       <c r="D52" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E52" t="n">
-        <v>5.31</v>
+        <v>5.44</v>
       </c>
       <c r="F52" t="n">
-        <v>808522.2621000001</v>
+        <v>1315.2573</v>
       </c>
       <c r="G52" t="n">
-        <v>-1199651.432038273</v>
+        <v>2061088.142761727</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.42</v>
+        <v>5.37</v>
       </c>
       <c r="C53" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="D53" t="n">
-        <v>5.42</v>
+        <v>5.37</v>
       </c>
       <c r="E53" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>356882.0766</v>
       </c>
       <c r="G53" t="n">
-        <v>-1199641.432038273</v>
+        <v>1704206.066161727</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="C54" t="n">
-        <v>5.42</v>
+        <v>5.33</v>
       </c>
       <c r="D54" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="E54" t="n">
-        <v>5.42</v>
+        <v>5.33</v>
       </c>
       <c r="F54" t="n">
-        <v>92.2509</v>
+        <v>453966.729</v>
       </c>
       <c r="G54" t="n">
-        <v>-1199641.432038273</v>
+        <v>1250239.337161727</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="C55" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="D55" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="E55" t="n">
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="F55" t="n">
-        <v>92.0202</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-1199733.452238273</v>
+        <v>1250249.337161727</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="C56" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="D56" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="E56" t="n">
-        <v>5.42</v>
+        <v>5.29</v>
       </c>
       <c r="F56" t="n">
-        <v>482.4723</v>
+        <v>51433.08</v>
       </c>
       <c r="G56" t="n">
-        <v>-1199250.979938273</v>
+        <v>1301682.417161727</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="C57" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="D57" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="E57" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="F57" t="n">
-        <v>108221.9709</v>
+        <v>286.875</v>
       </c>
       <c r="G57" t="n">
-        <v>-1307472.950838273</v>
+        <v>1301395.542161727</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="C58" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="D58" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="E58" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="F58" t="n">
-        <v>2352.4832</v>
+        <v>35189.5</v>
       </c>
       <c r="G58" t="n">
-        <v>-1305120.467638273</v>
+        <v>1301395.542161727</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C59" t="n">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="D59" t="n">
-        <v>5.36</v>
+        <v>5.43</v>
       </c>
       <c r="E59" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="F59" t="n">
-        <v>40772.7217</v>
+        <v>520</v>
       </c>
       <c r="G59" t="n">
-        <v>-1345893.189338273</v>
+        <v>1300875.542161727</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="C60" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="D60" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="E60" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>84.57810000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-1345882.189338273</v>
+        <v>1300960.120261727</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="C61" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="D61" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="E61" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>305.283</v>
       </c>
       <c r="G61" t="n">
-        <v>-1345882.189338273</v>
+        <v>1300960.120261727</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="C62" t="n">
         <v>5.38</v>
       </c>
       <c r="D62" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="E62" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="F62" t="n">
-        <v>7806.6914</v>
+        <v>415799.674</v>
       </c>
       <c r="G62" t="n">
-        <v>-1345882.189338273</v>
+        <v>885160.4462617271</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.36</v>
+        <v>5.33</v>
       </c>
       <c r="C63" t="n">
-        <v>5.36</v>
+        <v>5.2</v>
       </c>
       <c r="D63" t="n">
-        <v>5.36</v>
+        <v>5.33</v>
       </c>
       <c r="E63" t="n">
-        <v>5.36</v>
+        <v>5.2</v>
       </c>
       <c r="F63" t="n">
-        <v>34689.2373</v>
+        <v>1146525.9672</v>
       </c>
       <c r="G63" t="n">
-        <v>-1380571.426638273</v>
+        <v>-261365.5209382729</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>5.38</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-1380560.426638273</v>
+        <v>-261355.5209382729</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>5.38</v>
       </c>
       <c r="E65" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F65" t="n">
-        <v>93</v>
+        <v>3425.4832</v>
       </c>
       <c r="G65" t="n">
-        <v>-1380560.426638273</v>
+        <v>-261355.5209382729</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="C66" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="D66" t="n">
         <v>5.38</v>
       </c>
       <c r="E66" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>315668.8661</v>
       </c>
       <c r="G66" t="n">
-        <v>-1380560.426638273</v>
+        <v>-577024.3870382729</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="C67" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="D67" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="E67" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>193021.951</v>
       </c>
       <c r="G67" t="n">
-        <v>-1380560.426638273</v>
+        <v>-384002.4360382729</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,38 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.36</v>
+        <v>5.32</v>
       </c>
       <c r="C68" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="D68" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="E68" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="F68" t="n">
-        <v>34700.2373</v>
+        <v>428351.5333</v>
       </c>
       <c r="G68" t="n">
-        <v>-1380560.426638273</v>
+        <v>-384002.4360382729</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2859,19 +2853,19 @@
         <v>5.38</v>
       </c>
       <c r="C69" t="n">
-        <v>5.41</v>
+        <v>5.32</v>
       </c>
       <c r="D69" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="E69" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="F69" t="n">
-        <v>465497.5636</v>
+        <v>58673.7304</v>
       </c>
       <c r="G69" t="n">
-        <v>-915062.8630382731</v>
+        <v>-325328.7056382729</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2881,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2896,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.41</v>
+        <v>5.19</v>
       </c>
       <c r="C70" t="n">
-        <v>5.41</v>
+        <v>5.19</v>
       </c>
       <c r="D70" t="n">
-        <v>5.41</v>
+        <v>5.19</v>
       </c>
       <c r="E70" t="n">
-        <v>5.41</v>
+        <v>5.19</v>
       </c>
       <c r="F70" t="n">
-        <v>31819.211</v>
+        <v>13279.4667</v>
       </c>
       <c r="G70" t="n">
-        <v>-915062.8630382731</v>
+        <v>-338608.1723382729</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2921,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2939,19 +2925,19 @@
         <v>5.37</v>
       </c>
       <c r="C71" t="n">
-        <v>5.44</v>
+        <v>5.3</v>
       </c>
       <c r="D71" t="n">
-        <v>5.44</v>
+        <v>5.37</v>
       </c>
       <c r="E71" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="F71" t="n">
-        <v>27605.4571</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>-887457.4059382731</v>
+        <v>-338588.1723382729</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2961,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2976,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.41</v>
+        <v>5.27</v>
       </c>
       <c r="C72" t="n">
-        <v>5.41</v>
+        <v>5.27</v>
       </c>
       <c r="D72" t="n">
-        <v>5.41</v>
+        <v>5.27</v>
       </c>
       <c r="E72" t="n">
-        <v>5.41</v>
+        <v>5.27</v>
       </c>
       <c r="F72" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-887492.4059382731</v>
+        <v>-338598.1723382729</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3001,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3016,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C73" t="n">
-        <v>5.4</v>
+        <v>5.28</v>
       </c>
       <c r="D73" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E73" t="n">
-        <v>5.4</v>
+        <v>5.28</v>
       </c>
       <c r="F73" t="n">
-        <v>1502.9574</v>
+        <v>235744.2922</v>
       </c>
       <c r="G73" t="n">
-        <v>-888995.363338273</v>
+        <v>-102853.8801382729</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3041,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3056,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.41</v>
+        <v>5.3</v>
       </c>
       <c r="C74" t="n">
-        <v>5.43</v>
+        <v>5.3</v>
       </c>
       <c r="D74" t="n">
-        <v>5.43</v>
+        <v>5.3</v>
       </c>
       <c r="E74" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="F74" t="n">
-        <v>73542.039</v>
+        <v>19370.5</v>
       </c>
       <c r="G74" t="n">
-        <v>-815453.324338273</v>
+        <v>-83483.38013827291</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3081,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.41</v>
+        <v>5.26</v>
       </c>
       <c r="C75" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="D75" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="E75" t="n">
-        <v>5.41</v>
+        <v>5.26</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>2010</v>
       </c>
       <c r="G75" t="n">
-        <v>-815464.324338273</v>
+        <v>-81473.38013827291</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3121,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.4</v>
+        <v>5.34</v>
       </c>
       <c r="C76" t="n">
-        <v>5.4</v>
+        <v>5.44</v>
       </c>
       <c r="D76" t="n">
-        <v>5.4</v>
+        <v>5.44</v>
       </c>
       <c r="E76" t="n">
-        <v>5.4</v>
+        <v>5.33</v>
       </c>
       <c r="F76" t="n">
-        <v>18810.75</v>
+        <v>66269.5971</v>
       </c>
       <c r="G76" t="n">
-        <v>-834275.074338273</v>
+        <v>-81473.38013827291</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3161,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="C77" t="n">
-        <v>5.41</v>
+        <v>5.47</v>
       </c>
       <c r="D77" t="n">
-        <v>5.41</v>
+        <v>5.47</v>
       </c>
       <c r="E77" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>3050</v>
       </c>
       <c r="G77" t="n">
-        <v>-834265.074338273</v>
+        <v>-78423.38013827291</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3201,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="C78" t="n">
-        <v>5.35</v>
+        <v>5.47</v>
       </c>
       <c r="D78" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="E78" t="n">
-        <v>5.35</v>
+        <v>5.47</v>
       </c>
       <c r="F78" t="n">
-        <v>13662.8497</v>
+        <v>810</v>
       </c>
       <c r="G78" t="n">
-        <v>-847927.924038273</v>
+        <v>-78423.38013827291</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3241,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.4</v>
+        <v>5.47</v>
       </c>
       <c r="C79" t="n">
-        <v>5.4</v>
+        <v>5.51</v>
       </c>
       <c r="D79" t="n">
-        <v>5.4</v>
+        <v>5.51</v>
       </c>
       <c r="E79" t="n">
-        <v>5.4</v>
+        <v>5.47</v>
       </c>
       <c r="F79" t="n">
-        <v>11838.6111</v>
+        <v>25636.363</v>
       </c>
       <c r="G79" t="n">
-        <v>-836089.3129382731</v>
+        <v>-52787.01713827292</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3281,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.35</v>
+        <v>5.51</v>
       </c>
       <c r="C80" t="n">
-        <v>5.41</v>
+        <v>5.51</v>
       </c>
       <c r="D80" t="n">
-        <v>5.41</v>
+        <v>5.51</v>
       </c>
       <c r="E80" t="n">
-        <v>5.35</v>
+        <v>5.51</v>
       </c>
       <c r="F80" t="n">
-        <v>4017.4822</v>
+        <v>12000</v>
       </c>
       <c r="G80" t="n">
-        <v>-832071.8307382731</v>
+        <v>-52787.01713827292</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3321,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3336,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C81" t="n">
-        <v>5.4</v>
+        <v>5.46</v>
       </c>
       <c r="D81" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E81" t="n">
-        <v>5.4</v>
+        <v>5.46</v>
       </c>
       <c r="F81" t="n">
-        <v>1566.7685</v>
+        <v>5037.274</v>
       </c>
       <c r="G81" t="n">
-        <v>-833638.5992382731</v>
+        <v>-57824.29113827291</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3361,11 +3307,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3376,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="C82" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E82" t="n">
         <v>5.41</v>
       </c>
-      <c r="D82" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5.4</v>
-      </c>
       <c r="F82" t="n">
-        <v>683.9186</v>
+        <v>2010</v>
       </c>
       <c r="G82" t="n">
-        <v>-832954.6806382731</v>
+        <v>-55814.29113827291</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3401,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="C83" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="D83" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="E83" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="F83" t="n">
-        <v>78039.29580000001</v>
+        <v>310</v>
       </c>
       <c r="G83" t="n">
-        <v>-754915.3848382732</v>
+        <v>-55814.29113827291</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3441,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3456,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C84" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D84" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E84" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>1047.2363</v>
       </c>
       <c r="G84" t="n">
-        <v>-754893.3848382732</v>
+        <v>-56861.52743827291</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3481,11 +3415,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.46</v>
+        <v>5.49</v>
       </c>
       <c r="C85" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D85" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="E85" t="n">
-        <v>5.4</v>
+        <v>5.49</v>
       </c>
       <c r="F85" t="n">
-        <v>19525.8935</v>
+        <v>804.8907</v>
       </c>
       <c r="G85" t="n">
-        <v>-774419.2783382732</v>
+        <v>-57666.41813827291</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3521,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="C86" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="D86" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E86" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="F86" t="n">
-        <v>17484.5978</v>
+        <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-756934.6805382732</v>
+        <v>-57666.41813827291</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3561,11 +3487,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3588,10 +3510,10 @@
         <v>5.45</v>
       </c>
       <c r="F87" t="n">
-        <v>4191.376146788991</v>
+        <v>221824.794</v>
       </c>
       <c r="G87" t="n">
-        <v>-761126.0566850621</v>
+        <v>-279491.2121382729</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3601,11 +3523,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3616,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="C88" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="D88" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="E88" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="F88" t="n">
-        <v>5440.6603</v>
+        <v>214152.0728</v>
       </c>
       <c r="G88" t="n">
-        <v>-766566.7169850621</v>
+        <v>-493643.2849382729</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3641,11 +3559,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3656,38 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="C89" t="n">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="D89" t="n">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="E89" t="n">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>5973.9168</v>
       </c>
       <c r="G89" t="n">
-        <v>-766555.7169850621</v>
+        <v>-487669.3681382729</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5.34</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3698,38 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.38</v>
+        <v>5.49</v>
       </c>
       <c r="C90" t="n">
-        <v>5.43</v>
+        <v>5.49</v>
       </c>
       <c r="D90" t="n">
-        <v>5.43</v>
+        <v>5.49</v>
       </c>
       <c r="E90" t="n">
-        <v>5.37</v>
+        <v>5.49</v>
       </c>
       <c r="F90" t="n">
-        <v>64911</v>
+        <v>215.7103</v>
       </c>
       <c r="G90" t="n">
-        <v>-766555.7169850621</v>
+        <v>-487453.6578382729</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5.43</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3740,38 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="C91" t="n">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="D91" t="n">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="E91" t="n">
-        <v>5.35</v>
+        <v>5.49</v>
       </c>
       <c r="F91" t="n">
-        <v>631.7499</v>
+        <v>7000</v>
       </c>
       <c r="G91" t="n">
-        <v>-767187.4668850622</v>
+        <v>-480453.6578382729</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5.43</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3782,38 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="C92" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="D92" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="E92" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>133.3332</v>
       </c>
       <c r="G92" t="n">
-        <v>-767176.4668850622</v>
+        <v>-480453.6578382729</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3824,38 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="C93" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="D93" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="E93" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="F93" t="n">
-        <v>702</v>
+        <v>44.4444</v>
       </c>
       <c r="G93" t="n">
-        <v>-767176.4668850622</v>
+        <v>-480453.6578382729</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.43</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3866,38 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="C94" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="D94" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="E94" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="F94" t="n">
-        <v>73823.2887</v>
+        <v>794.332</v>
       </c>
       <c r="G94" t="n">
-        <v>-693353.1781850621</v>
+        <v>-480453.6578382729</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.43</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3908,38 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C95" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D95" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="E95" t="n">
-        <v>5.44</v>
+        <v>5.49</v>
       </c>
       <c r="F95" t="n">
-        <v>497442.535353211</v>
+        <v>247.1684</v>
       </c>
       <c r="G95" t="n">
-        <v>-195910.6428318511</v>
+        <v>-480700.8262382729</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3950,38 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="C96" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D96" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="E96" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="F96" t="n">
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>-195910.6428318511</v>
+        <v>-480700.8262382729</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>5.47</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3992,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C97" t="n">
         <v>5.47</v>
       </c>
-      <c r="C97" t="n">
-        <v>5.51</v>
-      </c>
       <c r="D97" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="E97" t="n">
         <v>5.47</v>
       </c>
       <c r="F97" t="n">
-        <v>404825.5061</v>
+        <v>222</v>
       </c>
       <c r="G97" t="n">
-        <v>208914.8632681489</v>
+        <v>-480922.8262382729</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5.47</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4034,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C98" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="D98" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="E98" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F98" t="n">
-        <v>33</v>
+        <v>64129.1907</v>
       </c>
       <c r="G98" t="n">
-        <v>208914.8632681489</v>
+        <v>-416793.635538273</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4059,11 +3919,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C99" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="D99" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="E99" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F99" t="n">
-        <v>55</v>
+        <v>33107.909</v>
       </c>
       <c r="G99" t="n">
-        <v>208914.8632681489</v>
+        <v>-383685.726538273</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4099,11 +3955,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4117,34 +3969,32 @@
         <v>5.5</v>
       </c>
       <c r="C100" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="D100" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="E100" t="n">
         <v>5.5</v>
       </c>
       <c r="F100" t="n">
-        <v>631189.1128999999</v>
+        <v>40135.0909</v>
       </c>
       <c r="G100" t="n">
-        <v>840103.9761681488</v>
+        <v>-383685.726538273</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
       <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4152,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C101" t="n">
-        <v>5.53</v>
+        <v>5.43</v>
       </c>
       <c r="D101" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="E101" t="n">
-        <v>5.53</v>
+        <v>5.43</v>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>75071.06269999999</v>
       </c>
       <c r="G101" t="n">
-        <v>840103.9761681488</v>
+        <v>-458756.789238273</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4188,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.52</v>
+        <v>5.38</v>
       </c>
       <c r="C102" t="n">
-        <v>5.52</v>
+        <v>5.37</v>
       </c>
       <c r="D102" t="n">
-        <v>5.52</v>
+        <v>5.38</v>
       </c>
       <c r="E102" t="n">
-        <v>5.52</v>
+        <v>5.37</v>
       </c>
       <c r="F102" t="n">
-        <v>143776.825</v>
+        <v>30866.7814</v>
       </c>
       <c r="G102" t="n">
-        <v>696327.1511681487</v>
+        <v>-489623.570638273</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4224,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.52</v>
+        <v>5.48</v>
       </c>
       <c r="C103" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="D103" t="n">
-        <v>5.52</v>
+        <v>5.48</v>
       </c>
       <c r="E103" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="F103" t="n">
-        <v>685521.6363</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>10805.51486814872</v>
+        <v>-489613.570638273</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4260,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.53</v>
+        <v>5.35</v>
       </c>
       <c r="C104" t="n">
-        <v>5.53</v>
+        <v>5.32</v>
       </c>
       <c r="D104" t="n">
-        <v>5.53</v>
+        <v>5.35</v>
       </c>
       <c r="E104" t="n">
-        <v>5.53</v>
+        <v>5.32</v>
       </c>
       <c r="F104" t="n">
-        <v>22</v>
+        <v>65738.33319999999</v>
       </c>
       <c r="G104" t="n">
-        <v>10827.51486814872</v>
+        <v>-555351.9038382729</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4296,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="C105" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="D105" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="E105" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="F105" t="n">
-        <v>117969.2585</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>10827.51486814872</v>
+        <v>-555341.9038382729</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4332,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="C106" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="D106" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="E106" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="F106" t="n">
-        <v>18000</v>
+        <v>54400</v>
       </c>
       <c r="G106" t="n">
-        <v>10827.51486814872</v>
+        <v>-609741.9038382729</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4368,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="C107" t="n">
-        <v>5.52</v>
+        <v>5.49</v>
       </c>
       <c r="D107" t="n">
-        <v>5.52</v>
+        <v>5.49</v>
       </c>
       <c r="E107" t="n">
-        <v>5.43</v>
+        <v>5.49</v>
       </c>
       <c r="F107" t="n">
-        <v>56094.129</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-45266.61413185128</v>
+        <v>-609731.9038382729</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4404,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.3</v>
+        <v>5.45</v>
       </c>
       <c r="C108" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="D108" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="E108" t="n">
-        <v>5.3</v>
+        <v>5.45</v>
       </c>
       <c r="F108" t="n">
-        <v>63447.2247</v>
+        <v>15294.4954</v>
       </c>
       <c r="G108" t="n">
-        <v>-108713.8388318513</v>
+        <v>-625026.3992382729</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4440,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.37</v>
+        <v>5.44</v>
       </c>
       <c r="C109" t="n">
-        <v>5.37</v>
+        <v>5.45</v>
       </c>
       <c r="D109" t="n">
-        <v>5.37</v>
+        <v>5.45</v>
       </c>
       <c r="E109" t="n">
-        <v>5.37</v>
+        <v>5.44</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>40853.5578</v>
       </c>
       <c r="G109" t="n">
-        <v>-108913.8388318513</v>
+        <v>-625026.3992382729</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4476,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.37</v>
+        <v>5.47</v>
       </c>
       <c r="C110" t="n">
-        <v>5.37</v>
+        <v>5.47</v>
       </c>
       <c r="D110" t="n">
-        <v>5.37</v>
+        <v>5.47</v>
       </c>
       <c r="E110" t="n">
-        <v>5.37</v>
+        <v>5.46</v>
       </c>
       <c r="F110" t="n">
-        <v>588.2681</v>
+        <v>204666.5677</v>
       </c>
       <c r="G110" t="n">
-        <v>-108913.8388318513</v>
+        <v>-420359.8315382729</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4512,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.33</v>
+        <v>5.48</v>
       </c>
       <c r="C111" t="n">
-        <v>5.33</v>
+        <v>5.48</v>
       </c>
       <c r="D111" t="n">
-        <v>5.33</v>
+        <v>5.48</v>
       </c>
       <c r="E111" t="n">
-        <v>5.33</v>
+        <v>5.47</v>
       </c>
       <c r="F111" t="n">
-        <v>585</v>
+        <v>152625.1391</v>
       </c>
       <c r="G111" t="n">
-        <v>-109498.8388318513</v>
+        <v>-267734.6924382729</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4548,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.37</v>
+        <v>5.5</v>
       </c>
       <c r="C112" t="n">
-        <v>5.37</v>
+        <v>5.5</v>
       </c>
       <c r="D112" t="n">
-        <v>5.37</v>
+        <v>5.5</v>
       </c>
       <c r="E112" t="n">
-        <v>5.37</v>
+        <v>5.5</v>
       </c>
       <c r="F112" t="n">
-        <v>12</v>
+        <v>8793.172699999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-109486.8388318513</v>
+        <v>-258941.5197382729</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4584,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.37</v>
+        <v>5.44</v>
       </c>
       <c r="C113" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D113" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E113" t="n">
-        <v>5.37</v>
+        <v>5.44</v>
       </c>
       <c r="F113" t="n">
-        <v>63243.21</v>
+        <v>45833.1455</v>
       </c>
       <c r="G113" t="n">
-        <v>-46243.62883185129</v>
+        <v>-258941.5197382729</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4620,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="C114" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="D114" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="E114" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="F114" t="n">
-        <v>180</v>
+        <v>8488.725</v>
       </c>
       <c r="G114" t="n">
-        <v>-46423.62883185129</v>
+        <v>-267430.2447382729</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4656,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="C115" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="D115" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E115" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="F115" t="n">
-        <v>122</v>
+        <v>256.0291</v>
       </c>
       <c r="G115" t="n">
-        <v>-46301.62883185129</v>
+        <v>-267174.2156382729</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4692,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="C116" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="D116" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="E116" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="F116" t="n">
-        <v>3500</v>
+        <v>109967.1608</v>
       </c>
       <c r="G116" t="n">
-        <v>-49801.62883185129</v>
+        <v>-377141.3764382729</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4740,10 +4590,10 @@
         <v>5.48</v>
       </c>
       <c r="F117" t="n">
-        <v>333</v>
+        <v>243.677</v>
       </c>
       <c r="G117" t="n">
-        <v>-49468.62883185129</v>
+        <v>-376897.6994382729</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4764,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="C118" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="D118" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="E118" t="n">
-        <v>5.48</v>
+        <v>5.35</v>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>14380.0145</v>
       </c>
       <c r="G118" t="n">
-        <v>-49468.62883185129</v>
+        <v>-391277.7139382728</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4800,32 +4650,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C119" t="n">
-        <v>5.46</v>
+        <v>5.35</v>
       </c>
       <c r="D119" t="n">
-        <v>5.46</v>
+        <v>5.36</v>
       </c>
       <c r="E119" t="n">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="F119" t="n">
-        <v>218175.843</v>
+        <v>171877.2363</v>
       </c>
       <c r="G119" t="n">
-        <v>-267644.4718318513</v>
+        <v>-391277.7139382728</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.35</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4836,32 +4692,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.36</v>
+        <v>5.34</v>
       </c>
       <c r="C120" t="n">
-        <v>5.46</v>
+        <v>5.35</v>
       </c>
       <c r="D120" t="n">
-        <v>5.46</v>
+        <v>5.35</v>
       </c>
       <c r="E120" t="n">
         <v>5.34</v>
       </c>
       <c r="F120" t="n">
-        <v>238175.8431</v>
+        <v>88200.29399999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-267644.4718318513</v>
+        <v>-391277.7139382728</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.35</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4884,20 +4746,26 @@
         <v>5.42</v>
       </c>
       <c r="F121" t="n">
-        <v>3863.6531</v>
+        <v>234.0498</v>
       </c>
       <c r="G121" t="n">
-        <v>-271508.1249318513</v>
+        <v>-391043.6641382729</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.35</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4908,32 +4776,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="C122" t="n">
-        <v>5.39</v>
+        <v>5.35</v>
       </c>
       <c r="D122" t="n">
-        <v>5.39</v>
+        <v>5.35</v>
       </c>
       <c r="E122" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="F122" t="n">
-        <v>60381.4724</v>
+        <v>85.50579999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-331889.5973318513</v>
+        <v>-391129.1699382729</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.42</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4944,32 +4818,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="C123" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="D123" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="E123" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="F123" t="n">
-        <v>260155.0889</v>
+        <v>808522.2621000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-592044.6862318512</v>
+        <v>-1199651.432038273</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.35</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4980,32 +4860,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="C124" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="D124" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="E124" t="n">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="F124" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-592022.6862318512</v>
+        <v>-1199641.432038273</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.31</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5028,10 +4914,10 @@
         <v>5.42</v>
       </c>
       <c r="F125" t="n">
-        <v>12964.2066</v>
+        <v>92.2509</v>
       </c>
       <c r="G125" t="n">
-        <v>-604986.8928318513</v>
+        <v>-1199641.432038273</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5041,7 +4927,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5052,22 +4942,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="C126" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="D126" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="E126" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>92.0202</v>
       </c>
       <c r="G126" t="n">
-        <v>-605286.8928318513</v>
+        <v>-1199733.452238273</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5077,7 +4967,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5088,32 +4982,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.28</v>
+        <v>5.42</v>
       </c>
       <c r="C127" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="D127" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="E127" t="n">
-        <v>5.27</v>
+        <v>5.42</v>
       </c>
       <c r="F127" t="n">
-        <v>190036.4117</v>
+        <v>482.4723</v>
       </c>
       <c r="G127" t="n">
-        <v>-605286.8928318513</v>
+        <v>-1199250.979938273</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.35</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +5024,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.23</v>
+        <v>5.35</v>
       </c>
       <c r="C128" t="n">
-        <v>5.23</v>
+        <v>5.36</v>
       </c>
       <c r="D128" t="n">
-        <v>5.23</v>
+        <v>5.36</v>
       </c>
       <c r="E128" t="n">
-        <v>5.23</v>
+        <v>5.35</v>
       </c>
       <c r="F128" t="n">
-        <v>56.5528</v>
+        <v>108221.9709</v>
       </c>
       <c r="G128" t="n">
-        <v>-605343.4456318512</v>
+        <v>-1307472.950838273</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5149,7 +5049,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5172,24 +5076,24 @@
         <v>5.38</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>2352.4832</v>
       </c>
       <c r="G129" t="n">
-        <v>-605332.4456318512</v>
+        <v>-1305120.467638273</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5200,38 +5104,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C130" t="n">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="D130" t="n">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="E130" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F130" t="n">
-        <v>9462.269</v>
+        <v>40772.7217</v>
       </c>
       <c r="G130" t="n">
-        <v>-595870.1766318512</v>
+        <v>-1345893.189338273</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5244,22 +5144,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="C131" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D131" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E131" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="F131" t="n">
-        <v>18552.8756</v>
+        <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>-595870.1766318512</v>
+        <v>-1345882.189338273</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5268,12 +5168,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5286,32 +5184,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="C132" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D132" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="E132" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="F132" t="n">
-        <v>285315.9292442593</v>
+        <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>-310554.2473875919</v>
+        <v>-1345882.189338273</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5325,19 +5229,19 @@
         <v>5.38</v>
       </c>
       <c r="C133" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D133" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E133" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="F133" t="n">
-        <v>18620.5608</v>
+        <v>7806.6914</v>
       </c>
       <c r="G133" t="n">
-        <v>-329174.8081875919</v>
+        <v>-1345882.189338273</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5347,7 +5251,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5358,22 +5266,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="C134" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="D134" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="E134" t="n">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="F134" t="n">
-        <v>14373.5882</v>
+        <v>34689.2373</v>
       </c>
       <c r="G134" t="n">
-        <v>-314801.2199875919</v>
+        <v>-1380571.426638273</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5383,7 +5291,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5394,22 +5306,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="C135" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D135" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="E135" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="F135" t="n">
-        <v>25213.287</v>
+        <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>-314801.2199875919</v>
+        <v>-1380560.426638273</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5419,7 +5331,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5430,22 +5346,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="C136" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D136" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="E136" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="F136" t="n">
-        <v>18909.9537</v>
+        <v>93</v>
       </c>
       <c r="G136" t="n">
-        <v>-314801.2199875919</v>
+        <v>-1380560.426638273</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5455,7 +5371,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5466,22 +5386,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="C137" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="D137" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="E137" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="F137" t="n">
-        <v>15055.6489</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>-329856.8688875919</v>
+        <v>-1380560.426638273</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5491,7 +5411,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5502,22 +5426,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="C138" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D138" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E138" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="F138" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>-329844.8688875919</v>
+        <v>-1380560.426638273</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5527,7 +5451,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5538,22 +5466,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="C139" t="n">
-        <v>5.31</v>
+        <v>5.38</v>
       </c>
       <c r="D139" t="n">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="E139" t="n">
-        <v>5.31</v>
+        <v>5.36</v>
       </c>
       <c r="F139" t="n">
-        <v>14980.849</v>
+        <v>34700.2373</v>
       </c>
       <c r="G139" t="n">
-        <v>-344825.7178875919</v>
+        <v>-1380560.426638273</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5563,7 +5491,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5574,32 +5506,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="C140" t="n">
-        <v>5.32</v>
+        <v>5.41</v>
       </c>
       <c r="D140" t="n">
-        <v>5.32</v>
+        <v>5.41</v>
       </c>
       <c r="E140" t="n">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="F140" t="n">
-        <v>95795.141</v>
+        <v>465497.5636</v>
       </c>
       <c r="G140" t="n">
-        <v>-249030.5768875919</v>
+        <v>-915062.8630382731</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5610,22 +5548,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="C141" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="D141" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="E141" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>31819.211</v>
       </c>
       <c r="G141" t="n">
-        <v>-249019.5768875919</v>
+        <v>-915062.8630382731</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5635,11 +5573,2867 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
       <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F142" t="n">
+        <v>27605.4571</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-887457.4059382731</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F143" t="n">
+        <v>35</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-887492.4059382731</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1502.9574</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-888995.363338273</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F145" t="n">
+        <v>73542.039</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-815453.324338273</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-815464.324338273</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18810.75</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-834275.074338273</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-834265.074338273</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13662.8497</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-847927.924038273</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11838.6111</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-836089.3129382731</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4017.4822</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-832071.8307382731</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1566.7685</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-833638.5992382731</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>683.9186</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-832954.6806382731</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F154" t="n">
+        <v>78039.29580000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-754915.3848382732</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F155" t="n">
+        <v>22</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-754893.3848382732</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19525.8935</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-774419.2783382732</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17484.5978</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-756934.6805382732</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4191.376146788991</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-761126.0566850621</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5440.6603</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-766566.7169850621</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-766555.7169850621</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F161" t="n">
+        <v>64911</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-766555.7169850621</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F162" t="n">
+        <v>631.7499</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-767187.4668850622</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F163" t="n">
+        <v>11</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-767176.4668850622</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F164" t="n">
+        <v>702</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-767176.4668850622</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F165" t="n">
+        <v>73823.2887</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-693353.1781850621</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F166" t="n">
+        <v>497442.535353211</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-195910.6428318511</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-195910.6428318511</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>404825.5061</v>
+      </c>
+      <c r="G168" t="n">
+        <v>208914.8632681489</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F169" t="n">
+        <v>33</v>
+      </c>
+      <c r="G169" t="n">
+        <v>208914.8632681489</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F170" t="n">
+        <v>55</v>
+      </c>
+      <c r="G170" t="n">
+        <v>208914.8632681489</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>631189.1128999999</v>
+      </c>
+      <c r="G171" t="n">
+        <v>840103.9761681488</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="n">
+        <v>840103.9761681488</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F173" t="n">
+        <v>143776.825</v>
+      </c>
+      <c r="G173" t="n">
+        <v>696327.1511681487</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F174" t="n">
+        <v>685521.6363</v>
+      </c>
+      <c r="G174" t="n">
+        <v>10805.51486814872</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10827.51486814872</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F176" t="n">
+        <v>117969.2585</v>
+      </c>
+      <c r="G176" t="n">
+        <v>10827.51486814872</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>10827.51486814872</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F178" t="n">
+        <v>56094.129</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-45266.61413185128</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>63447.2247</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-108713.8388318513</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F180" t="n">
+        <v>200</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-108913.8388318513</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F181" t="n">
+        <v>588.2681</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-108913.8388318513</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F182" t="n">
+        <v>585</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-109498.8388318513</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-109486.8388318513</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F184" t="n">
+        <v>63243.21</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-46243.62883185129</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F185" t="n">
+        <v>180</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-46423.62883185129</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F186" t="n">
+        <v>122</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-46301.62883185129</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-49801.62883185129</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F188" t="n">
+        <v>333</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-49468.62883185129</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F189" t="n">
+        <v>11</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-49468.62883185129</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F190" t="n">
+        <v>218175.843</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-267644.4718318513</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F191" t="n">
+        <v>238175.8431</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-267644.4718318513</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3863.6531</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-271508.1249318513</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F193" t="n">
+        <v>60381.4724</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-331889.5973318513</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F194" t="n">
+        <v>260155.0889</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-592044.6862318512</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-592022.6862318512</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F196" t="n">
+        <v>12964.2066</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-604986.8928318513</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>300</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-605286.8928318513</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F198" t="n">
+        <v>190036.4117</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-605286.8928318513</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F199" t="n">
+        <v>56.5528</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-605343.4456318512</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-605332.4456318512</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F201" t="n">
+        <v>9462.269</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-595870.1766318512</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18552.8756</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-595870.1766318512</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F203" t="n">
+        <v>285315.9292442593</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-310554.2473875919</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F204" t="n">
+        <v>18620.5608</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-329174.8081875919</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F205" t="n">
+        <v>14373.5882</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-314801.2199875919</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F206" t="n">
+        <v>25213.287</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-314801.2199875919</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18909.9537</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-314801.2199875919</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F208" t="n">
+        <v>15055.6489</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-329856.8688875919</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-329844.8688875919</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F210" t="n">
+        <v>14980.849</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-344825.7178875919</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F211" t="n">
+        <v>95795.141</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-249030.5768875919</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-249019.5768875919</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>2060754.447961727</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>1250239.337161727</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>1250249.337161727</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>1301682.417161727</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>885160.4462617271</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-261365.5209382729</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-57824.29113827291</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-55814.29113827291</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-55814.29113827291</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-56861.52743827291</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-57666.41813827291</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-57666.41813827291</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-279491.2121382729</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-493643.2849382729</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-480700.8262382729</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-480700.8262382729</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-480922.8262382729</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-416793.635538273</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-383685.726538273</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-383685.726538273</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-458756.789238273</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,24 +4312,15 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4710,24 +4345,15 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4752,24 +4378,15 @@
         <v>-391043.6641382729</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4794,24 +4411,15 @@
         <v>-391129.1699382729</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4836,24 +4444,15 @@
         <v>-1199651.432038273</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4878,24 +4477,15 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4922,20 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4962,20 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5000,24 +4576,15 @@
         <v>-1199250.979938273</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5044,20 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5084,20 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5122,22 +4675,19 @@
         <v>-1345893.189338273</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5164,20 +4714,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5202,24 +4751,21 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>5.38</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5244,22 +4790,19 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5286,20 +4829,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5326,20 +4868,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5366,20 +4907,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5406,20 +4940,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5444,22 +4971,19 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5484,22 +5008,23 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5524,24 +5049,23 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="J140" t="n">
         <v>5.38</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5566,22 +5090,23 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5606,22 +5131,23 @@
         <v>-887457.4059382731</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5648,20 +5174,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5686,22 +5211,23 @@
         <v>-888995.363338273</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5726,22 +5252,23 @@
         <v>-815453.324338273</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5768,20 +5295,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5806,22 +5332,23 @@
         <v>-834275.074338273</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5846,22 +5373,23 @@
         <v>-834265.074338273</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5886,22 +5414,23 @@
         <v>-847927.924038273</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5926,22 +5455,23 @@
         <v>-836089.3129382731</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>5.35</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5966,22 +5496,23 @@
         <v>-832071.8307382731</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6008,20 +5539,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6046,22 +5576,23 @@
         <v>-832954.6806382731</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6086,22 +5617,23 @@
         <v>-754915.3848382732</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+        <v>5.41</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6126,22 +5658,23 @@
         <v>-754893.3848382732</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+        <v>5.46</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6168,20 +5701,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6208,20 +5740,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6246,22 +5777,23 @@
         <v>-761126.0566850621</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+        <v>5.48</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6288,20 +5820,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6326,24 +5857,23 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="J160" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>5.38</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6368,22 +5898,23 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>5.43</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6408,22 +5939,23 @@
         <v>-767187.4668850622</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+        <v>5.43</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6448,24 +5980,23 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="J163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>5.38</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6490,22 +6021,23 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>5.43</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6530,22 +6062,23 @@
         <v>-693353.1781850621</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+        <v>5.43</v>
+      </c>
+      <c r="J165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6570,22 +6103,23 @@
         <v>-195910.6428318511</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>5.44</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6610,22 +6144,23 @@
         <v>-195910.6428318511</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>5.47</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6650,22 +6185,23 @@
         <v>208914.8632681489</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>5.47</v>
+      </c>
+      <c r="J168" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6692,20 +6228,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6732,20 +6267,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6772,20 +6306,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6812,20 +6345,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6850,22 +6382,21 @@
         <v>696327.1511681487</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.021022304832714</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6890,22 +6421,15 @@
         <v>10805.51486814872</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6932,20 +6456,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6972,20 +6489,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7012,20 +6522,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7052,20 +6555,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7092,20 +6588,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7132,20 +6621,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7170,22 +6652,19 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5.37</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7210,24 +6689,23 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="J182" t="n">
         <v>5.37</v>
       </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7252,24 +6730,23 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="J183" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7294,24 +6771,23 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="J184" t="n">
         <v>5.37</v>
       </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7338,20 +6814,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7376,24 +6851,23 @@
         <v>-46301.62883185129</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="J186" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+        <v>5.37</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7420,20 +6894,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7460,20 +6933,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7500,20 +6972,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7540,20 +7011,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7580,20 +7050,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7620,20 +7089,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7660,20 +7128,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7700,20 +7167,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7738,22 +7204,23 @@
         <v>-592022.6862318512</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+        <v>5.33</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7780,20 +7247,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7820,20 +7286,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7860,20 +7325,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7900,20 +7364,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7940,20 +7403,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7980,20 +7442,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8020,20 +7481,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8060,20 +7520,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8098,22 +7557,23 @@
         <v>-329174.8081875919</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J204" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8140,20 +7600,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8178,22 +7637,23 @@
         <v>-314801.2199875919</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8218,22 +7678,23 @@
         <v>-314801.2199875919</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="J207" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8260,20 +7721,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8298,22 +7758,23 @@
         <v>-329844.8688875919</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+        <v>5.28</v>
+      </c>
+      <c r="J209" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8340,20 +7801,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8380,20 +7840,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8420,22 +7879,21 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>1913360.511053545</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2017490.555453545</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2649112.576757202</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3433497.512461727</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3435508.512461727</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3435519.512461727</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2927677.945661727</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2927688.945661727</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2735410.567061727</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2650663.237961727</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2060754.447961727</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1704206.066161727</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1250239.337161727</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1250249.337161727</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1301682.417161727</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1301395.542161727</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1301395.542161727</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1300875.542161727</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1300960.120261727</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1300960.120261727</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>885160.4462617271</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-261365.5209382729</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-57824.29113827291</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-55814.29113827291</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-55814.29113827291</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-56861.52743827291</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-57666.41813827291</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-57666.41813827291</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-279491.2121382729</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-493643.2849382729</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-480700.8262382729</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-480700.8262382729</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-480922.8262382729</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-416793.635538273</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-383685.726538273</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-383685.726538273</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-458756.789238273</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4345,11 +4345,17 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4384,17 @@
         <v>-391043.6641382729</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4427,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4464,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4501,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4538,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4575,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4612,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4649,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4686,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,15 +4719,15 @@
         <v>-1345893.189338273</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4715,12 +4759,10 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4751,15 +4793,15 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>5.38</v>
       </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4790,15 +4832,15 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4830,12 +4872,10 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4869,12 +4909,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4909,7 +4947,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4942,7 +4984,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4971,15 +5017,15 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5008,17 +5054,13 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5049,14 +5091,10 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J140" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,14 +5128,10 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J141" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,14 +5165,10 @@
         <v>-887457.4059382731</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,9 +5205,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,14 +5239,10 @@
         <v>-888995.363338273</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,14 +5276,10 @@
         <v>-815453.324338273</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5296,9 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,14 +5350,10 @@
         <v>-834275.074338273</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J147" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,14 +5387,10 @@
         <v>-834265.074338273</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J148" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,14 +5424,10 @@
         <v>-847927.924038273</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,14 +5461,10 @@
         <v>-836089.3129382731</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J150" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,14 +5498,10 @@
         <v>-832071.8307382731</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,9 +5538,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,14 +5572,10 @@
         <v>-832954.6806382731</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,14 +5609,10 @@
         <v>-754915.3848382732</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,14 +5646,10 @@
         <v>-754893.3848382732</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="J155" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,9 +5686,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5741,9 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,14 +5757,10 @@
         <v>-761126.0566850621</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J158" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,9 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,14 +5831,12 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>5.34</v>
       </c>
-      <c r="J160" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,14 +5870,12 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>5.43</v>
       </c>
-      <c r="J161" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5939,14 +5909,12 @@
         <v>-767187.4668850622</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>5.43</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5980,14 +5948,12 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>5.35</v>
       </c>
-      <c r="J163" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6021,14 +5987,12 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>5.43</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6062,14 +6026,10 @@
         <v>-693353.1781850621</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J165" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,14 +6063,12 @@
         <v>-195910.6428318511</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>5.44</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,14 +6102,10 @@
         <v>-195910.6428318511</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J167" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6185,14 +6139,10 @@
         <v>208914.8632681489</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,9 +6216,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,9 +6253,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,19 +6324,17 @@
         <v>696327.1511681487</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.021022304832714</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr"/>
     </row>
@@ -6421,11 +6361,15 @@
         <v>10805.51486814872</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6458,7 +6402,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6491,7 +6439,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6524,7 +6476,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6557,7 +6513,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6590,7 +6550,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6623,7 +6587,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6652,15 +6620,15 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J181" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6689,17 +6657,15 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>5.37</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6730,17 +6696,15 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>5.33</v>
       </c>
-      <c r="J183" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6771,17 +6735,15 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>5.37</v>
       </c>
-      <c r="J184" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6815,9 +6777,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,14 +6811,10 @@
         <v>-46301.62883185129</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,9 +6851,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,9 +6888,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,9 +6925,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,9 +6962,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,9 +6999,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,9 +7036,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,9 +7073,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7165,12 +7107,12 @@
         <v>-592044.6862318512</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,14 +7146,10 @@
         <v>-592022.6862318512</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,9 +7186,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,9 +7223,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,9 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,9 +7334,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,9 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,9 +7408,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7521,9 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,14 +7479,10 @@
         <v>-329174.8081875919</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J204" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7601,9 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,14 +7553,10 @@
         <v>-314801.2199875919</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J206" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,14 +7590,10 @@
         <v>-314801.2199875919</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J207" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,9 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,14 +7664,10 @@
         <v>-329844.8688875919</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J209" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,9 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,9 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,6 +7790,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>1913360.511053545</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2017490.555453545</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2649112.576757202</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2827506.552157202</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3433497.512461727</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3435508.512461727</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3435519.512461727</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2927677.945661727</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2927688.945661727</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2735410.567061727</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2650663.237961727</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1704206.066161727</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1250249.337161727</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1301682.417161727</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1301395.542161727</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1301395.542161727</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1300875.542161727</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1300960.120261727</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1300960.120261727</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>885160.4462617271</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-261365.5209382729</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-489613.570638273</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-555351.9038382729</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-555341.9038382729</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-609741.9038382729</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4345,613 +4345,573 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F121" t="n">
+        <v>234.0498</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-391043.6641382729</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>5.35</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+      <c r="C122" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F122" t="n">
+        <v>85.50579999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-391129.1699382729</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F123" t="n">
+        <v>808522.2621000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1199651.432038273</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1199641.432038273</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F125" t="n">
+        <v>92.2509</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1199641.432038273</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F126" t="n">
+        <v>92.0202</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1199733.452238273</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F127" t="n">
+        <v>482.4723</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1199250.979938273</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F128" t="n">
+        <v>108221.9709</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1307472.950838273</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2352.4832</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1305120.467638273</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F130" t="n">
+        <v>40772.7217</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1345893.189338273</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1345882.189338273</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1345882.189338273</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7806.6914</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1345882.189338273</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F134" t="n">
+        <v>34689.2373</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1380571.426638273</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1380560.426638273</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F136" t="n">
+        <v>93</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1380560.426638273</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F121" t="n">
-        <v>234.0498</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-391043.6641382729</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F122" t="n">
-        <v>85.50579999999999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-391129.1699382729</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="F123" t="n">
-        <v>808522.2621000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1199651.432038273</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="D124" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1199641.432038273</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="D125" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F125" t="n">
-        <v>92.2509</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1199641.432038273</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="D126" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F126" t="n">
-        <v>92.0202</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1199733.452238273</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C127" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="D127" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F127" t="n">
-        <v>482.4723</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1199250.979938273</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="C128" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="D128" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F128" t="n">
-        <v>108221.9709</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1307472.950838273</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2352.4832</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1305120.467638273</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="D130" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F130" t="n">
-        <v>40772.7217</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-1345893.189338273</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D131" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F131" t="n">
-        <v>11</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F132" t="n">
-        <v>11</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F133" t="n">
-        <v>7806.6914</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="E134" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F134" t="n">
-        <v>34689.2373</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1380571.426638273</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C135" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D135" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E135" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F135" t="n">
-        <v>11</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D136" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E136" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F136" t="n">
-        <v>93</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4983,7 +4943,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,7 +4982,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,7 +5021,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,7 +5060,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,7 +5099,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,7 +5138,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,7 +5216,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,7 +5255,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,10 +5291,14 @@
         <v>-815464.324338273</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5353,7 +5335,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,7 +5374,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5427,7 +5413,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,10 +5449,14 @@
         <v>-836089.3129382731</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5612,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5760,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,7 +5846,9 @@
       <c r="I160" t="n">
         <v>5.34</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,12 +5882,12 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5909,12 +5921,12 @@
         <v>-767187.4668850622</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,12 +5960,12 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,12 +5999,12 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,7 +6041,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,12 +6077,12 @@
         <v>-195910.6428318511</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6105,7 +6119,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,7 +6158,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,7 +6197,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6216,7 +6236,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6253,7 +6275,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6290,7 +6314,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6327,7 +6353,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6364,7 +6392,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,7 +6431,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6438,7 +6470,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,7 +6509,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6512,7 +6548,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,7 +6587,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6586,7 +6626,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,7 +6665,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6657,12 +6701,12 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6696,12 +6740,12 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6735,12 +6779,12 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,7 +6821,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,7 +6860,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,7 +6899,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6888,7 +6938,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,7 +6977,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,7 +7016,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,7 +7055,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,7 +7094,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,7 +7133,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,12 +7169,12 @@
         <v>-592044.6862318512</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7149,7 +7211,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,7 +7250,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7220,17 +7286,19 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.38</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>0.9987174721189592</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7257,15 +7325,11 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7294,15 +7358,11 @@
         <v>-605343.4456318512</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7331,15 +7391,11 @@
         <v>-605332.4456318512</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7368,15 +7424,11 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7405,15 +7457,11 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7494,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +7527,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +7560,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +7593,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +7626,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7659,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +7692,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +7725,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7738,15 +7754,11 @@
         <v>-249030.5768875919</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7775,21 +7787,17 @@
         <v>-249019.5768875919</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -946,7 +946,7 @@
         <v>3483442.270217202</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>3314634.205517202</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>3474201.521117202</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3433497.512461727</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3435508.512461727</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3435519.512461727</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2927677.945661727</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2927688.945661727</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2735410.567061727</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-489613.570638273</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-555351.9038382729</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-555341.9038382729</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-609741.9038382729</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4246,10 +4246,14 @@
         <v>-376897.6994382729</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.41</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4279,11 +4283,19 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4324,19 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4365,19 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4406,19 @@
         <v>-391043.6641382729</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4447,19 @@
         <v>-391129.1699382729</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4488,19 @@
         <v>-1199651.432038273</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4529,19 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4570,19 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4611,19 @@
         <v>-1199733.452238273</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4652,19 @@
         <v>-1199250.979938273</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4693,19 @@
         <v>-1307472.950838273</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4734,19 @@
         <v>-1305120.467638273</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4775,19 @@
         <v>-1345893.189338273</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,15 +4816,17 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+        <v>5.41</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4749,11 +4859,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.36</v>
+        <v>5.41</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4788,11 +4898,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.36</v>
+        <v>5.41</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4823,15 +4933,17 @@
         <v>-1380571.426638273</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>5.41</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4860,17 +4972,15 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4901,15 +5011,17 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J136" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4940,11 +5052,13 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J137" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4979,11 +5093,13 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J138" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5018,11 +5134,13 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J139" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5061,7 +5179,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5100,7 +5218,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5135,11 +5253,13 @@
         <v>-887457.4059382731</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J142" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5174,11 +5294,13 @@
         <v>-887492.4059382731</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J143" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5217,7 +5339,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5256,7 +5378,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5291,13 +5413,11 @@
         <v>-815464.324338273</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5332,11 +5452,13 @@
         <v>-834275.074338273</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J147" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5371,11 +5493,13 @@
         <v>-834265.074338273</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J148" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5410,11 +5534,13 @@
         <v>-847927.924038273</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J149" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5455,7 +5581,7 @@
         <v>5.35</v>
       </c>
       <c r="J150" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5490,11 +5616,13 @@
         <v>-832071.8307382731</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J151" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5529,11 +5657,13 @@
         <v>-833638.5992382731</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J152" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5568,11 +5698,13 @@
         <v>-832954.6806382731</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J153" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5607,11 +5739,13 @@
         <v>-754915.3848382732</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J154" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5646,11 +5780,13 @@
         <v>-754893.3848382732</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J155" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5689,7 +5825,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5724,11 +5860,13 @@
         <v>-756934.6805382732</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J157" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5763,11 +5901,13 @@
         <v>-761126.0566850621</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J158" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5802,11 +5942,13 @@
         <v>-766566.7169850621</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.45</v>
+      </c>
       <c r="J159" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5847,7 +5989,7 @@
         <v>5.34</v>
       </c>
       <c r="J160" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5882,11 +6024,13 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J161" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5921,11 +6065,13 @@
         <v>-767187.4668850622</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J162" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5960,11 +6106,13 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J163" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5999,11 +6147,13 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J164" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6042,7 +6192,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6081,7 +6231,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6120,7 +6270,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6155,11 +6305,13 @@
         <v>208914.8632681489</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J168" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6198,7 +6350,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6237,7 +6389,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6276,7 +6428,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6315,7 +6467,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6354,7 +6506,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6393,7 +6545,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6432,7 +6584,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6471,7 +6623,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6506,19 +6658,19 @@
         <v>10827.51486814872</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>1.017181146025878</v>
       </c>
       <c r="M177" t="inlineStr"/>
     </row>
@@ -6548,14 +6700,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6587,14 +6733,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6623,17 +6763,15 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J180" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.48</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6662,15 +6800,17 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5.37</v>
+      </c>
       <c r="J181" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6701,15 +6841,17 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>5.37</v>
+      </c>
       <c r="J182" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6740,17 +6882,15 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J183" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.33</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6779,15 +6919,17 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.37</v>
+      </c>
       <c r="J184" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6818,15 +6960,17 @@
         <v>-46423.62883185129</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J185" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6857,17 +7001,15 @@
         <v>-46301.62883185129</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J186" t="n">
         <v>5.38</v>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6896,15 +7038,17 @@
         <v>-49801.62883185129</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J187" t="n">
         <v>5.38</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6935,15 +7079,17 @@
         <v>-49468.62883185129</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5.38</v>
+      </c>
       <c r="J188" t="n">
         <v>5.38</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6977,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +7255,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7172,14 +7288,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7211,14 +7321,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7250,14 +7354,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7286,19 +7384,13 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.9987174721189592</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7325,7 +7417,7 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7358,7 +7450,7 @@
         <v>-605343.4456318512</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7391,7 +7483,7 @@
         <v>-605332.4456318512</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7424,7 +7516,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7457,7 +7549,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7754,7 +7846,7 @@
         <v>-249030.5768875919</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7787,7 +7879,7 @@
         <v>-249019.5768875919</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>

--- a/BackTest/2019-10-05 BackTest FAB.xlsx
+++ b/BackTest/2019-10-05 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>485161.0849</v>
       </c>
       <c r="G2" t="n">
-        <v>1913350.511053545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1913360.511053545</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>104130.0444</v>
       </c>
       <c r="G4" t="n">
-        <v>2017490.555453545</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2017500.555453545</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4475.319926873857</v>
       </c>
       <c r="G6" t="n">
-        <v>2017500.555453545</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>27537</v>
       </c>
       <c r="G7" t="n">
-        <v>1989963.555453545</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>608393.3763</v>
       </c>
       <c r="G8" t="n">
-        <v>2598356.931753546</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>50755.6450036563</v>
       </c>
       <c r="G9" t="n">
-        <v>2649112.576757202</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>178393.9754</v>
       </c>
       <c r="G10" t="n">
-        <v>2827506.552157202</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>110893.1159</v>
       </c>
       <c r="G11" t="n">
-        <v>2827506.552157202</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>778.9854</v>
       </c>
       <c r="G12" t="n">
-        <v>2827506.552157202</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1968.2971</v>
       </c>
       <c r="G13" t="n">
-        <v>2827506.552157202</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>2827306.552157202</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>112459.6736</v>
       </c>
       <c r="G15" t="n">
-        <v>2714846.878557202</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>768605.39166</v>
       </c>
       <c r="G16" t="n">
-        <v>3483452.270217202</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>3483442.270217202</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>168808.0647</v>
       </c>
       <c r="G18" t="n">
-        <v>3314634.205517202</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>3314645.205517202</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1882.847</v>
       </c>
       <c r="G20" t="n">
-        <v>3314645.205517202</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>221270.1538</v>
       </c>
       <c r="G21" t="n">
-        <v>3314645.205517202</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>369.2028985507246</v>
       </c>
       <c r="G22" t="n">
-        <v>3314645.205517202</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>5184.3554</v>
       </c>
       <c r="G23" t="n">
-        <v>3309460.850117202</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>369.2028</v>
       </c>
       <c r="G24" t="n">
-        <v>3309460.850117202</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>183.3639</v>
       </c>
       <c r="G25" t="n">
-        <v>3309460.850117202</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>164740.671</v>
       </c>
       <c r="G26" t="n">
-        <v>3474201.521117202</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>547.4452554744526</v>
       </c>
       <c r="G27" t="n">
-        <v>3473654.075861727</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>228393.8467</v>
       </c>
       <c r="G28" t="n">
-        <v>3473654.075861727</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>40156.5634</v>
       </c>
       <c r="G29" t="n">
-        <v>3433497.512461727</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2011</v>
       </c>
       <c r="G30" t="n">
-        <v>3435508.512461727</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>3435519.512461727</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>550808.8535</v>
       </c>
       <c r="G32" t="n">
-        <v>2884710.658961727</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>111</v>
       </c>
       <c r="G33" t="n">
-        <v>2884710.658961727</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>222</v>
       </c>
       <c r="G34" t="n">
-        <v>2884710.658961727</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>44067.1955</v>
       </c>
       <c r="G35" t="n">
-        <v>2928777.854461727</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>2928777.854461727</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>8324.817499999999</v>
       </c>
       <c r="G37" t="n">
-        <v>2928777.854461727</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5769.8597</v>
       </c>
       <c r="G38" t="n">
-        <v>2928777.854461727</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1099.9088</v>
       </c>
       <c r="G39" t="n">
-        <v>2927677.945661727</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>2927688.945661727</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>7047.2596</v>
       </c>
       <c r="G41" t="n">
-        <v>2920641.686061727</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>12089.8236</v>
       </c>
       <c r="G42" t="n">
-        <v>2920641.686061727</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,19 @@
         <v>862.9168</v>
       </c>
       <c r="G43" t="n">
-        <v>2920641.686061727</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>5.39</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.39</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1707,23 @@
         <v>5672.7047</v>
       </c>
       <c r="G44" t="n">
-        <v>2920641.686061727</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>5.39</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1745,23 @@
         <v>185231.119</v>
       </c>
       <c r="G45" t="n">
-        <v>2735410.567061727</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>5.39</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1783,19 @@
         <v>373.1725</v>
       </c>
       <c r="G46" t="n">
-        <v>2735783.739561727</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>5.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1817,23 @@
         <v>85120.5016</v>
       </c>
       <c r="G47" t="n">
-        <v>2650663.237961727</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>5.39</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1855,23 @@
         <v>351.2591</v>
       </c>
       <c r="G48" t="n">
-        <v>2651014.497061727</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1893,19 @@
         <v>551.4705</v>
       </c>
       <c r="G49" t="n">
-        <v>2651014.497061727</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>5.44</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1927,23 @@
         <v>590260.0490999999</v>
       </c>
       <c r="G50" t="n">
-        <v>2060754.447961727</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>5.44</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1965,23 @@
         <v>333.6948</v>
       </c>
       <c r="G51" t="n">
-        <v>2061088.142761727</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2003,23 @@
         <v>1315.2573</v>
       </c>
       <c r="G52" t="n">
-        <v>2061088.142761727</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>5.44</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2041,23 @@
         <v>356882.0766</v>
       </c>
       <c r="G53" t="n">
-        <v>1704206.066161727</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>5.44</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2079,23 @@
         <v>453966.729</v>
       </c>
       <c r="G54" t="n">
-        <v>1250239.337161727</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>5.36</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2117,23 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>1250249.337161727</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>5.33</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2155,23 @@
         <v>51433.08</v>
       </c>
       <c r="G56" t="n">
-        <v>1301682.417161727</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>5.44</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2193,21 @@
         <v>286.875</v>
       </c>
       <c r="G57" t="n">
-        <v>1301395.542161727</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2229,21 @@
         <v>35189.5</v>
       </c>
       <c r="G58" t="n">
-        <v>1301395.542161727</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2265,21 @@
         <v>520</v>
       </c>
       <c r="G59" t="n">
-        <v>1300875.542161727</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2301,21 @@
         <v>84.57810000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>1300960.120261727</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2337,21 @@
         <v>305.283</v>
       </c>
       <c r="G61" t="n">
-        <v>1300960.120261727</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2373,21 @@
         <v>415799.674</v>
       </c>
       <c r="G62" t="n">
-        <v>885160.4462617271</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2409,23 @@
         <v>1146525.9672</v>
       </c>
       <c r="G63" t="n">
-        <v>-261365.5209382729</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>5.38</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2447,23 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-261355.5209382729</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>5.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2485,21 @@
         <v>3425.4832</v>
       </c>
       <c r="G65" t="n">
-        <v>-261355.5209382729</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2521,21 @@
         <v>315668.8661</v>
       </c>
       <c r="G66" t="n">
-        <v>-577024.3870382729</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2557,21 @@
         <v>193021.951</v>
       </c>
       <c r="G67" t="n">
-        <v>-384002.4360382729</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2593,21 @@
         <v>428351.5333</v>
       </c>
       <c r="G68" t="n">
-        <v>-384002.4360382729</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2629,21 @@
         <v>58673.7304</v>
       </c>
       <c r="G69" t="n">
-        <v>-325328.7056382729</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2665,21 @@
         <v>13279.4667</v>
       </c>
       <c r="G70" t="n">
-        <v>-338608.1723382729</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2701,23 @@
         <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>-338588.1723382729</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>5.19</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2739,21 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-338598.1723382729</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2775,21 @@
         <v>235744.2922</v>
       </c>
       <c r="G73" t="n">
-        <v>-102853.8801382729</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2811,21 @@
         <v>19370.5</v>
       </c>
       <c r="G74" t="n">
-        <v>-83483.38013827291</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2847,23 @@
         <v>2010</v>
       </c>
       <c r="G75" t="n">
-        <v>-81473.38013827291</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>5.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2885,21 @@
         <v>66269.5971</v>
       </c>
       <c r="G76" t="n">
-        <v>-81473.38013827291</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2921,21 @@
         <v>3050</v>
       </c>
       <c r="G77" t="n">
-        <v>-78423.38013827291</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2957,21 @@
         <v>810</v>
       </c>
       <c r="G78" t="n">
-        <v>-78423.38013827291</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2993,21 @@
         <v>25636.363</v>
       </c>
       <c r="G79" t="n">
-        <v>-52787.01713827292</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3029,21 @@
         <v>12000</v>
       </c>
       <c r="G80" t="n">
-        <v>-52787.01713827292</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3065,21 @@
         <v>5037.274</v>
       </c>
       <c r="G81" t="n">
-        <v>-57824.29113827291</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3101,21 @@
         <v>2010</v>
       </c>
       <c r="G82" t="n">
-        <v>-55814.29113827291</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3137,21 @@
         <v>310</v>
       </c>
       <c r="G83" t="n">
-        <v>-55814.29113827291</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3173,21 @@
         <v>1047.2363</v>
       </c>
       <c r="G84" t="n">
-        <v>-56861.52743827291</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3209,21 @@
         <v>804.8907</v>
       </c>
       <c r="G85" t="n">
-        <v>-57666.41813827291</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3245,21 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>-57666.41813827291</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3281,21 @@
         <v>221824.794</v>
       </c>
       <c r="G87" t="n">
-        <v>-279491.2121382729</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3317,21 @@
         <v>214152.0728</v>
       </c>
       <c r="G88" t="n">
-        <v>-493643.2849382729</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3353,21 @@
         <v>5973.9168</v>
       </c>
       <c r="G89" t="n">
-        <v>-487669.3681382729</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3389,21 @@
         <v>215.7103</v>
       </c>
       <c r="G90" t="n">
-        <v>-487453.6578382729</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3425,21 @@
         <v>7000</v>
       </c>
       <c r="G91" t="n">
-        <v>-480453.6578382729</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3461,21 @@
         <v>133.3332</v>
       </c>
       <c r="G92" t="n">
-        <v>-480453.6578382729</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3497,21 @@
         <v>44.4444</v>
       </c>
       <c r="G93" t="n">
-        <v>-480453.6578382729</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3533,21 @@
         <v>794.332</v>
       </c>
       <c r="G94" t="n">
-        <v>-480453.6578382729</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3569,21 @@
         <v>247.1684</v>
       </c>
       <c r="G95" t="n">
-        <v>-480700.8262382729</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1.004191176470588</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3605,15 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>-480700.8262382729</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3635,15 @@
         <v>222</v>
       </c>
       <c r="G97" t="n">
-        <v>-480922.8262382729</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3665,15 @@
         <v>64129.1907</v>
       </c>
       <c r="G98" t="n">
-        <v>-416793.635538273</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3695,15 @@
         <v>33107.909</v>
       </c>
       <c r="G99" t="n">
-        <v>-383685.726538273</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3725,15 @@
         <v>40135.0909</v>
       </c>
       <c r="G100" t="n">
-        <v>-383685.726538273</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3755,15 @@
         <v>75071.06269999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-458756.789238273</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3785,15 @@
         <v>30866.7814</v>
       </c>
       <c r="G102" t="n">
-        <v>-489623.570638273</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3815,15 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-489613.570638273</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3845,15 @@
         <v>65738.33319999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-555351.9038382729</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3875,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-555341.9038382729</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3905,15 @@
         <v>54400</v>
       </c>
       <c r="G106" t="n">
-        <v>-609741.9038382729</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3935,15 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-609731.9038382729</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3965,15 @@
         <v>15294.4954</v>
       </c>
       <c r="G108" t="n">
-        <v>-625026.3992382729</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3995,15 @@
         <v>40853.5578</v>
       </c>
       <c r="G109" t="n">
-        <v>-625026.3992382729</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4025,15 @@
         <v>204666.5677</v>
       </c>
       <c r="G110" t="n">
-        <v>-420359.8315382729</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4055,15 @@
         <v>152625.1391</v>
       </c>
       <c r="G111" t="n">
-        <v>-267734.6924382729</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4085,15 @@
         <v>8793.172699999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-258941.5197382729</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4115,15 @@
         <v>45833.1455</v>
       </c>
       <c r="G113" t="n">
-        <v>-258941.5197382729</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4145,15 @@
         <v>8488.725</v>
       </c>
       <c r="G114" t="n">
-        <v>-267430.2447382729</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4175,15 @@
         <v>256.0291</v>
       </c>
       <c r="G115" t="n">
-        <v>-267174.2156382729</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4205,15 @@
         <v>109967.1608</v>
       </c>
       <c r="G116" t="n">
-        <v>-377141.3764382729</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,22 +4235,15 @@
         <v>243.677</v>
       </c>
       <c r="G117" t="n">
-        <v>-376897.6994382729</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4280,26 +4265,15 @@
         <v>14380.0145</v>
       </c>
       <c r="G118" t="n">
-        <v>-391277.7139382728</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4321,26 +4295,15 @@
         <v>171877.2363</v>
       </c>
       <c r="G119" t="n">
-        <v>-391277.7139382728</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J119" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,26 +4325,15 @@
         <v>88200.29399999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-391277.7139382728</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J120" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4403,26 +4355,15 @@
         <v>234.0498</v>
       </c>
       <c r="G121" t="n">
-        <v>-391043.6641382729</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J121" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4444,26 +4385,15 @@
         <v>85.50579999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-391129.1699382729</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4485,26 +4415,15 @@
         <v>808522.2621000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-1199651.432038273</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4526,26 +4445,15 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-1199641.432038273</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4567,26 +4475,15 @@
         <v>92.2509</v>
       </c>
       <c r="G125" t="n">
-        <v>-1199641.432038273</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4608,26 +4505,15 @@
         <v>92.0202</v>
       </c>
       <c r="G126" t="n">
-        <v>-1199733.452238273</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4649,26 +4535,15 @@
         <v>482.4723</v>
       </c>
       <c r="G127" t="n">
-        <v>-1199250.979938273</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4690,26 +4565,15 @@
         <v>108221.9709</v>
       </c>
       <c r="G128" t="n">
-        <v>-1307472.950838273</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4731,26 +4595,15 @@
         <v>2352.4832</v>
       </c>
       <c r="G129" t="n">
-        <v>-1305120.467638273</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4772,26 +4625,15 @@
         <v>40772.7217</v>
       </c>
       <c r="G130" t="n">
-        <v>-1345893.189338273</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4813,24 +4655,15 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4852,24 +4685,15 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4891,24 +4715,15 @@
         <v>7806.6914</v>
       </c>
       <c r="G133" t="n">
-        <v>-1345882.189338273</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4930,24 +4745,15 @@
         <v>34689.2373</v>
       </c>
       <c r="G134" t="n">
-        <v>-1380571.426638273</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4969,24 +4775,15 @@
         <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5008,26 +4805,15 @@
         <v>93</v>
       </c>
       <c r="G136" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J136" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5049,26 +4835,15 @@
         <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5090,26 +4865,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5131,26 +4895,15 @@
         <v>34700.2373</v>
       </c>
       <c r="G139" t="n">
-        <v>-1380560.426638273</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5172,24 +4925,15 @@
         <v>465497.5636</v>
       </c>
       <c r="G140" t="n">
-        <v>-915062.8630382731</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5211,24 +4955,15 @@
         <v>31819.211</v>
       </c>
       <c r="G141" t="n">
-        <v>-915062.8630382731</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5250,26 +4985,15 @@
         <v>27605.4571</v>
       </c>
       <c r="G142" t="n">
-        <v>-887457.4059382731</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5291,26 +5015,15 @@
         <v>35</v>
       </c>
       <c r="G143" t="n">
-        <v>-887492.4059382731</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="J143" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5332,24 +5045,15 @@
         <v>1502.9574</v>
       </c>
       <c r="G144" t="n">
-        <v>-888995.363338273</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5371,24 +5075,15 @@
         <v>73542.039</v>
       </c>
       <c r="G145" t="n">
-        <v>-815453.324338273</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5410,24 +5105,15 @@
         <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>-815464.324338273</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5449,26 +5135,15 @@
         <v>18810.75</v>
       </c>
       <c r="G147" t="n">
-        <v>-834275.074338273</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J147" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5490,26 +5165,15 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>-834265.074338273</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J148" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5531,26 +5195,15 @@
         <v>13662.8497</v>
       </c>
       <c r="G149" t="n">
-        <v>-847927.924038273</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5572,26 +5225,15 @@
         <v>11838.6111</v>
       </c>
       <c r="G150" t="n">
-        <v>-836089.3129382731</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J150" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5613,26 +5255,15 @@
         <v>4017.4822</v>
       </c>
       <c r="G151" t="n">
-        <v>-832071.8307382731</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5654,26 +5285,15 @@
         <v>1566.7685</v>
       </c>
       <c r="G152" t="n">
-        <v>-833638.5992382731</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J152" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5695,26 +5315,15 @@
         <v>683.9186</v>
       </c>
       <c r="G153" t="n">
-        <v>-832954.6806382731</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5736,26 +5345,15 @@
         <v>78039.29580000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-754915.3848382732</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5777,26 +5375,15 @@
         <v>22</v>
       </c>
       <c r="G155" t="n">
-        <v>-754893.3848382732</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="J155" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5818,24 +5405,15 @@
         <v>19525.8935</v>
       </c>
       <c r="G156" t="n">
-        <v>-774419.2783382732</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5857,26 +5435,15 @@
         <v>17484.5978</v>
       </c>
       <c r="G157" t="n">
-        <v>-756934.6805382732</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J157" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5898,26 +5465,15 @@
         <v>4191.376146788991</v>
       </c>
       <c r="G158" t="n">
-        <v>-761126.0566850621</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J158" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5939,26 +5495,15 @@
         <v>5440.6603</v>
       </c>
       <c r="G159" t="n">
-        <v>-766566.7169850621</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="J159" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5980,26 +5525,15 @@
         <v>11</v>
       </c>
       <c r="G160" t="n">
-        <v>-766555.7169850621</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="J160" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6021,26 +5555,15 @@
         <v>64911</v>
       </c>
       <c r="G161" t="n">
-        <v>-766555.7169850621</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J161" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6062,26 +5585,15 @@
         <v>631.7499</v>
       </c>
       <c r="G162" t="n">
-        <v>-767187.4668850622</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J162" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6103,26 +5615,15 @@
         <v>11</v>
       </c>
       <c r="G163" t="n">
-        <v>-767176.4668850622</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J163" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6144,26 +5645,15 @@
         <v>702</v>
       </c>
       <c r="G164" t="n">
-        <v>-767176.4668850622</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6185,24 +5675,15 @@
         <v>73823.2887</v>
       </c>
       <c r="G165" t="n">
-        <v>-693353.1781850621</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6224,24 +5705,15 @@
         <v>497442.535353211</v>
       </c>
       <c r="G166" t="n">
-        <v>-195910.6428318511</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6263,24 +5735,15 @@
         <v>11</v>
       </c>
       <c r="G167" t="n">
-        <v>-195910.6428318511</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6302,26 +5765,15 @@
         <v>404825.5061</v>
       </c>
       <c r="G168" t="n">
-        <v>208914.8632681489</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6343,24 +5795,15 @@
         <v>33</v>
       </c>
       <c r="G169" t="n">
-        <v>208914.8632681489</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6382,24 +5825,15 @@
         <v>55</v>
       </c>
       <c r="G170" t="n">
-        <v>208914.8632681489</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6421,24 +5855,15 @@
         <v>631189.1128999999</v>
       </c>
       <c r="G171" t="n">
-        <v>840103.9761681488</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6460,24 +5885,15 @@
         <v>22</v>
       </c>
       <c r="G172" t="n">
-        <v>840103.9761681488</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6499,24 +5915,15 @@
         <v>143776.825</v>
       </c>
       <c r="G173" t="n">
-        <v>696327.1511681487</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6538,24 +5945,15 @@
         <v>685521.6363</v>
       </c>
       <c r="G174" t="n">
-        <v>10805.51486814872</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6577,24 +5975,15 @@
         <v>22</v>
       </c>
       <c r="G175" t="n">
-        <v>10827.51486814872</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6616,24 +6005,15 @@
         <v>117969.2585</v>
       </c>
       <c r="G176" t="n">
-        <v>10827.51486814872</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6655,24 +6035,15 @@
         <v>18000</v>
       </c>
       <c r="G177" t="n">
-        <v>10827.51486814872</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1.017181146025878</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6694,18 +6065,15 @@
         <v>56094.129</v>
       </c>
       <c r="G178" t="n">
-        <v>-45266.61413185128</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6727,18 +6095,15 @@
         <v>63447.2247</v>
       </c>
       <c r="G179" t="n">
-        <v>-108713.8388318513</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6760,22 +6125,15 @@
         <v>200</v>
       </c>
       <c r="G180" t="n">
-        <v>-108913.8388318513</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J180" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6797,26 +6155,19 @@
         <v>588.2681</v>
       </c>
       <c r="G181" t="n">
-        <v>-108913.8388318513</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>5.37</v>
       </c>
       <c r="I181" t="n">
         <v>5.37</v>
       </c>
-      <c r="J181" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6838,26 +6189,23 @@
         <v>585</v>
       </c>
       <c r="G182" t="n">
-        <v>-109498.8388318513</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>5.37</v>
       </c>
       <c r="I182" t="n">
         <v>5.37</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6879,22 +6227,23 @@
         <v>12</v>
       </c>
       <c r="G183" t="n">
-        <v>-109486.8388318513</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>5.33</v>
       </c>
       <c r="I183" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6916,26 +6265,23 @@
         <v>63243.21</v>
       </c>
       <c r="G184" t="n">
-        <v>-46243.62883185129</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>5.37</v>
       </c>
       <c r="I184" t="n">
         <v>5.37</v>
       </c>
-      <c r="J184" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6957,26 +6303,21 @@
         <v>180</v>
       </c>
       <c r="G185" t="n">
-        <v>-46423.62883185129</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J185" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6998,22 +6339,21 @@
         <v>122</v>
       </c>
       <c r="G186" t="n">
-        <v>-46301.62883185129</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7035,26 +6375,21 @@
         <v>3500</v>
       </c>
       <c r="G187" t="n">
-        <v>-49801.62883185129</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J187" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7076,26 +6411,21 @@
         <v>333</v>
       </c>
       <c r="G188" t="n">
-        <v>-49468.62883185129</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J188" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7117,18 +6447,21 @@
         <v>11</v>
       </c>
       <c r="G189" t="n">
-        <v>-49468.62883185129</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7150,18 +6483,21 @@
         <v>218175.843</v>
       </c>
       <c r="G190" t="n">
-        <v>-267644.4718318513</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7183,18 +6519,21 @@
         <v>238175.8431</v>
       </c>
       <c r="G191" t="n">
-        <v>-267644.4718318513</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7216,18 +6555,23 @@
         <v>3863.6531</v>
       </c>
       <c r="G192" t="n">
-        <v>-271508.1249318513</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>5.46</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7249,18 +6593,21 @@
         <v>60381.4724</v>
       </c>
       <c r="G193" t="n">
-        <v>-331889.5973318513</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7282,18 +6629,21 @@
         <v>260155.0889</v>
       </c>
       <c r="G194" t="n">
-        <v>-592044.6862318512</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7315,18 +6665,21 @@
         <v>22</v>
       </c>
       <c r="G195" t="n">
-        <v>-592022.6862318512</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7348,18 +6701,21 @@
         <v>12964.2066</v>
       </c>
       <c r="G196" t="n">
-        <v>-604986.8928318513</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7381,18 +6737,21 @@
         <v>300</v>
       </c>
       <c r="G197" t="n">
-        <v>-605286.8928318513</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7414,18 +6773,21 @@
         <v>190036.4117</v>
       </c>
       <c r="G198" t="n">
-        <v>-605286.8928318513</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7447,18 +6809,21 @@
         <v>56.5528</v>
       </c>
       <c r="G199" t="n">
-        <v>-605343.4456318512</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7480,18 +6845,21 @@
         <v>11</v>
       </c>
       <c r="G200" t="n">
-        <v>-605332.4456318512</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7513,18 +6881,21 @@
         <v>9462.269</v>
       </c>
       <c r="G201" t="n">
-        <v>-595870.1766318512</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7546,18 +6917,21 @@
         <v>18552.8756</v>
       </c>
       <c r="G202" t="n">
-        <v>-595870.1766318512</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7579,18 +6953,21 @@
         <v>285315.9292442593</v>
       </c>
       <c r="G203" t="n">
-        <v>-310554.2473875919</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7612,18 +6989,21 @@
         <v>18620.5608</v>
       </c>
       <c r="G204" t="n">
-        <v>-329174.8081875919</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7645,18 +7025,21 @@
         <v>14373.5882</v>
       </c>
       <c r="G205" t="n">
-        <v>-314801.2199875919</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7678,18 +7061,21 @@
         <v>25213.287</v>
       </c>
       <c r="G206" t="n">
-        <v>-314801.2199875919</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7711,18 +7097,21 @@
         <v>18909.9537</v>
       </c>
       <c r="G207" t="n">
-        <v>-314801.2199875919</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7744,18 +7133,21 @@
         <v>15055.6489</v>
       </c>
       <c r="G208" t="n">
-        <v>-329856.8688875919</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7777,18 +7169,21 @@
         <v>12</v>
       </c>
       <c r="G209" t="n">
-        <v>-329844.8688875919</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7810,18 +7205,21 @@
         <v>14980.849</v>
       </c>
       <c r="G210" t="n">
-        <v>-344825.7178875919</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7843,18 +7241,21 @@
         <v>95795.141</v>
       </c>
       <c r="G211" t="n">
-        <v>-249030.5768875919</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7876,18 +7277,21 @@
         <v>11</v>
       </c>
       <c r="G212" t="n">
-        <v>-249019.5768875919</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
